--- a/Code/Results/Cases/Case_0_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_4/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.7781513697253581</v>
+        <v>0.7781513697253609</v>
       </c>
       <c r="D2">
-        <v>0.8044871763341631</v>
+        <v>0.8044871763341658</v>
       </c>
       <c r="E2">
-        <v>0.8090127673048052</v>
+        <v>0.8090127673048078</v>
       </c>
       <c r="F2">
-        <v>0.7441400976166502</v>
+        <v>0.744140097616654</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.005461481195169</v>
+        <v>1.00546148119517</v>
       </c>
       <c r="J2">
-        <v>0.8098397887638525</v>
+        <v>0.8098397887638554</v>
       </c>
       <c r="K2">
-        <v>0.819563481273862</v>
+        <v>0.8195634812738648</v>
       </c>
       <c r="L2">
-        <v>0.823978744293321</v>
+        <v>0.8239787442933234</v>
       </c>
       <c r="M2">
-        <v>0.7608649584587904</v>
+        <v>0.7608649584587941</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8433224810840525</v>
+        <v>0.8433224810840505</v>
       </c>
       <c r="D3">
-        <v>0.8631118386137216</v>
+        <v>0.8631118386137198</v>
       </c>
       <c r="E3">
-        <v>0.8669771516044841</v>
+        <v>0.8669771516044826</v>
       </c>
       <c r="F3">
-        <v>0.8260832013525993</v>
+        <v>0.8260832013525975</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.019164492546915</v>
       </c>
       <c r="J3">
-        <v>0.869235412480263</v>
+        <v>0.8692354124802614</v>
       </c>
       <c r="K3">
-        <v>0.875858269566211</v>
+        <v>0.8758582695662093</v>
       </c>
       <c r="L3">
-        <v>0.8796519738936495</v>
+        <v>0.8796519738936479</v>
       </c>
       <c r="M3">
-        <v>0.8395605402672804</v>
+        <v>0.8395605402672788</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8698869158808215</v>
+        <v>0.8698869158808211</v>
       </c>
       <c r="D4">
-        <v>0.887044242093279</v>
+        <v>0.8870442420932787</v>
       </c>
       <c r="E4">
-        <v>0.8905794750290476</v>
+        <v>0.890579475029047</v>
       </c>
       <c r="F4">
-        <v>0.8585073370984853</v>
+        <v>0.8585073370984846</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.024679135120576</v>
       </c>
       <c r="J4">
-        <v>0.8933267018278382</v>
+        <v>0.8933267018278377</v>
       </c>
       <c r="K4">
-        <v>0.898728647451173</v>
+        <v>0.8987286474511725</v>
       </c>
       <c r="L4">
-        <v>0.9022064197390476</v>
+        <v>0.902206419739047</v>
       </c>
       <c r="M4">
-        <v>0.8706780580976335</v>
+        <v>0.8706780580976329</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8795155268281196</v>
+        <v>0.8795155268281201</v>
       </c>
       <c r="D5">
-        <v>0.8957237564429991</v>
+        <v>0.8957237564429995</v>
       </c>
       <c r="E5">
-        <v>0.8991307190732063</v>
+        <v>0.8991307190732065</v>
       </c>
       <c r="F5">
-        <v>0.8701285970070107</v>
+        <v>0.8701285970070116</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.026658157304827</v>
       </c>
       <c r="J5">
-        <v>0.9020411528090968</v>
+        <v>0.9020411528090974</v>
       </c>
       <c r="K5">
-        <v>0.9070066405533875</v>
+        <v>0.9070066405533881</v>
       </c>
       <c r="L5">
-        <v>0.9103609794762449</v>
+        <v>0.9103609794762452</v>
       </c>
       <c r="M5">
-        <v>0.8818237989758887</v>
+        <v>0.8818237989758895</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8810637548110253</v>
+        <v>0.8810637548110279</v>
       </c>
       <c r="D6">
-        <v>0.8971196096056351</v>
+        <v>0.8971196096056375</v>
       </c>
       <c r="E6">
-        <v>0.9005055110247725</v>
+        <v>0.9005055110247747</v>
       </c>
       <c r="F6">
-        <v>0.8719907332192839</v>
+        <v>0.8719907332192863</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.026975155826443</v>
       </c>
       <c r="J6">
-        <v>0.9034414737725199</v>
+        <v>0.9034414737725225</v>
       </c>
       <c r="K6">
-        <v>0.9083370866055497</v>
+        <v>0.908337086605552</v>
       </c>
       <c r="L6">
-        <v>0.9116711268146623</v>
+        <v>0.9116711268146646</v>
       </c>
       <c r="M6">
-        <v>0.8836093013043771</v>
+        <v>0.8836093013043796</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8700205349962575</v>
+        <v>0.8700205349962614</v>
       </c>
       <c r="D7">
-        <v>0.8871646728809973</v>
+        <v>0.8871646728810009</v>
       </c>
       <c r="E7">
-        <v>0.8906981575261265</v>
+        <v>0.8906981575261298</v>
       </c>
       <c r="F7">
-        <v>0.8586690849591856</v>
+        <v>0.8586690849591889</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.02470668251338</v>
+        <v>1.024706682513381</v>
       </c>
       <c r="J7">
-        <v>0.8934477011060444</v>
+        <v>0.893447701106048</v>
       </c>
       <c r="K7">
-        <v>0.8988435676021934</v>
+        <v>0.8988435676021971</v>
       </c>
       <c r="L7">
-        <v>0.9023196598255293</v>
+        <v>0.9023196598255326</v>
       </c>
       <c r="M7">
-        <v>0.870833218048117</v>
+        <v>0.8708332180481201</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8065166604673477</v>
+        <v>0.8065166604673487</v>
       </c>
       <c r="D8">
-        <v>0.8299873974980589</v>
+        <v>0.8299873974980598</v>
       </c>
       <c r="E8">
-        <v>0.8342525468877284</v>
+        <v>0.8342525468877295</v>
       </c>
       <c r="F8">
-        <v>0.7802497364901337</v>
+        <v>0.7802497364901348</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.011441202759364</v>
       </c>
       <c r="J8">
-        <v>0.8357424762609607</v>
+        <v>0.8357424762609617</v>
       </c>
       <c r="K8">
-        <v>0.8440976382095713</v>
+        <v>0.8440976382095722</v>
       </c>
       <c r="L8">
-        <v>0.8482698796831765</v>
+        <v>0.8482698796831777</v>
       </c>
       <c r="M8">
-        <v>0.7955451496695432</v>
+        <v>0.7955451496695443</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8065166604673477</v>
+        <v>0.8065166604673487</v>
       </c>
       <c r="D9">
-        <v>0.8299873974980589</v>
+        <v>0.8299873974980598</v>
       </c>
       <c r="E9">
-        <v>0.8342525468877284</v>
+        <v>0.8342525468877295</v>
       </c>
       <c r="F9">
-        <v>0.7802497364901337</v>
+        <v>0.7802497364901348</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.011441202759364</v>
       </c>
       <c r="J9">
-        <v>0.8357424762609607</v>
+        <v>0.8357424762609617</v>
       </c>
       <c r="K9">
-        <v>0.8440976382095713</v>
+        <v>0.8440976382095722</v>
       </c>
       <c r="L9">
-        <v>0.8482698796831765</v>
+        <v>0.8482698796831777</v>
       </c>
       <c r="M9">
-        <v>0.7955451496695432</v>
+        <v>0.7955451496695443</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8065166604673477</v>
+        <v>0.8065166604673487</v>
       </c>
       <c r="D10">
-        <v>0.8299873974980589</v>
+        <v>0.8299873974980598</v>
       </c>
       <c r="E10">
-        <v>0.8342525468877284</v>
+        <v>0.8342525468877295</v>
       </c>
       <c r="F10">
-        <v>0.7802497364901337</v>
+        <v>0.7802497364901348</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.011441202759364</v>
       </c>
       <c r="J10">
-        <v>0.8357424762609607</v>
+        <v>0.8357424762609617</v>
       </c>
       <c r="K10">
-        <v>0.8440976382095713</v>
+        <v>0.8440976382095722</v>
       </c>
       <c r="L10">
-        <v>0.8482698796831765</v>
+        <v>0.8482698796831777</v>
       </c>
       <c r="M10">
-        <v>0.7955451496695432</v>
+        <v>0.7955451496695443</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8065166604673477</v>
+        <v>0.8065166604673487</v>
       </c>
       <c r="D11">
-        <v>0.8299873974980589</v>
+        <v>0.8299873974980598</v>
       </c>
       <c r="E11">
-        <v>0.8342525468877284</v>
+        <v>0.8342525468877295</v>
       </c>
       <c r="F11">
-        <v>0.7802497364901337</v>
+        <v>0.7802497364901348</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.011441202759364</v>
       </c>
       <c r="J11">
-        <v>0.8357424762609607</v>
+        <v>0.8357424762609617</v>
       </c>
       <c r="K11">
-        <v>0.8440976382095713</v>
+        <v>0.8440976382095722</v>
       </c>
       <c r="L11">
-        <v>0.8482698796831765</v>
+        <v>0.8482698796831777</v>
       </c>
       <c r="M11">
-        <v>0.7955451496695432</v>
+        <v>0.7955451496695443</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8065166604673477</v>
+        <v>0.8065166604673487</v>
       </c>
       <c r="D12">
-        <v>0.8299873974980589</v>
+        <v>0.8299873974980598</v>
       </c>
       <c r="E12">
-        <v>0.8342525468877284</v>
+        <v>0.8342525468877295</v>
       </c>
       <c r="F12">
-        <v>0.7802497364901337</v>
+        <v>0.7802497364901348</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.011441202759364</v>
       </c>
       <c r="J12">
-        <v>0.8357424762609607</v>
+        <v>0.8357424762609617</v>
       </c>
       <c r="K12">
-        <v>0.8440976382095713</v>
+        <v>0.8440976382095722</v>
       </c>
       <c r="L12">
-        <v>0.8482698796831765</v>
+        <v>0.8482698796831777</v>
       </c>
       <c r="M12">
-        <v>0.7955451496695432</v>
+        <v>0.7955451496695443</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8065166604673477</v>
+        <v>0.8065166604673487</v>
       </c>
       <c r="D13">
-        <v>0.8299873974980589</v>
+        <v>0.8299873974980598</v>
       </c>
       <c r="E13">
-        <v>0.8342525468877284</v>
+        <v>0.8342525468877295</v>
       </c>
       <c r="F13">
-        <v>0.7802497364901337</v>
+        <v>0.7802497364901348</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.011441202759364</v>
       </c>
       <c r="J13">
-        <v>0.8357424762609607</v>
+        <v>0.8357424762609617</v>
       </c>
       <c r="K13">
-        <v>0.8440976382095713</v>
+        <v>0.8440976382095722</v>
       </c>
       <c r="L13">
-        <v>0.8482698796831765</v>
+        <v>0.8482698796831777</v>
       </c>
       <c r="M13">
-        <v>0.7955451496695432</v>
+        <v>0.7955451496695443</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8065166604673477</v>
+        <v>0.8065166604673487</v>
       </c>
       <c r="D14">
-        <v>0.8299873974980589</v>
+        <v>0.8299873974980598</v>
       </c>
       <c r="E14">
-        <v>0.8342525468877284</v>
+        <v>0.8342525468877295</v>
       </c>
       <c r="F14">
-        <v>0.7802497364901337</v>
+        <v>0.7802497364901348</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.011441202759364</v>
       </c>
       <c r="J14">
-        <v>0.8357424762609607</v>
+        <v>0.8357424762609617</v>
       </c>
       <c r="K14">
-        <v>0.8440976382095713</v>
+        <v>0.8440976382095722</v>
       </c>
       <c r="L14">
-        <v>0.8482698796831765</v>
+        <v>0.8482698796831777</v>
       </c>
       <c r="M14">
-        <v>0.7955451496695432</v>
+        <v>0.7955451496695443</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8065166604673477</v>
+        <v>0.8065166604673487</v>
       </c>
       <c r="D15">
-        <v>0.8299873974980589</v>
+        <v>0.8299873974980598</v>
       </c>
       <c r="E15">
-        <v>0.8342525468877284</v>
+        <v>0.8342525468877295</v>
       </c>
       <c r="F15">
-        <v>0.7802497364901337</v>
+        <v>0.7802497364901348</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.011441202759364</v>
       </c>
       <c r="J15">
-        <v>0.8357424762609607</v>
+        <v>0.8357424762609617</v>
       </c>
       <c r="K15">
-        <v>0.8440976382095713</v>
+        <v>0.8440976382095722</v>
       </c>
       <c r="L15">
-        <v>0.8482698796831765</v>
+        <v>0.8482698796831777</v>
       </c>
       <c r="M15">
-        <v>0.7955451496695432</v>
+        <v>0.7955451496695443</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8065166604673477</v>
+        <v>0.8065166604673487</v>
       </c>
       <c r="D16">
-        <v>0.8299873974980589</v>
+        <v>0.8299873974980598</v>
       </c>
       <c r="E16">
-        <v>0.8342525468877284</v>
+        <v>0.8342525468877295</v>
       </c>
       <c r="F16">
-        <v>0.7802497364901337</v>
+        <v>0.7802497364901348</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.011441202759364</v>
       </c>
       <c r="J16">
-        <v>0.8357424762609607</v>
+        <v>0.8357424762609617</v>
       </c>
       <c r="K16">
-        <v>0.8440976382095713</v>
+        <v>0.8440976382095722</v>
       </c>
       <c r="L16">
-        <v>0.8482698796831765</v>
+        <v>0.8482698796831777</v>
       </c>
       <c r="M16">
-        <v>0.7955451496695432</v>
+        <v>0.7955451496695443</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8065166604673477</v>
+        <v>0.8065166604673487</v>
       </c>
       <c r="D17">
-        <v>0.8299873974980589</v>
+        <v>0.8299873974980598</v>
       </c>
       <c r="E17">
-        <v>0.8342525468877284</v>
+        <v>0.8342525468877295</v>
       </c>
       <c r="F17">
-        <v>0.7802497364901337</v>
+        <v>0.7802497364901348</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.011441202759364</v>
       </c>
       <c r="J17">
-        <v>0.8357424762609607</v>
+        <v>0.8357424762609617</v>
       </c>
       <c r="K17">
-        <v>0.8440976382095713</v>
+        <v>0.8440976382095722</v>
       </c>
       <c r="L17">
-        <v>0.8482698796831765</v>
+        <v>0.8482698796831777</v>
       </c>
       <c r="M17">
-        <v>0.7955451496695432</v>
+        <v>0.7955451496695443</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8065166604673477</v>
+        <v>0.8065166604673487</v>
       </c>
       <c r="D18">
-        <v>0.8299873974980589</v>
+        <v>0.8299873974980598</v>
       </c>
       <c r="E18">
-        <v>0.8342525468877284</v>
+        <v>0.8342525468877295</v>
       </c>
       <c r="F18">
-        <v>0.7802497364901337</v>
+        <v>0.7802497364901348</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.011441202759364</v>
       </c>
       <c r="J18">
-        <v>0.8357424762609607</v>
+        <v>0.8357424762609617</v>
       </c>
       <c r="K18">
-        <v>0.8440976382095713</v>
+        <v>0.8440976382095722</v>
       </c>
       <c r="L18">
-        <v>0.8482698796831765</v>
+        <v>0.8482698796831777</v>
       </c>
       <c r="M18">
-        <v>0.7955451496695432</v>
+        <v>0.7955451496695443</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8065166604673477</v>
+        <v>0.8065166604673487</v>
       </c>
       <c r="D19">
-        <v>0.8299873974980589</v>
+        <v>0.8299873974980598</v>
       </c>
       <c r="E19">
-        <v>0.8342525468877284</v>
+        <v>0.8342525468877295</v>
       </c>
       <c r="F19">
-        <v>0.7802497364901337</v>
+        <v>0.7802497364901348</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.011441202759364</v>
       </c>
       <c r="J19">
-        <v>0.8357424762609607</v>
+        <v>0.8357424762609617</v>
       </c>
       <c r="K19">
-        <v>0.8440976382095713</v>
+        <v>0.8440976382095722</v>
       </c>
       <c r="L19">
-        <v>0.8482698796831765</v>
+        <v>0.8482698796831777</v>
       </c>
       <c r="M19">
-        <v>0.7955451496695432</v>
+        <v>0.7955451496695443</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8065166604673477</v>
+        <v>0.8065166604673487</v>
       </c>
       <c r="D20">
-        <v>0.8299873974980589</v>
+        <v>0.8299873974980598</v>
       </c>
       <c r="E20">
-        <v>0.8342525468877284</v>
+        <v>0.8342525468877295</v>
       </c>
       <c r="F20">
-        <v>0.7802497364901337</v>
+        <v>0.7802497364901348</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.011441202759364</v>
       </c>
       <c r="J20">
-        <v>0.8357424762609607</v>
+        <v>0.8357424762609617</v>
       </c>
       <c r="K20">
-        <v>0.8440976382095713</v>
+        <v>0.8440976382095722</v>
       </c>
       <c r="L20">
-        <v>0.8482698796831765</v>
+        <v>0.8482698796831777</v>
       </c>
       <c r="M20">
-        <v>0.7955451496695432</v>
+        <v>0.7955451496695443</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8065166604673477</v>
+        <v>0.8065166604673487</v>
       </c>
       <c r="D21">
-        <v>0.8299873974980589</v>
+        <v>0.8299873974980598</v>
       </c>
       <c r="E21">
-        <v>0.8342525468877284</v>
+        <v>0.8342525468877295</v>
       </c>
       <c r="F21">
-        <v>0.7802497364901337</v>
+        <v>0.7802497364901348</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.011441202759364</v>
       </c>
       <c r="J21">
-        <v>0.8357424762609607</v>
+        <v>0.8357424762609617</v>
       </c>
       <c r="K21">
-        <v>0.8440976382095713</v>
+        <v>0.8440976382095722</v>
       </c>
       <c r="L21">
-        <v>0.8482698796831765</v>
+        <v>0.8482698796831777</v>
       </c>
       <c r="M21">
-        <v>0.7955451496695432</v>
+        <v>0.7955451496695443</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8065166604673477</v>
+        <v>0.8065166604673487</v>
       </c>
       <c r="D22">
-        <v>0.8299873974980589</v>
+        <v>0.8299873974980598</v>
       </c>
       <c r="E22">
-        <v>0.8342525468877284</v>
+        <v>0.8342525468877295</v>
       </c>
       <c r="F22">
-        <v>0.7802497364901337</v>
+        <v>0.7802497364901348</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.011441202759364</v>
       </c>
       <c r="J22">
-        <v>0.8357424762609607</v>
+        <v>0.8357424762609617</v>
       </c>
       <c r="K22">
-        <v>0.8440976382095713</v>
+        <v>0.8440976382095722</v>
       </c>
       <c r="L22">
-        <v>0.8482698796831765</v>
+        <v>0.8482698796831777</v>
       </c>
       <c r="M22">
-        <v>0.7955451496695432</v>
+        <v>0.7955451496695443</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8065166604673477</v>
+        <v>0.8065166604673487</v>
       </c>
       <c r="D23">
-        <v>0.8299873974980589</v>
+        <v>0.8299873974980598</v>
       </c>
       <c r="E23">
-        <v>0.8342525468877284</v>
+        <v>0.8342525468877295</v>
       </c>
       <c r="F23">
-        <v>0.7802497364901337</v>
+        <v>0.7802497364901348</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.011441202759364</v>
       </c>
       <c r="J23">
-        <v>0.8357424762609607</v>
+        <v>0.8357424762609617</v>
       </c>
       <c r="K23">
-        <v>0.8440976382095713</v>
+        <v>0.8440976382095722</v>
       </c>
       <c r="L23">
-        <v>0.8482698796831765</v>
+        <v>0.8482698796831777</v>
       </c>
       <c r="M23">
-        <v>0.7955451496695432</v>
+        <v>0.7955451496695443</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8065166604673477</v>
+        <v>0.8065166604673487</v>
       </c>
       <c r="D24">
-        <v>0.8299873974980589</v>
+        <v>0.8299873974980598</v>
       </c>
       <c r="E24">
-        <v>0.8342525468877284</v>
+        <v>0.8342525468877295</v>
       </c>
       <c r="F24">
-        <v>0.7802497364901337</v>
+        <v>0.7802497364901348</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.011441202759364</v>
       </c>
       <c r="J24">
-        <v>0.8357424762609607</v>
+        <v>0.8357424762609617</v>
       </c>
       <c r="K24">
-        <v>0.8440976382095713</v>
+        <v>0.8440976382095722</v>
       </c>
       <c r="L24">
-        <v>0.8482698796831765</v>
+        <v>0.8482698796831777</v>
       </c>
       <c r="M24">
-        <v>0.7955451496695432</v>
+        <v>0.7955451496695443</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8065166604673477</v>
+        <v>0.8065166604673487</v>
       </c>
       <c r="D25">
-        <v>0.8299873974980589</v>
+        <v>0.8299873974980598</v>
       </c>
       <c r="E25">
-        <v>0.8342525468877284</v>
+        <v>0.8342525468877295</v>
       </c>
       <c r="F25">
-        <v>0.7802497364901337</v>
+        <v>0.7802497364901348</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.011441202759364</v>
       </c>
       <c r="J25">
-        <v>0.8357424762609607</v>
+        <v>0.8357424762609617</v>
       </c>
       <c r="K25">
-        <v>0.8440976382095713</v>
+        <v>0.8440976382095722</v>
       </c>
       <c r="L25">
-        <v>0.8482698796831765</v>
+        <v>0.8482698796831777</v>
       </c>
       <c r="M25">
-        <v>0.7955451496695432</v>
+        <v>0.7955451496695443</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_4/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.7781513697253609</v>
+        <v>0.7781513697253581</v>
       </c>
       <c r="D2">
-        <v>0.8044871763341658</v>
+        <v>0.8044871763341631</v>
       </c>
       <c r="E2">
-        <v>0.8090127673048078</v>
+        <v>0.8090127673048052</v>
       </c>
       <c r="F2">
-        <v>0.744140097616654</v>
+        <v>0.7441400976166502</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.00546148119517</v>
+        <v>1.005461481195169</v>
       </c>
       <c r="J2">
-        <v>0.8098397887638554</v>
+        <v>0.8098397887638525</v>
       </c>
       <c r="K2">
-        <v>0.8195634812738648</v>
+        <v>0.819563481273862</v>
       </c>
       <c r="L2">
-        <v>0.8239787442933234</v>
+        <v>0.823978744293321</v>
       </c>
       <c r="M2">
-        <v>0.7608649584587941</v>
+        <v>0.7608649584587904</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8433224810840505</v>
+        <v>0.8433224810840525</v>
       </c>
       <c r="D3">
-        <v>0.8631118386137198</v>
+        <v>0.8631118386137216</v>
       </c>
       <c r="E3">
-        <v>0.8669771516044826</v>
+        <v>0.8669771516044841</v>
       </c>
       <c r="F3">
-        <v>0.8260832013525975</v>
+        <v>0.8260832013525993</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.019164492546915</v>
       </c>
       <c r="J3">
-        <v>0.8692354124802614</v>
+        <v>0.869235412480263</v>
       </c>
       <c r="K3">
-        <v>0.8758582695662093</v>
+        <v>0.875858269566211</v>
       </c>
       <c r="L3">
-        <v>0.8796519738936479</v>
+        <v>0.8796519738936495</v>
       </c>
       <c r="M3">
-        <v>0.8395605402672788</v>
+        <v>0.8395605402672804</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8698869158808211</v>
+        <v>0.8698869158808215</v>
       </c>
       <c r="D4">
-        <v>0.8870442420932787</v>
+        <v>0.887044242093279</v>
       </c>
       <c r="E4">
-        <v>0.890579475029047</v>
+        <v>0.8905794750290476</v>
       </c>
       <c r="F4">
-        <v>0.8585073370984846</v>
+        <v>0.8585073370984853</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.024679135120576</v>
       </c>
       <c r="J4">
-        <v>0.8933267018278377</v>
+        <v>0.8933267018278382</v>
       </c>
       <c r="K4">
-        <v>0.8987286474511725</v>
+        <v>0.898728647451173</v>
       </c>
       <c r="L4">
-        <v>0.902206419739047</v>
+        <v>0.9022064197390476</v>
       </c>
       <c r="M4">
-        <v>0.8706780580976329</v>
+        <v>0.8706780580976335</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8795155268281201</v>
+        <v>0.8795155268281196</v>
       </c>
       <c r="D5">
-        <v>0.8957237564429995</v>
+        <v>0.8957237564429991</v>
       </c>
       <c r="E5">
-        <v>0.8991307190732065</v>
+        <v>0.8991307190732063</v>
       </c>
       <c r="F5">
-        <v>0.8701285970070116</v>
+        <v>0.8701285970070107</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.026658157304827</v>
       </c>
       <c r="J5">
-        <v>0.9020411528090974</v>
+        <v>0.9020411528090968</v>
       </c>
       <c r="K5">
-        <v>0.9070066405533881</v>
+        <v>0.9070066405533875</v>
       </c>
       <c r="L5">
-        <v>0.9103609794762452</v>
+        <v>0.9103609794762449</v>
       </c>
       <c r="M5">
-        <v>0.8818237989758895</v>
+        <v>0.8818237989758887</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8810637548110279</v>
+        <v>0.8810637548110253</v>
       </c>
       <c r="D6">
-        <v>0.8971196096056375</v>
+        <v>0.8971196096056351</v>
       </c>
       <c r="E6">
-        <v>0.9005055110247747</v>
+        <v>0.9005055110247725</v>
       </c>
       <c r="F6">
-        <v>0.8719907332192863</v>
+        <v>0.8719907332192839</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.026975155826443</v>
       </c>
       <c r="J6">
-        <v>0.9034414737725225</v>
+        <v>0.9034414737725199</v>
       </c>
       <c r="K6">
-        <v>0.908337086605552</v>
+        <v>0.9083370866055497</v>
       </c>
       <c r="L6">
-        <v>0.9116711268146646</v>
+        <v>0.9116711268146623</v>
       </c>
       <c r="M6">
-        <v>0.8836093013043796</v>
+        <v>0.8836093013043771</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8700205349962614</v>
+        <v>0.8700205349962575</v>
       </c>
       <c r="D7">
-        <v>0.8871646728810009</v>
+        <v>0.8871646728809973</v>
       </c>
       <c r="E7">
-        <v>0.8906981575261298</v>
+        <v>0.8906981575261265</v>
       </c>
       <c r="F7">
-        <v>0.8586690849591889</v>
+        <v>0.8586690849591856</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.024706682513381</v>
+        <v>1.02470668251338</v>
       </c>
       <c r="J7">
-        <v>0.893447701106048</v>
+        <v>0.8934477011060444</v>
       </c>
       <c r="K7">
-        <v>0.8988435676021971</v>
+        <v>0.8988435676021934</v>
       </c>
       <c r="L7">
-        <v>0.9023196598255326</v>
+        <v>0.9023196598255293</v>
       </c>
       <c r="M7">
-        <v>0.8708332180481201</v>
+        <v>0.870833218048117</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8065166604673487</v>
+        <v>0.8065166604673477</v>
       </c>
       <c r="D8">
-        <v>0.8299873974980598</v>
+        <v>0.8299873974980589</v>
       </c>
       <c r="E8">
-        <v>0.8342525468877295</v>
+        <v>0.8342525468877284</v>
       </c>
       <c r="F8">
-        <v>0.7802497364901348</v>
+        <v>0.7802497364901337</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.011441202759364</v>
       </c>
       <c r="J8">
-        <v>0.8357424762609617</v>
+        <v>0.8357424762609607</v>
       </c>
       <c r="K8">
-        <v>0.8440976382095722</v>
+        <v>0.8440976382095713</v>
       </c>
       <c r="L8">
-        <v>0.8482698796831777</v>
+        <v>0.8482698796831765</v>
       </c>
       <c r="M8">
-        <v>0.7955451496695443</v>
+        <v>0.7955451496695432</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8065166604673487</v>
+        <v>0.8065166604673477</v>
       </c>
       <c r="D9">
-        <v>0.8299873974980598</v>
+        <v>0.8299873974980589</v>
       </c>
       <c r="E9">
-        <v>0.8342525468877295</v>
+        <v>0.8342525468877284</v>
       </c>
       <c r="F9">
-        <v>0.7802497364901348</v>
+        <v>0.7802497364901337</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.011441202759364</v>
       </c>
       <c r="J9">
-        <v>0.8357424762609617</v>
+        <v>0.8357424762609607</v>
       </c>
       <c r="K9">
-        <v>0.8440976382095722</v>
+        <v>0.8440976382095713</v>
       </c>
       <c r="L9">
-        <v>0.8482698796831777</v>
+        <v>0.8482698796831765</v>
       </c>
       <c r="M9">
-        <v>0.7955451496695443</v>
+        <v>0.7955451496695432</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8065166604673487</v>
+        <v>0.8065166604673477</v>
       </c>
       <c r="D10">
-        <v>0.8299873974980598</v>
+        <v>0.8299873974980589</v>
       </c>
       <c r="E10">
-        <v>0.8342525468877295</v>
+        <v>0.8342525468877284</v>
       </c>
       <c r="F10">
-        <v>0.7802497364901348</v>
+        <v>0.7802497364901337</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.011441202759364</v>
       </c>
       <c r="J10">
-        <v>0.8357424762609617</v>
+        <v>0.8357424762609607</v>
       </c>
       <c r="K10">
-        <v>0.8440976382095722</v>
+        <v>0.8440976382095713</v>
       </c>
       <c r="L10">
-        <v>0.8482698796831777</v>
+        <v>0.8482698796831765</v>
       </c>
       <c r="M10">
-        <v>0.7955451496695443</v>
+        <v>0.7955451496695432</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8065166604673487</v>
+        <v>0.8065166604673477</v>
       </c>
       <c r="D11">
-        <v>0.8299873974980598</v>
+        <v>0.8299873974980589</v>
       </c>
       <c r="E11">
-        <v>0.8342525468877295</v>
+        <v>0.8342525468877284</v>
       </c>
       <c r="F11">
-        <v>0.7802497364901348</v>
+        <v>0.7802497364901337</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.011441202759364</v>
       </c>
       <c r="J11">
-        <v>0.8357424762609617</v>
+        <v>0.8357424762609607</v>
       </c>
       <c r="K11">
-        <v>0.8440976382095722</v>
+        <v>0.8440976382095713</v>
       </c>
       <c r="L11">
-        <v>0.8482698796831777</v>
+        <v>0.8482698796831765</v>
       </c>
       <c r="M11">
-        <v>0.7955451496695443</v>
+        <v>0.7955451496695432</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8065166604673487</v>
+        <v>0.8065166604673477</v>
       </c>
       <c r="D12">
-        <v>0.8299873974980598</v>
+        <v>0.8299873974980589</v>
       </c>
       <c r="E12">
-        <v>0.8342525468877295</v>
+        <v>0.8342525468877284</v>
       </c>
       <c r="F12">
-        <v>0.7802497364901348</v>
+        <v>0.7802497364901337</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.011441202759364</v>
       </c>
       <c r="J12">
-        <v>0.8357424762609617</v>
+        <v>0.8357424762609607</v>
       </c>
       <c r="K12">
-        <v>0.8440976382095722</v>
+        <v>0.8440976382095713</v>
       </c>
       <c r="L12">
-        <v>0.8482698796831777</v>
+        <v>0.8482698796831765</v>
       </c>
       <c r="M12">
-        <v>0.7955451496695443</v>
+        <v>0.7955451496695432</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8065166604673487</v>
+        <v>0.8065166604673477</v>
       </c>
       <c r="D13">
-        <v>0.8299873974980598</v>
+        <v>0.8299873974980589</v>
       </c>
       <c r="E13">
-        <v>0.8342525468877295</v>
+        <v>0.8342525468877284</v>
       </c>
       <c r="F13">
-        <v>0.7802497364901348</v>
+        <v>0.7802497364901337</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.011441202759364</v>
       </c>
       <c r="J13">
-        <v>0.8357424762609617</v>
+        <v>0.8357424762609607</v>
       </c>
       <c r="K13">
-        <v>0.8440976382095722</v>
+        <v>0.8440976382095713</v>
       </c>
       <c r="L13">
-        <v>0.8482698796831777</v>
+        <v>0.8482698796831765</v>
       </c>
       <c r="M13">
-        <v>0.7955451496695443</v>
+        <v>0.7955451496695432</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8065166604673487</v>
+        <v>0.8065166604673477</v>
       </c>
       <c r="D14">
-        <v>0.8299873974980598</v>
+        <v>0.8299873974980589</v>
       </c>
       <c r="E14">
-        <v>0.8342525468877295</v>
+        <v>0.8342525468877284</v>
       </c>
       <c r="F14">
-        <v>0.7802497364901348</v>
+        <v>0.7802497364901337</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.011441202759364</v>
       </c>
       <c r="J14">
-        <v>0.8357424762609617</v>
+        <v>0.8357424762609607</v>
       </c>
       <c r="K14">
-        <v>0.8440976382095722</v>
+        <v>0.8440976382095713</v>
       </c>
       <c r="L14">
-        <v>0.8482698796831777</v>
+        <v>0.8482698796831765</v>
       </c>
       <c r="M14">
-        <v>0.7955451496695443</v>
+        <v>0.7955451496695432</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8065166604673487</v>
+        <v>0.8065166604673477</v>
       </c>
       <c r="D15">
-        <v>0.8299873974980598</v>
+        <v>0.8299873974980589</v>
       </c>
       <c r="E15">
-        <v>0.8342525468877295</v>
+        <v>0.8342525468877284</v>
       </c>
       <c r="F15">
-        <v>0.7802497364901348</v>
+        <v>0.7802497364901337</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.011441202759364</v>
       </c>
       <c r="J15">
-        <v>0.8357424762609617</v>
+        <v>0.8357424762609607</v>
       </c>
       <c r="K15">
-        <v>0.8440976382095722</v>
+        <v>0.8440976382095713</v>
       </c>
       <c r="L15">
-        <v>0.8482698796831777</v>
+        <v>0.8482698796831765</v>
       </c>
       <c r="M15">
-        <v>0.7955451496695443</v>
+        <v>0.7955451496695432</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8065166604673487</v>
+        <v>0.8065166604673477</v>
       </c>
       <c r="D16">
-        <v>0.8299873974980598</v>
+        <v>0.8299873974980589</v>
       </c>
       <c r="E16">
-        <v>0.8342525468877295</v>
+        <v>0.8342525468877284</v>
       </c>
       <c r="F16">
-        <v>0.7802497364901348</v>
+        <v>0.7802497364901337</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.011441202759364</v>
       </c>
       <c r="J16">
-        <v>0.8357424762609617</v>
+        <v>0.8357424762609607</v>
       </c>
       <c r="K16">
-        <v>0.8440976382095722</v>
+        <v>0.8440976382095713</v>
       </c>
       <c r="L16">
-        <v>0.8482698796831777</v>
+        <v>0.8482698796831765</v>
       </c>
       <c r="M16">
-        <v>0.7955451496695443</v>
+        <v>0.7955451496695432</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8065166604673487</v>
+        <v>0.8065166604673477</v>
       </c>
       <c r="D17">
-        <v>0.8299873974980598</v>
+        <v>0.8299873974980589</v>
       </c>
       <c r="E17">
-        <v>0.8342525468877295</v>
+        <v>0.8342525468877284</v>
       </c>
       <c r="F17">
-        <v>0.7802497364901348</v>
+        <v>0.7802497364901337</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.011441202759364</v>
       </c>
       <c r="J17">
-        <v>0.8357424762609617</v>
+        <v>0.8357424762609607</v>
       </c>
       <c r="K17">
-        <v>0.8440976382095722</v>
+        <v>0.8440976382095713</v>
       </c>
       <c r="L17">
-        <v>0.8482698796831777</v>
+        <v>0.8482698796831765</v>
       </c>
       <c r="M17">
-        <v>0.7955451496695443</v>
+        <v>0.7955451496695432</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8065166604673487</v>
+        <v>0.8065166604673477</v>
       </c>
       <c r="D18">
-        <v>0.8299873974980598</v>
+        <v>0.8299873974980589</v>
       </c>
       <c r="E18">
-        <v>0.8342525468877295</v>
+        <v>0.8342525468877284</v>
       </c>
       <c r="F18">
-        <v>0.7802497364901348</v>
+        <v>0.7802497364901337</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.011441202759364</v>
       </c>
       <c r="J18">
-        <v>0.8357424762609617</v>
+        <v>0.8357424762609607</v>
       </c>
       <c r="K18">
-        <v>0.8440976382095722</v>
+        <v>0.8440976382095713</v>
       </c>
       <c r="L18">
-        <v>0.8482698796831777</v>
+        <v>0.8482698796831765</v>
       </c>
       <c r="M18">
-        <v>0.7955451496695443</v>
+        <v>0.7955451496695432</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8065166604673487</v>
+        <v>0.8065166604673477</v>
       </c>
       <c r="D19">
-        <v>0.8299873974980598</v>
+        <v>0.8299873974980589</v>
       </c>
       <c r="E19">
-        <v>0.8342525468877295</v>
+        <v>0.8342525468877284</v>
       </c>
       <c r="F19">
-        <v>0.7802497364901348</v>
+        <v>0.7802497364901337</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.011441202759364</v>
       </c>
       <c r="J19">
-        <v>0.8357424762609617</v>
+        <v>0.8357424762609607</v>
       </c>
       <c r="K19">
-        <v>0.8440976382095722</v>
+        <v>0.8440976382095713</v>
       </c>
       <c r="L19">
-        <v>0.8482698796831777</v>
+        <v>0.8482698796831765</v>
       </c>
       <c r="M19">
-        <v>0.7955451496695443</v>
+        <v>0.7955451496695432</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8065166604673487</v>
+        <v>0.8065166604673477</v>
       </c>
       <c r="D20">
-        <v>0.8299873974980598</v>
+        <v>0.8299873974980589</v>
       </c>
       <c r="E20">
-        <v>0.8342525468877295</v>
+        <v>0.8342525468877284</v>
       </c>
       <c r="F20">
-        <v>0.7802497364901348</v>
+        <v>0.7802497364901337</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.011441202759364</v>
       </c>
       <c r="J20">
-        <v>0.8357424762609617</v>
+        <v>0.8357424762609607</v>
       </c>
       <c r="K20">
-        <v>0.8440976382095722</v>
+        <v>0.8440976382095713</v>
       </c>
       <c r="L20">
-        <v>0.8482698796831777</v>
+        <v>0.8482698796831765</v>
       </c>
       <c r="M20">
-        <v>0.7955451496695443</v>
+        <v>0.7955451496695432</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8065166604673487</v>
+        <v>0.8065166604673477</v>
       </c>
       <c r="D21">
-        <v>0.8299873974980598</v>
+        <v>0.8299873974980589</v>
       </c>
       <c r="E21">
-        <v>0.8342525468877295</v>
+        <v>0.8342525468877284</v>
       </c>
       <c r="F21">
-        <v>0.7802497364901348</v>
+        <v>0.7802497364901337</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.011441202759364</v>
       </c>
       <c r="J21">
-        <v>0.8357424762609617</v>
+        <v>0.8357424762609607</v>
       </c>
       <c r="K21">
-        <v>0.8440976382095722</v>
+        <v>0.8440976382095713</v>
       </c>
       <c r="L21">
-        <v>0.8482698796831777</v>
+        <v>0.8482698796831765</v>
       </c>
       <c r="M21">
-        <v>0.7955451496695443</v>
+        <v>0.7955451496695432</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8065166604673487</v>
+        <v>0.8065166604673477</v>
       </c>
       <c r="D22">
-        <v>0.8299873974980598</v>
+        <v>0.8299873974980589</v>
       </c>
       <c r="E22">
-        <v>0.8342525468877295</v>
+        <v>0.8342525468877284</v>
       </c>
       <c r="F22">
-        <v>0.7802497364901348</v>
+        <v>0.7802497364901337</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.011441202759364</v>
       </c>
       <c r="J22">
-        <v>0.8357424762609617</v>
+        <v>0.8357424762609607</v>
       </c>
       <c r="K22">
-        <v>0.8440976382095722</v>
+        <v>0.8440976382095713</v>
       </c>
       <c r="L22">
-        <v>0.8482698796831777</v>
+        <v>0.8482698796831765</v>
       </c>
       <c r="M22">
-        <v>0.7955451496695443</v>
+        <v>0.7955451496695432</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8065166604673487</v>
+        <v>0.8065166604673477</v>
       </c>
       <c r="D23">
-        <v>0.8299873974980598</v>
+        <v>0.8299873974980589</v>
       </c>
       <c r="E23">
-        <v>0.8342525468877295</v>
+        <v>0.8342525468877284</v>
       </c>
       <c r="F23">
-        <v>0.7802497364901348</v>
+        <v>0.7802497364901337</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.011441202759364</v>
       </c>
       <c r="J23">
-        <v>0.8357424762609617</v>
+        <v>0.8357424762609607</v>
       </c>
       <c r="K23">
-        <v>0.8440976382095722</v>
+        <v>0.8440976382095713</v>
       </c>
       <c r="L23">
-        <v>0.8482698796831777</v>
+        <v>0.8482698796831765</v>
       </c>
       <c r="M23">
-        <v>0.7955451496695443</v>
+        <v>0.7955451496695432</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8065166604673487</v>
+        <v>0.8065166604673477</v>
       </c>
       <c r="D24">
-        <v>0.8299873974980598</v>
+        <v>0.8299873974980589</v>
       </c>
       <c r="E24">
-        <v>0.8342525468877295</v>
+        <v>0.8342525468877284</v>
       </c>
       <c r="F24">
-        <v>0.7802497364901348</v>
+        <v>0.7802497364901337</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.011441202759364</v>
       </c>
       <c r="J24">
-        <v>0.8357424762609617</v>
+        <v>0.8357424762609607</v>
       </c>
       <c r="K24">
-        <v>0.8440976382095722</v>
+        <v>0.8440976382095713</v>
       </c>
       <c r="L24">
-        <v>0.8482698796831777</v>
+        <v>0.8482698796831765</v>
       </c>
       <c r="M24">
-        <v>0.7955451496695443</v>
+        <v>0.7955451496695432</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8065166604673487</v>
+        <v>0.8065166604673477</v>
       </c>
       <c r="D25">
-        <v>0.8299873974980598</v>
+        <v>0.8299873974980589</v>
       </c>
       <c r="E25">
-        <v>0.8342525468877295</v>
+        <v>0.8342525468877284</v>
       </c>
       <c r="F25">
-        <v>0.7802497364901348</v>
+        <v>0.7802497364901337</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.011441202759364</v>
       </c>
       <c r="J25">
-        <v>0.8357424762609617</v>
+        <v>0.8357424762609607</v>
       </c>
       <c r="K25">
-        <v>0.8440976382095722</v>
+        <v>0.8440976382095713</v>
       </c>
       <c r="L25">
-        <v>0.8482698796831777</v>
+        <v>0.8482698796831765</v>
       </c>
       <c r="M25">
-        <v>0.7955451496695443</v>
+        <v>0.7955451496695432</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_4/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.7781513697253581</v>
+        <v>0.7859613002788635</v>
       </c>
       <c r="D2">
-        <v>0.8044871763341631</v>
+        <v>0.8115630107512044</v>
       </c>
       <c r="E2">
-        <v>0.8090127673048052</v>
+        <v>0.8158162861154105</v>
       </c>
       <c r="F2">
-        <v>0.7441400976166502</v>
+        <v>0.7523485209904698</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.005461481195169</v>
+        <v>1.006576113631981</v>
       </c>
       <c r="J2">
-        <v>0.8098397887638525</v>
+        <v>0.8171793036790312</v>
       </c>
       <c r="K2">
-        <v>0.819563481273862</v>
+        <v>0.8264675438414566</v>
       </c>
       <c r="L2">
-        <v>0.823978744293321</v>
+        <v>0.8306194889994752</v>
       </c>
       <c r="M2">
-        <v>0.7608649584587904</v>
+        <v>0.768827776910453</v>
+      </c>
+      <c r="N2">
+        <v>0.8183397920220318</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8433224810840525</v>
+        <v>0.848516583676544</v>
       </c>
       <c r="D3">
-        <v>0.8631118386137216</v>
+        <v>0.8678586945410166</v>
       </c>
       <c r="E3">
-        <v>0.8669771516044841</v>
+        <v>0.8714616350855302</v>
       </c>
       <c r="F3">
-        <v>0.8260832013525993</v>
+        <v>0.8307991043692017</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.019164492546915</v>
+        <v>1.019736732589716</v>
       </c>
       <c r="J3">
-        <v>0.869235412480263</v>
+        <v>0.8742036436432724</v>
       </c>
       <c r="K3">
-        <v>0.875858269566211</v>
+        <v>0.8805173017545842</v>
       </c>
       <c r="L3">
-        <v>0.8796519738936495</v>
+        <v>0.8840544136071739</v>
       </c>
       <c r="M3">
-        <v>0.8395605402672804</v>
+        <v>0.8441785770254082</v>
+      </c>
+      <c r="N3">
+        <v>0.8754451130898054</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8698869158808215</v>
+        <v>0.8746652207204568</v>
       </c>
       <c r="D4">
-        <v>0.887044242093279</v>
+        <v>0.8914244886337924</v>
       </c>
       <c r="E4">
-        <v>0.8905794750290476</v>
+        <v>0.894697835657945</v>
       </c>
       <c r="F4">
-        <v>0.8585073370984853</v>
+        <v>0.8626703280415344</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.024679135120576</v>
+        <v>1.025165319619977</v>
       </c>
       <c r="J4">
-        <v>0.8933267018278382</v>
+        <v>0.8979267863725618</v>
       </c>
       <c r="K4">
-        <v>0.898728647451173</v>
+        <v>0.9030377853525627</v>
       </c>
       <c r="L4">
-        <v>0.9022064197390476</v>
+        <v>0.9062585758542698</v>
       </c>
       <c r="M4">
-        <v>0.8706780580976335</v>
+        <v>0.8747675073666118</v>
+      </c>
+      <c r="N4">
+        <v>0.8992019454028529</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8795155268281196</v>
+        <v>0.8841792106087898</v>
       </c>
       <c r="D5">
-        <v>0.8957237564429991</v>
+        <v>0.9000033886358961</v>
       </c>
       <c r="E5">
-        <v>0.8991307190732063</v>
+        <v>0.9031484124216683</v>
       </c>
       <c r="F5">
-        <v>0.8701285970070107</v>
+        <v>0.8741388984444018</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.026658157304827</v>
+        <v>1.027120531257435</v>
       </c>
       <c r="J5">
-        <v>0.9020411528090968</v>
+        <v>0.9065409226268879</v>
       </c>
       <c r="K5">
-        <v>0.9070066405533875</v>
+        <v>0.9112202516273952</v>
       </c>
       <c r="L5">
-        <v>0.9103609794762449</v>
+        <v>0.9143172661111876</v>
       </c>
       <c r="M5">
-        <v>0.8818237989758887</v>
+        <v>0.8857674448710988</v>
+      </c>
+      <c r="N5">
+        <v>0.9078283147187153</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8810637548110253</v>
+        <v>0.8857103994462635</v>
       </c>
       <c r="D6">
-        <v>0.8971196096056351</v>
+        <v>0.9013843066690111</v>
       </c>
       <c r="E6">
-        <v>0.9005055110247725</v>
+        <v>0.9045082514969464</v>
       </c>
       <c r="F6">
-        <v>0.8719907332192839</v>
+        <v>0.8759783142964247</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.026975155826443</v>
+        <v>1.02743398432833</v>
       </c>
       <c r="J6">
-        <v>0.9034414737725199</v>
+        <v>0.9079263895795407</v>
       </c>
       <c r="K6">
-        <v>0.9083370866055497</v>
+        <v>0.9125365432924315</v>
       </c>
       <c r="L6">
-        <v>0.9116711268146623</v>
+        <v>0.9156131958494519</v>
       </c>
       <c r="M6">
-        <v>0.8836093013043771</v>
+        <v>0.8875312607524251</v>
+      </c>
+      <c r="N6">
+        <v>0.9092157491933561</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8700205349962575</v>
+        <v>0.8747971400949318</v>
       </c>
       <c r="D7">
-        <v>0.8871646728809973</v>
+        <v>0.8915434256597387</v>
       </c>
       <c r="E7">
-        <v>0.8906981575261265</v>
+        <v>0.8948150243748947</v>
       </c>
       <c r="F7">
-        <v>0.8586690849591856</v>
+        <v>0.8628298131899428</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.02470668251338</v>
+        <v>1.025192514352122</v>
       </c>
       <c r="J7">
-        <v>0.8934477011060444</v>
+        <v>0.8980462934626126</v>
       </c>
       <c r="K7">
-        <v>0.8988435676021934</v>
+        <v>0.9031512852721751</v>
       </c>
       <c r="L7">
-        <v>0.9023196598255293</v>
+        <v>0.9063703915837352</v>
       </c>
       <c r="M7">
-        <v>0.870833218048117</v>
+        <v>0.8749205059422177</v>
+      </c>
+      <c r="N7">
+        <v>0.8993216222066788</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8065166604673477</v>
+        <v>0.8127186001286867</v>
       </c>
       <c r="D8">
-        <v>0.8299873974980589</v>
+        <v>0.8356287170517848</v>
       </c>
       <c r="E8">
-        <v>0.8342525468877284</v>
+        <v>0.8396283234049342</v>
       </c>
       <c r="F8">
-        <v>0.7802497364901337</v>
+        <v>0.7863073208634065</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.011441202759364</v>
+        <v>1.012221846111195</v>
       </c>
       <c r="J8">
-        <v>0.8357424762609607</v>
+        <v>0.8416176544274546</v>
       </c>
       <c r="K8">
-        <v>0.8440976382095713</v>
+        <v>0.8496163411108141</v>
       </c>
       <c r="L8">
-        <v>0.8482698796831765</v>
+        <v>0.8535303362345127</v>
       </c>
       <c r="M8">
-        <v>0.7955451496695432</v>
+        <v>0.801447551291333</v>
+      </c>
+      <c r="N8">
+        <v>0.842812848031636</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8065166604673477</v>
+        <v>0.8127186001286867</v>
       </c>
       <c r="D9">
-        <v>0.8299873974980589</v>
+        <v>0.8356287170517848</v>
       </c>
       <c r="E9">
-        <v>0.8342525468877284</v>
+        <v>0.8396283234049342</v>
       </c>
       <c r="F9">
-        <v>0.7802497364901337</v>
+        <v>0.7863073208634065</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.011441202759364</v>
+        <v>1.012221846111195</v>
       </c>
       <c r="J9">
-        <v>0.8357424762609607</v>
+        <v>0.8416176544274546</v>
       </c>
       <c r="K9">
-        <v>0.8440976382095713</v>
+        <v>0.8496163411108141</v>
       </c>
       <c r="L9">
-        <v>0.8482698796831765</v>
+        <v>0.8535303362345127</v>
       </c>
       <c r="M9">
-        <v>0.7955451496695432</v>
+        <v>0.801447551291333</v>
+      </c>
+      <c r="N9">
+        <v>0.842812848031636</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8065166604673477</v>
+        <v>0.8127186001286867</v>
       </c>
       <c r="D10">
-        <v>0.8299873974980589</v>
+        <v>0.8356287170517848</v>
       </c>
       <c r="E10">
-        <v>0.8342525468877284</v>
+        <v>0.8396283234049342</v>
       </c>
       <c r="F10">
-        <v>0.7802497364901337</v>
+        <v>0.7863073208634065</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.011441202759364</v>
+        <v>1.012221846111195</v>
       </c>
       <c r="J10">
-        <v>0.8357424762609607</v>
+        <v>0.8416176544274546</v>
       </c>
       <c r="K10">
-        <v>0.8440976382095713</v>
+        <v>0.8496163411108141</v>
       </c>
       <c r="L10">
-        <v>0.8482698796831765</v>
+        <v>0.8535303362345127</v>
       </c>
       <c r="M10">
-        <v>0.7955451496695432</v>
+        <v>0.801447551291333</v>
+      </c>
+      <c r="N10">
+        <v>0.842812848031636</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8065166604673477</v>
+        <v>0.8127186001286867</v>
       </c>
       <c r="D11">
-        <v>0.8299873974980589</v>
+        <v>0.8356287170517848</v>
       </c>
       <c r="E11">
-        <v>0.8342525468877284</v>
+        <v>0.8396283234049342</v>
       </c>
       <c r="F11">
-        <v>0.7802497364901337</v>
+        <v>0.7863073208634065</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.011441202759364</v>
+        <v>1.012221846111195</v>
       </c>
       <c r="J11">
-        <v>0.8357424762609607</v>
+        <v>0.8416176544274546</v>
       </c>
       <c r="K11">
-        <v>0.8440976382095713</v>
+        <v>0.8496163411108141</v>
       </c>
       <c r="L11">
-        <v>0.8482698796831765</v>
+        <v>0.8535303362345127</v>
       </c>
       <c r="M11">
-        <v>0.7955451496695432</v>
+        <v>0.801447551291333</v>
+      </c>
+      <c r="N11">
+        <v>0.842812848031636</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8065166604673477</v>
+        <v>0.8127186001286867</v>
       </c>
       <c r="D12">
-        <v>0.8299873974980589</v>
+        <v>0.8356287170517848</v>
       </c>
       <c r="E12">
-        <v>0.8342525468877284</v>
+        <v>0.8396283234049342</v>
       </c>
       <c r="F12">
-        <v>0.7802497364901337</v>
+        <v>0.7863073208634065</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.011441202759364</v>
+        <v>1.012221846111195</v>
       </c>
       <c r="J12">
-        <v>0.8357424762609607</v>
+        <v>0.8416176544274546</v>
       </c>
       <c r="K12">
-        <v>0.8440976382095713</v>
+        <v>0.8496163411108141</v>
       </c>
       <c r="L12">
-        <v>0.8482698796831765</v>
+        <v>0.8535303362345127</v>
       </c>
       <c r="M12">
-        <v>0.7955451496695432</v>
+        <v>0.801447551291333</v>
+      </c>
+      <c r="N12">
+        <v>0.842812848031636</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8065166604673477</v>
+        <v>0.8127186001286867</v>
       </c>
       <c r="D13">
-        <v>0.8299873974980589</v>
+        <v>0.8356287170517848</v>
       </c>
       <c r="E13">
-        <v>0.8342525468877284</v>
+        <v>0.8396283234049342</v>
       </c>
       <c r="F13">
-        <v>0.7802497364901337</v>
+        <v>0.7863073208634065</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.011441202759364</v>
+        <v>1.012221846111195</v>
       </c>
       <c r="J13">
-        <v>0.8357424762609607</v>
+        <v>0.8416176544274546</v>
       </c>
       <c r="K13">
-        <v>0.8440976382095713</v>
+        <v>0.8496163411108141</v>
       </c>
       <c r="L13">
-        <v>0.8482698796831765</v>
+        <v>0.8535303362345127</v>
       </c>
       <c r="M13">
-        <v>0.7955451496695432</v>
+        <v>0.801447551291333</v>
+      </c>
+      <c r="N13">
+        <v>0.842812848031636</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8065166604673477</v>
+        <v>0.8127186001286867</v>
       </c>
       <c r="D14">
-        <v>0.8299873974980589</v>
+        <v>0.8356287170517848</v>
       </c>
       <c r="E14">
-        <v>0.8342525468877284</v>
+        <v>0.8396283234049342</v>
       </c>
       <c r="F14">
-        <v>0.7802497364901337</v>
+        <v>0.7863073208634065</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.011441202759364</v>
+        <v>1.012221846111195</v>
       </c>
       <c r="J14">
-        <v>0.8357424762609607</v>
+        <v>0.8416176544274546</v>
       </c>
       <c r="K14">
-        <v>0.8440976382095713</v>
+        <v>0.8496163411108141</v>
       </c>
       <c r="L14">
-        <v>0.8482698796831765</v>
+        <v>0.8535303362345127</v>
       </c>
       <c r="M14">
-        <v>0.7955451496695432</v>
+        <v>0.801447551291333</v>
+      </c>
+      <c r="N14">
+        <v>0.842812848031636</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8065166604673477</v>
+        <v>0.8127186001286867</v>
       </c>
       <c r="D15">
-        <v>0.8299873974980589</v>
+        <v>0.8356287170517848</v>
       </c>
       <c r="E15">
-        <v>0.8342525468877284</v>
+        <v>0.8396283234049342</v>
       </c>
       <c r="F15">
-        <v>0.7802497364901337</v>
+        <v>0.7863073208634065</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.011441202759364</v>
+        <v>1.012221846111195</v>
       </c>
       <c r="J15">
-        <v>0.8357424762609607</v>
+        <v>0.8416176544274546</v>
       </c>
       <c r="K15">
-        <v>0.8440976382095713</v>
+        <v>0.8496163411108141</v>
       </c>
       <c r="L15">
-        <v>0.8482698796831765</v>
+        <v>0.8535303362345127</v>
       </c>
       <c r="M15">
-        <v>0.7955451496695432</v>
+        <v>0.801447551291333</v>
+      </c>
+      <c r="N15">
+        <v>0.842812848031636</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8065166604673477</v>
+        <v>0.8127186001286867</v>
       </c>
       <c r="D16">
-        <v>0.8299873974980589</v>
+        <v>0.8356287170517848</v>
       </c>
       <c r="E16">
-        <v>0.8342525468877284</v>
+        <v>0.8396283234049342</v>
       </c>
       <c r="F16">
-        <v>0.7802497364901337</v>
+        <v>0.7863073208634065</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.011441202759364</v>
+        <v>1.012221846111195</v>
       </c>
       <c r="J16">
-        <v>0.8357424762609607</v>
+        <v>0.8416176544274546</v>
       </c>
       <c r="K16">
-        <v>0.8440976382095713</v>
+        <v>0.8496163411108141</v>
       </c>
       <c r="L16">
-        <v>0.8482698796831765</v>
+        <v>0.8535303362345127</v>
       </c>
       <c r="M16">
-        <v>0.7955451496695432</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.801447551291333</v>
+      </c>
+      <c r="N16">
+        <v>0.842812848031636</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8065166604673477</v>
+        <v>0.8127186001286867</v>
       </c>
       <c r="D17">
-        <v>0.8299873974980589</v>
+        <v>0.8356287170517848</v>
       </c>
       <c r="E17">
-        <v>0.8342525468877284</v>
+        <v>0.8396283234049342</v>
       </c>
       <c r="F17">
-        <v>0.7802497364901337</v>
+        <v>0.7863073208634065</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.011441202759364</v>
+        <v>1.012221846111195</v>
       </c>
       <c r="J17">
-        <v>0.8357424762609607</v>
+        <v>0.8416176544274546</v>
       </c>
       <c r="K17">
-        <v>0.8440976382095713</v>
+        <v>0.8496163411108141</v>
       </c>
       <c r="L17">
-        <v>0.8482698796831765</v>
+        <v>0.8535303362345127</v>
       </c>
       <c r="M17">
-        <v>0.7955451496695432</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.801447551291333</v>
+      </c>
+      <c r="N17">
+        <v>0.842812848031636</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8065166604673477</v>
+        <v>0.8127186001286867</v>
       </c>
       <c r="D18">
-        <v>0.8299873974980589</v>
+        <v>0.8356287170517848</v>
       </c>
       <c r="E18">
-        <v>0.8342525468877284</v>
+        <v>0.8396283234049342</v>
       </c>
       <c r="F18">
-        <v>0.7802497364901337</v>
+        <v>0.7863073208634065</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.011441202759364</v>
+        <v>1.012221846111195</v>
       </c>
       <c r="J18">
-        <v>0.8357424762609607</v>
+        <v>0.8416176544274546</v>
       </c>
       <c r="K18">
-        <v>0.8440976382095713</v>
+        <v>0.8496163411108141</v>
       </c>
       <c r="L18">
-        <v>0.8482698796831765</v>
+        <v>0.8535303362345127</v>
       </c>
       <c r="M18">
-        <v>0.7955451496695432</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.801447551291333</v>
+      </c>
+      <c r="N18">
+        <v>0.842812848031636</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8065166604673477</v>
+        <v>0.8127186001286867</v>
       </c>
       <c r="D19">
-        <v>0.8299873974980589</v>
+        <v>0.8356287170517848</v>
       </c>
       <c r="E19">
-        <v>0.8342525468877284</v>
+        <v>0.8396283234049342</v>
       </c>
       <c r="F19">
-        <v>0.7802497364901337</v>
+        <v>0.7863073208634065</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.011441202759364</v>
+        <v>1.012221846111195</v>
       </c>
       <c r="J19">
-        <v>0.8357424762609607</v>
+        <v>0.8416176544274546</v>
       </c>
       <c r="K19">
-        <v>0.8440976382095713</v>
+        <v>0.8496163411108141</v>
       </c>
       <c r="L19">
-        <v>0.8482698796831765</v>
+        <v>0.8535303362345127</v>
       </c>
       <c r="M19">
-        <v>0.7955451496695432</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.801447551291333</v>
+      </c>
+      <c r="N19">
+        <v>0.842812848031636</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8065166604673477</v>
+        <v>0.8127186001286867</v>
       </c>
       <c r="D20">
-        <v>0.8299873974980589</v>
+        <v>0.8356287170517848</v>
       </c>
       <c r="E20">
-        <v>0.8342525468877284</v>
+        <v>0.8396283234049342</v>
       </c>
       <c r="F20">
-        <v>0.7802497364901337</v>
+        <v>0.7863073208634065</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.011441202759364</v>
+        <v>1.012221846111195</v>
       </c>
       <c r="J20">
-        <v>0.8357424762609607</v>
+        <v>0.8416176544274546</v>
       </c>
       <c r="K20">
-        <v>0.8440976382095713</v>
+        <v>0.8496163411108141</v>
       </c>
       <c r="L20">
-        <v>0.8482698796831765</v>
+        <v>0.8535303362345127</v>
       </c>
       <c r="M20">
-        <v>0.7955451496695432</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.801447551291333</v>
+      </c>
+      <c r="N20">
+        <v>0.842812848031636</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8065166604673477</v>
+        <v>0.8127186001286867</v>
       </c>
       <c r="D21">
-        <v>0.8299873974980589</v>
+        <v>0.8356287170517848</v>
       </c>
       <c r="E21">
-        <v>0.8342525468877284</v>
+        <v>0.8396283234049342</v>
       </c>
       <c r="F21">
-        <v>0.7802497364901337</v>
+        <v>0.7863073208634065</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.011441202759364</v>
+        <v>1.012221846111195</v>
       </c>
       <c r="J21">
-        <v>0.8357424762609607</v>
+        <v>0.8416176544274546</v>
       </c>
       <c r="K21">
-        <v>0.8440976382095713</v>
+        <v>0.8496163411108141</v>
       </c>
       <c r="L21">
-        <v>0.8482698796831765</v>
+        <v>0.8535303362345127</v>
       </c>
       <c r="M21">
-        <v>0.7955451496695432</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.801447551291333</v>
+      </c>
+      <c r="N21">
+        <v>0.842812848031636</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8065166604673477</v>
+        <v>0.8127186001286867</v>
       </c>
       <c r="D22">
-        <v>0.8299873974980589</v>
+        <v>0.8356287170517848</v>
       </c>
       <c r="E22">
-        <v>0.8342525468877284</v>
+        <v>0.8396283234049342</v>
       </c>
       <c r="F22">
-        <v>0.7802497364901337</v>
+        <v>0.7863073208634065</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.011441202759364</v>
+        <v>1.012221846111195</v>
       </c>
       <c r="J22">
-        <v>0.8357424762609607</v>
+        <v>0.8416176544274546</v>
       </c>
       <c r="K22">
-        <v>0.8440976382095713</v>
+        <v>0.8496163411108141</v>
       </c>
       <c r="L22">
-        <v>0.8482698796831765</v>
+        <v>0.8535303362345127</v>
       </c>
       <c r="M22">
-        <v>0.7955451496695432</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.801447551291333</v>
+      </c>
+      <c r="N22">
+        <v>0.842812848031636</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8065166604673477</v>
+        <v>0.8127186001286867</v>
       </c>
       <c r="D23">
-        <v>0.8299873974980589</v>
+        <v>0.8356287170517848</v>
       </c>
       <c r="E23">
-        <v>0.8342525468877284</v>
+        <v>0.8396283234049342</v>
       </c>
       <c r="F23">
-        <v>0.7802497364901337</v>
+        <v>0.7863073208634065</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.011441202759364</v>
+        <v>1.012221846111195</v>
       </c>
       <c r="J23">
-        <v>0.8357424762609607</v>
+        <v>0.8416176544274546</v>
       </c>
       <c r="K23">
-        <v>0.8440976382095713</v>
+        <v>0.8496163411108141</v>
       </c>
       <c r="L23">
-        <v>0.8482698796831765</v>
+        <v>0.8535303362345127</v>
       </c>
       <c r="M23">
-        <v>0.7955451496695432</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.801447551291333</v>
+      </c>
+      <c r="N23">
+        <v>0.842812848031636</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8065166604673477</v>
+        <v>0.8127186001286867</v>
       </c>
       <c r="D24">
-        <v>0.8299873974980589</v>
+        <v>0.8356287170517848</v>
       </c>
       <c r="E24">
-        <v>0.8342525468877284</v>
+        <v>0.8396283234049342</v>
       </c>
       <c r="F24">
-        <v>0.7802497364901337</v>
+        <v>0.7863073208634065</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.011441202759364</v>
+        <v>1.012221846111195</v>
       </c>
       <c r="J24">
-        <v>0.8357424762609607</v>
+        <v>0.8416176544274546</v>
       </c>
       <c r="K24">
-        <v>0.8440976382095713</v>
+        <v>0.8496163411108141</v>
       </c>
       <c r="L24">
-        <v>0.8482698796831765</v>
+        <v>0.8535303362345127</v>
       </c>
       <c r="M24">
-        <v>0.7955451496695432</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.801447551291333</v>
+      </c>
+      <c r="N24">
+        <v>0.842812848031636</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8065166604673477</v>
+        <v>0.8127186001286867</v>
       </c>
       <c r="D25">
-        <v>0.8299873974980589</v>
+        <v>0.8356287170517848</v>
       </c>
       <c r="E25">
-        <v>0.8342525468877284</v>
+        <v>0.8396283234049342</v>
       </c>
       <c r="F25">
-        <v>0.7802497364901337</v>
+        <v>0.7863073208634065</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.011441202759364</v>
+        <v>1.012221846111195</v>
       </c>
       <c r="J25">
-        <v>0.8357424762609607</v>
+        <v>0.8416176544274546</v>
       </c>
       <c r="K25">
-        <v>0.8440976382095713</v>
+        <v>0.8496163411108141</v>
       </c>
       <c r="L25">
-        <v>0.8482698796831765</v>
+        <v>0.8535303362345127</v>
       </c>
       <c r="M25">
-        <v>0.7955451496695432</v>
+        <v>0.801447551291333</v>
+      </c>
+      <c r="N25">
+        <v>0.842812848031636</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_4/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.7859613002788635</v>
+        <v>0.9262385711325007</v>
       </c>
       <c r="D2">
-        <v>0.8115630107512044</v>
+        <v>0.9393395898740684</v>
       </c>
       <c r="E2">
-        <v>0.8158162861154105</v>
+        <v>0.9422585682150868</v>
       </c>
       <c r="F2">
-        <v>0.7523485209904698</v>
+        <v>0.9396252566221284</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.006576113631981</v>
+        <v>1.032429474418724</v>
       </c>
       <c r="J2">
-        <v>0.8171793036790312</v>
+        <v>0.9508739179028208</v>
       </c>
       <c r="K2">
-        <v>0.8264675438414566</v>
+        <v>0.9517141120496275</v>
       </c>
       <c r="L2">
-        <v>0.8306194889994752</v>
+        <v>0.9545855872676429</v>
       </c>
       <c r="M2">
-        <v>0.768827776910453</v>
+        <v>0.9519951131460344</v>
       </c>
       <c r="N2">
-        <v>0.8183397920220318</v>
+        <v>0.9522242679330056</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.848516583676544</v>
+        <v>0.9470211491955227</v>
       </c>
       <c r="D3">
-        <v>0.8678586945410166</v>
+        <v>0.9596138972025166</v>
       </c>
       <c r="E3">
-        <v>0.8714616350855302</v>
+        <v>0.9598759165388893</v>
       </c>
       <c r="F3">
-        <v>0.8307991043692017</v>
+        <v>0.9608574432314978</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.019736732589716</v>
+        <v>1.036502690192296</v>
       </c>
       <c r="J3">
-        <v>0.8742036436432724</v>
+        <v>0.9690682076942493</v>
       </c>
       <c r="K3">
-        <v>0.8805173017545842</v>
+        <v>0.9707910066386701</v>
       </c>
       <c r="L3">
-        <v>0.8840544136071739</v>
+        <v>0.9710493085271837</v>
       </c>
       <c r="M3">
-        <v>0.8441785770254082</v>
+        <v>0.9720169324118743</v>
       </c>
       <c r="N3">
-        <v>0.8754451130898054</v>
+        <v>0.970444395702852</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8746652207204568</v>
+        <v>0.9593001819465833</v>
       </c>
       <c r="D4">
-        <v>0.8914244886337924</v>
+        <v>0.9716031456512715</v>
       </c>
       <c r="E4">
-        <v>0.894697835657945</v>
+        <v>0.9703023233540544</v>
       </c>
       <c r="F4">
-        <v>0.8626703280415344</v>
+        <v>0.9734180529778254</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.025165319619977</v>
+        <v>1.038874469875675</v>
       </c>
       <c r="J4">
-        <v>0.8979267863725618</v>
+        <v>0.9798055770708992</v>
       </c>
       <c r="K4">
-        <v>0.9030377853525627</v>
+        <v>0.9820568246234699</v>
       </c>
       <c r="L4">
-        <v>0.9062585758542698</v>
+        <v>0.9807728994825543</v>
       </c>
       <c r="M4">
-        <v>0.8747675073666118</v>
+        <v>0.9838482514409413</v>
       </c>
       <c r="N4">
-        <v>0.8992019454028529</v>
+        <v>0.9811970133756105</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8841792106087898</v>
+        <v>0.9642272033081631</v>
       </c>
       <c r="D5">
-        <v>0.9000033886358961</v>
+        <v>0.9764160042225014</v>
       </c>
       <c r="E5">
-        <v>0.9031484124216683</v>
+        <v>0.9744894643291693</v>
       </c>
       <c r="F5">
-        <v>0.8741388984444018</v>
+        <v>0.9784615543853797</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.027120531257435</v>
+        <v>1.039816828260282</v>
       </c>
       <c r="J5">
-        <v>0.9065409226268879</v>
+        <v>0.9841107168135618</v>
       </c>
       <c r="K5">
-        <v>0.9112202516273952</v>
+        <v>0.9865756692222621</v>
       </c>
       <c r="L5">
-        <v>0.9143172661111876</v>
+        <v>0.9846732411267181</v>
       </c>
       <c r="M5">
-        <v>0.8857674448710988</v>
+        <v>0.9885957475598433</v>
       </c>
       <c r="N5">
-        <v>0.9078283147187153</v>
+        <v>0.985508266910514</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8857103994462635</v>
+        <v>0.9650417553828757</v>
       </c>
       <c r="D6">
-        <v>0.9013843066690111</v>
+        <v>0.9772117971884106</v>
       </c>
       <c r="E6">
-        <v>0.9045082514969464</v>
+        <v>0.9751818857037551</v>
       </c>
       <c r="F6">
-        <v>0.8759783142964247</v>
+        <v>0.9792955613839128</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.02743398432833</v>
+        <v>1.039972047549546</v>
       </c>
       <c r="J6">
-        <v>0.9079263895795407</v>
+        <v>0.984822256584178</v>
       </c>
       <c r="K6">
-        <v>0.9125365432924315</v>
+        <v>0.9873226370862822</v>
       </c>
       <c r="L6">
-        <v>0.9156131958494519</v>
+        <v>0.9853179728161644</v>
       </c>
       <c r="M6">
-        <v>0.8875312607524251</v>
+        <v>0.989380619779674</v>
       </c>
       <c r="N6">
-        <v>0.9092157491933561</v>
+        <v>0.9862208171492194</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8747971400949318</v>
+        <v>0.9593668909964042</v>
       </c>
       <c r="D7">
-        <v>0.8915434256597387</v>
+        <v>0.9716683010101153</v>
       </c>
       <c r="E7">
-        <v>0.8948150243748947</v>
+        <v>0.97035900166926</v>
       </c>
       <c r="F7">
-        <v>0.8628298131899428</v>
+        <v>0.9734863254902351</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.025192514352122</v>
+        <v>1.038887267350733</v>
       </c>
       <c r="J7">
-        <v>0.8980462934626126</v>
+        <v>0.9798638796713028</v>
       </c>
       <c r="K7">
-        <v>0.9031512852721751</v>
+        <v>0.9821180140289356</v>
       </c>
       <c r="L7">
-        <v>0.9063703915837352</v>
+        <v>0.980825713522112</v>
       </c>
       <c r="M7">
-        <v>0.8749205059422177</v>
+        <v>0.9839125296774679</v>
       </c>
       <c r="N7">
-        <v>0.8993216222066788</v>
+        <v>0.9812553987723941</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8127186001286867</v>
+        <v>0.9335356544159309</v>
       </c>
       <c r="D8">
-        <v>0.8356287170517848</v>
+        <v>0.9464555931538827</v>
       </c>
       <c r="E8">
-        <v>0.8396283234049342</v>
+        <v>0.9484399190089807</v>
       </c>
       <c r="F8">
-        <v>0.7863073208634065</v>
+        <v>0.9470764583369163</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.012221846111195</v>
+        <v>1.033866586774416</v>
       </c>
       <c r="J8">
-        <v>0.8416176544274546</v>
+        <v>0.9572647150884348</v>
       </c>
       <c r="K8">
-        <v>0.8496163411108141</v>
+        <v>0.9584132634600954</v>
       </c>
       <c r="L8">
-        <v>0.8535303362345127</v>
+        <v>0.9603667674515048</v>
       </c>
       <c r="M8">
-        <v>0.801447551291333</v>
+        <v>0.9590244672115291</v>
       </c>
       <c r="N8">
-        <v>0.842812848031636</v>
+        <v>0.9586241407836579</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8127186001286867</v>
+        <v>0.8759019575720738</v>
       </c>
       <c r="D9">
-        <v>0.8356287170517848</v>
+        <v>0.8903358291467646</v>
       </c>
       <c r="E9">
-        <v>0.8396283234049342</v>
+        <v>0.8997592909730804</v>
       </c>
       <c r="F9">
-        <v>0.7863073208634065</v>
+        <v>0.8883294105027624</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.012221846111195</v>
+        <v>1.022411725920287</v>
       </c>
       <c r="J9">
-        <v>0.8416176544274546</v>
+        <v>0.9067513207955412</v>
       </c>
       <c r="K9">
-        <v>0.8496163411108141</v>
+        <v>0.9054997987392325</v>
       </c>
       <c r="L9">
-        <v>0.8535303362345127</v>
+        <v>0.9147190207857918</v>
       </c>
       <c r="M9">
-        <v>0.801447551291333</v>
+        <v>0.9035376108050367</v>
       </c>
       <c r="N9">
-        <v>0.842812848031636</v>
+        <v>0.9080390116769012</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8127186001286867</v>
+        <v>0.8202915022628564</v>
       </c>
       <c r="D10">
-        <v>0.8356287170517848</v>
+        <v>0.8363945259119469</v>
       </c>
       <c r="E10">
-        <v>0.8396283234049342</v>
+        <v>0.8531393504548405</v>
       </c>
       <c r="F10">
-        <v>0.7863073208634065</v>
+        <v>0.8318599767233447</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.012221846111195</v>
+        <v>1.011388173520282</v>
       </c>
       <c r="J10">
-        <v>0.8416176544274546</v>
+        <v>0.8580313699255416</v>
       </c>
       <c r="K10">
-        <v>0.8496163411108141</v>
+        <v>0.8545146534869756</v>
       </c>
       <c r="L10">
-        <v>0.8535303362345127</v>
+        <v>0.8707852881250024</v>
       </c>
       <c r="M10">
-        <v>0.801447551291333</v>
+        <v>0.850113031836402</v>
       </c>
       <c r="N10">
-        <v>0.842812848031636</v>
+        <v>0.8592498728884097</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8127186001286867</v>
+        <v>0.7855023475879289</v>
       </c>
       <c r="D11">
-        <v>0.8356287170517848</v>
+        <v>0.8027774000388567</v>
       </c>
       <c r="E11">
-        <v>0.8396283234049342</v>
+        <v>0.824189468126802</v>
       </c>
       <c r="F11">
-        <v>0.7863073208634065</v>
+        <v>0.7966406435183772</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.012221846111195</v>
+        <v>1.00465051228849</v>
       </c>
       <c r="J11">
-        <v>0.8416176544274546</v>
+        <v>0.8276297466838589</v>
       </c>
       <c r="K11">
-        <v>0.8496163411108141</v>
+        <v>0.8227060008421605</v>
       </c>
       <c r="L11">
-        <v>0.8535303362345127</v>
+        <v>0.8434134379518987</v>
       </c>
       <c r="M11">
-        <v>0.801447551291333</v>
+        <v>0.816780969011633</v>
       </c>
       <c r="N11">
-        <v>0.842812848031636</v>
+        <v>0.8288050758546089</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8127186001286867</v>
+        <v>0.7687350312144874</v>
       </c>
       <c r="D12">
-        <v>0.8356287170517848</v>
+        <v>0.7866163506243337</v>
       </c>
       <c r="E12">
-        <v>0.8396283234049342</v>
+        <v>0.810305442209069</v>
       </c>
       <c r="F12">
-        <v>0.7863073208634065</v>
+        <v>0.7796968632415656</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.012221846111195</v>
+        <v>1.001470100439717</v>
       </c>
       <c r="J12">
-        <v>0.8416176544274546</v>
+        <v>0.8130116785919353</v>
       </c>
       <c r="K12">
-        <v>0.8496163411108141</v>
+        <v>0.8074099321503436</v>
       </c>
       <c r="L12">
-        <v>0.8535303362345127</v>
+        <v>0.830263863009612</v>
       </c>
       <c r="M12">
-        <v>0.801447551291333</v>
+        <v>0.8007479079773887</v>
       </c>
       <c r="N12">
-        <v>0.842812848031636</v>
+        <v>0.814166248429279</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8127186001286867</v>
+        <v>0.7726074692112797</v>
       </c>
       <c r="D13">
-        <v>0.8356287170517848</v>
+        <v>0.7903461883679676</v>
       </c>
       <c r="E13">
-        <v>0.8396283234049342</v>
+        <v>0.813507703312693</v>
       </c>
       <c r="F13">
-        <v>0.7863073208634065</v>
+        <v>0.7836082123486199</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.012221846111195</v>
+        <v>1.002200209229866</v>
       </c>
       <c r="J13">
-        <v>0.8416176544274546</v>
+        <v>0.8163853824124679</v>
       </c>
       <c r="K13">
-        <v>0.8496163411108141</v>
+        <v>0.8109402767157707</v>
       </c>
       <c r="L13">
-        <v>0.8535303362345127</v>
+        <v>0.8332979757586505</v>
       </c>
       <c r="M13">
-        <v>0.801447551291333</v>
+        <v>0.8044487100625773</v>
       </c>
       <c r="N13">
-        <v>0.842812848031636</v>
+        <v>0.8175447432962057</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8127186001286867</v>
+        <v>0.7842266675880556</v>
       </c>
       <c r="D14">
-        <v>0.8356287170517848</v>
+        <v>0.8015468434539003</v>
       </c>
       <c r="E14">
-        <v>0.8396283234049342</v>
+        <v>0.8231314902225019</v>
       </c>
       <c r="F14">
-        <v>0.7863073208634065</v>
+        <v>0.7953508150068901</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.012221846111195</v>
+        <v>1.004406847235555</v>
       </c>
       <c r="J14">
-        <v>0.8416176544274546</v>
+        <v>0.8265166855942678</v>
       </c>
       <c r="K14">
-        <v>0.8496163411108141</v>
+        <v>0.8215413724165394</v>
       </c>
       <c r="L14">
-        <v>0.8535303362345127</v>
+        <v>0.8424119242461666</v>
       </c>
       <c r="M14">
-        <v>0.801447551291333</v>
+        <v>0.8155603587544453</v>
       </c>
       <c r="N14">
-        <v>0.842812848031636</v>
+        <v>0.8276904340906005</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8127186001286867</v>
+        <v>0.7907314120023961</v>
       </c>
       <c r="D15">
-        <v>0.8356287170517848</v>
+        <v>0.807823164652313</v>
       </c>
       <c r="E15">
-        <v>0.8396283234049342</v>
+        <v>0.8285289292936588</v>
       </c>
       <c r="F15">
-        <v>0.7863073208634065</v>
+        <v>0.8019289271235408</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.012221846111195</v>
+        <v>1.005652053679433</v>
       </c>
       <c r="J15">
-        <v>0.8416176544274546</v>
+        <v>0.8321936608803927</v>
       </c>
       <c r="K15">
-        <v>0.8496163411108141</v>
+        <v>0.8274812842676486</v>
       </c>
       <c r="L15">
-        <v>0.8535303362345127</v>
+        <v>0.8475204313843426</v>
       </c>
       <c r="M15">
-        <v>0.801447551291333</v>
+        <v>0.8217855980922045</v>
       </c>
       <c r="N15">
-        <v>0.842812848031636</v>
+        <v>0.8333754713327899</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8127186001286867</v>
+        <v>0.8222619602502522</v>
       </c>
       <c r="D16">
-        <v>0.8356287170517848</v>
+        <v>0.8383017822333361</v>
       </c>
       <c r="E16">
-        <v>0.8396283234049342</v>
+        <v>0.8547844035213794</v>
       </c>
       <c r="F16">
-        <v>0.7863073208634065</v>
+        <v>0.833857307775395</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.012221846111195</v>
+        <v>1.011774477701699</v>
       </c>
       <c r="J16">
-        <v>0.8416176544274546</v>
+        <v>0.859755642166819</v>
       </c>
       <c r="K16">
-        <v>0.8496163411108141</v>
+        <v>0.8563187379856141</v>
       </c>
       <c r="L16">
-        <v>0.8535303362345127</v>
+        <v>0.8723387043829175</v>
       </c>
       <c r="M16">
-        <v>0.801447551291333</v>
+        <v>0.8520033158562906</v>
       </c>
       <c r="N16">
-        <v>0.842812848031636</v>
+        <v>0.8609765937940462</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8127186001286867</v>
+        <v>0.8384649600080071</v>
       </c>
       <c r="D17">
-        <v>0.8356287170517848</v>
+        <v>0.8539969975896108</v>
       </c>
       <c r="E17">
-        <v>0.8396283234049342</v>
+        <v>0.8683316730022437</v>
       </c>
       <c r="F17">
-        <v>0.7863073208634065</v>
+        <v>0.850291267190006</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.012221846111195</v>
+        <v>1.014966111279529</v>
       </c>
       <c r="J17">
-        <v>0.8416176544274546</v>
+        <v>0.8739414798363181</v>
       </c>
       <c r="K17">
-        <v>0.8496163411108141</v>
+        <v>0.8711617907259745</v>
       </c>
       <c r="L17">
-        <v>0.8535303362345127</v>
+        <v>0.8851229130984188</v>
       </c>
       <c r="M17">
-        <v>0.801447551291333</v>
+        <v>0.8675554176281339</v>
       </c>
       <c r="N17">
-        <v>0.842812848031636</v>
+        <v>0.8751825769801745</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8127186001286867</v>
+        <v>0.8470644447251076</v>
       </c>
       <c r="D18">
-        <v>0.8356287170517848</v>
+        <v>0.862335284287298</v>
       </c>
       <c r="E18">
-        <v>0.8396283234049342</v>
+        <v>0.8755356630661495</v>
       </c>
       <c r="F18">
-        <v>0.7863073208634065</v>
+        <v>0.8590205169246604</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.012221846111195</v>
+        <v>1.016669385679071</v>
       </c>
       <c r="J18">
-        <v>0.8416176544274546</v>
+        <v>0.8814748091945582</v>
       </c>
       <c r="K18">
-        <v>0.8496163411108141</v>
+        <v>0.879044762997698</v>
       </c>
       <c r="L18">
-        <v>0.8535303362345127</v>
+        <v>0.8919148541537012</v>
       </c>
       <c r="M18">
-        <v>0.801447551291333</v>
+        <v>0.8758150938767233</v>
       </c>
       <c r="N18">
-        <v>0.842812848031636</v>
+        <v>0.882726604530188</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8127186001286867</v>
+        <v>0.8498769427718766</v>
       </c>
       <c r="D19">
-        <v>0.8356287170517848</v>
+        <v>0.8650635562474913</v>
       </c>
       <c r="E19">
-        <v>0.8396283234049342</v>
+        <v>0.8778937839799137</v>
       </c>
       <c r="F19">
-        <v>0.7863073208634065</v>
+        <v>0.8618765321975116</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.012221846111195</v>
+        <v>1.017227609233847</v>
       </c>
       <c r="J19">
-        <v>0.8416176544274546</v>
+        <v>0.8839391575968526</v>
       </c>
       <c r="K19">
-        <v>0.8496163411108141</v>
+        <v>0.8816236162960943</v>
       </c>
       <c r="L19">
-        <v>0.8535303362345127</v>
+        <v>0.8941371220549977</v>
       </c>
       <c r="M19">
-        <v>0.801447551291333</v>
+        <v>0.8785172424570866</v>
       </c>
       <c r="N19">
-        <v>0.842812848031636</v>
+        <v>0.8851944525898786</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8127186001286867</v>
+        <v>0.8368211368076466</v>
       </c>
       <c r="D20">
-        <v>0.8356287170517848</v>
+        <v>0.8524037447138177</v>
       </c>
       <c r="E20">
-        <v>0.8396283234049342</v>
+        <v>0.866955685750313</v>
       </c>
       <c r="F20">
-        <v>0.7863073208634065</v>
+        <v>0.8486232047647742</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.012221846111195</v>
+        <v>1.014641195690963</v>
       </c>
       <c r="J20">
-        <v>0.8416176544274546</v>
+        <v>0.8725017707899227</v>
       </c>
       <c r="K20">
-        <v>0.8496163411108141</v>
+        <v>0.8696553195176949</v>
       </c>
       <c r="L20">
-        <v>0.8535303362345127</v>
+        <v>0.8838251254173345</v>
       </c>
       <c r="M20">
-        <v>0.801447551291333</v>
+        <v>0.865976978088845</v>
       </c>
       <c r="N20">
-        <v>0.842812848031636</v>
+        <v>0.8737408233817965</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8127186001286867</v>
+        <v>0.7809553003890323</v>
       </c>
       <c r="D21">
-        <v>0.8356287170517848</v>
+        <v>0.7983919302346005</v>
       </c>
       <c r="E21">
-        <v>0.8396283234049342</v>
+        <v>0.8204196285393147</v>
       </c>
       <c r="F21">
-        <v>0.7863073208634065</v>
+        <v>0.7920437042066797</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.012221846111195</v>
+        <v>1.003783225092442</v>
       </c>
       <c r="J21">
-        <v>0.8416176544274546</v>
+        <v>0.8236629882630598</v>
       </c>
       <c r="K21">
-        <v>0.8496163411108141</v>
+        <v>0.8185554281516668</v>
       </c>
       <c r="L21">
-        <v>0.8535303362345127</v>
+        <v>0.8398444164746514</v>
       </c>
       <c r="M21">
-        <v>0.801447551291333</v>
+        <v>0.8124307934985245</v>
       </c>
       <c r="N21">
-        <v>0.842812848031636</v>
+        <v>0.8248326841818587</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8127186001286867</v>
+        <v>0.707714970998458</v>
       </c>
       <c r="D22">
-        <v>0.8356287170517848</v>
+        <v>0.7280785405729954</v>
       </c>
       <c r="E22">
-        <v>0.8396283234049342</v>
+        <v>0.7602302585404886</v>
       </c>
       <c r="F22">
-        <v>0.7863073208634065</v>
+        <v>0.7182216672982796</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.012221846111195</v>
+        <v>0.9903808465021759</v>
       </c>
       <c r="J22">
-        <v>0.8416176544274546</v>
+        <v>0.7600894954592905</v>
       </c>
       <c r="K22">
-        <v>0.8496163411108141</v>
+        <v>0.752007038853086</v>
       </c>
       <c r="L22">
-        <v>0.8535303362345127</v>
+        <v>0.7827234803731714</v>
       </c>
       <c r="M22">
-        <v>0.801447551291333</v>
+        <v>0.7426275342713964</v>
       </c>
       <c r="N22">
-        <v>0.842812848031636</v>
+        <v>0.7611689097263263</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8127186001286867</v>
+        <v>0.7559410904925788</v>
       </c>
       <c r="D23">
-        <v>0.8356287170517848</v>
+        <v>0.7743051326187854</v>
       </c>
       <c r="E23">
-        <v>0.8396283234049342</v>
+        <v>0.799744783018162</v>
       </c>
       <c r="F23">
-        <v>0.7863073208634065</v>
+        <v>0.7667824420682549</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.012221846111195</v>
+        <v>0.9990781534909534</v>
       </c>
       <c r="J23">
-        <v>0.8416176544274546</v>
+        <v>0.8018765755377116</v>
       </c>
       <c r="K23">
-        <v>0.8496163411108141</v>
+        <v>0.7957569095632987</v>
       </c>
       <c r="L23">
-        <v>0.8535303362345127</v>
+        <v>0.8202525078669046</v>
       </c>
       <c r="M23">
-        <v>0.801447551291333</v>
+        <v>0.7885304231601462</v>
       </c>
       <c r="N23">
-        <v>0.842812848031636</v>
+        <v>0.8030153322515039</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8127186001286867</v>
+        <v>0.8375664494597667</v>
       </c>
       <c r="D24">
-        <v>0.8356287170517848</v>
+        <v>0.8531261028226729</v>
       </c>
       <c r="E24">
-        <v>0.8396283234049342</v>
+        <v>0.8675795174541555</v>
       </c>
       <c r="F24">
-        <v>0.7863073208634065</v>
+        <v>0.8493794849942596</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.012221846111195</v>
+        <v>1.014788484554044</v>
       </c>
       <c r="J24">
-        <v>0.8416176544274546</v>
+        <v>0.8731545242810639</v>
       </c>
       <c r="K24">
-        <v>0.8496163411108141</v>
+        <v>0.8703383403782814</v>
       </c>
       <c r="L24">
-        <v>0.8535303362345127</v>
+        <v>0.8844135235615393</v>
       </c>
       <c r="M24">
-        <v>0.801447551291333</v>
+        <v>0.8666926281861812</v>
       </c>
       <c r="N24">
-        <v>0.842812848031636</v>
+        <v>0.8743945038577667</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8127186001286867</v>
+        <v>0.8928284595941871</v>
       </c>
       <c r="D25">
-        <v>0.8356287170517848</v>
+        <v>0.9067970126468303</v>
       </c>
       <c r="E25">
-        <v>0.8396283234049342</v>
+        <v>0.9140214806992822</v>
       </c>
       <c r="F25">
-        <v>0.7863073208634065</v>
+        <v>0.9055587640022429</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.012221846111195</v>
+        <v>1.025790716856984</v>
       </c>
       <c r="J25">
-        <v>0.8416176544274546</v>
+        <v>0.9215918762963058</v>
       </c>
       <c r="K25">
-        <v>0.8496163411108141</v>
+        <v>0.921037841333136</v>
       </c>
       <c r="L25">
-        <v>0.8535303362345127</v>
+        <v>0.9281192744864293</v>
       </c>
       <c r="M25">
-        <v>0.801447551291333</v>
+        <v>0.9198244098823959</v>
       </c>
       <c r="N25">
-        <v>0.842812848031636</v>
+        <v>0.9229006424687122</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_4/res_bus/vm_pu.xlsx
@@ -417,984 +417,840 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1.05</v>
-      </c>
       <c r="C2">
-        <v>0.9262385711325007</v>
+        <v>0.9591906522027331</v>
       </c>
       <c r="D2">
-        <v>0.9393395898740684</v>
+        <v>0.970296990117002</v>
       </c>
       <c r="E2">
-        <v>0.9422585682150868</v>
+        <v>0.9710734950917377</v>
       </c>
       <c r="F2">
-        <v>0.9396252566221284</v>
+        <v>0.9337421869831367</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>1.032429474418724</v>
-      </c>
       <c r="J2">
-        <v>0.9508739179028208</v>
+        <v>0.9826644575717466</v>
       </c>
       <c r="K2">
-        <v>0.9517141120496275</v>
+        <v>0.9821862544187521</v>
       </c>
       <c r="L2">
-        <v>0.9545855872676429</v>
+        <v>0.982951094016406</v>
       </c>
       <c r="M2">
-        <v>0.9519951131460344</v>
+        <v>0.946208870304414</v>
       </c>
       <c r="N2">
-        <v>0.9522242679330056</v>
+        <v>0.9978593479126053</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1.05</v>
-      </c>
       <c r="C3">
-        <v>0.9470211491955227</v>
+        <v>0.9647732099829411</v>
       </c>
       <c r="D3">
-        <v>0.9596138972025166</v>
+        <v>0.9749073082266163</v>
       </c>
       <c r="E3">
-        <v>0.9598759165388893</v>
+        <v>0.9755785099217943</v>
       </c>
       <c r="F3">
-        <v>0.9608574432314978</v>
+        <v>0.9422973345798205</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>1.036502690192296</v>
-      </c>
       <c r="J3">
-        <v>0.9690682076942493</v>
+        <v>0.9862725376757457</v>
       </c>
       <c r="K3">
-        <v>0.9707910066386701</v>
+        <v>0.9858716522302142</v>
       </c>
       <c r="L3">
-        <v>0.9710493085271837</v>
+        <v>0.9865337083722433</v>
       </c>
       <c r="M3">
-        <v>0.9720169324118743</v>
+        <v>0.9537259512000393</v>
       </c>
       <c r="N3">
-        <v>0.970444395702852</v>
+        <v>0.9991280977313313</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1.05</v>
-      </c>
       <c r="C4">
-        <v>0.9593001819465833</v>
+        <v>0.9682935633621184</v>
       </c>
       <c r="D4">
-        <v>0.9716031456512715</v>
+        <v>0.9778207217452147</v>
       </c>
       <c r="E4">
-        <v>0.9703023233540544</v>
+        <v>0.9784262531129015</v>
       </c>
       <c r="F4">
-        <v>0.9734180529778254</v>
+        <v>0.9476706989218582</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>1.038874469875675</v>
-      </c>
       <c r="J4">
-        <v>0.9798055770708992</v>
+        <v>0.988544631384015</v>
       </c>
       <c r="K4">
-        <v>0.9820568246234699</v>
+        <v>0.9881944128956178</v>
       </c>
       <c r="L4">
-        <v>0.9807728994825543</v>
+        <v>0.9887922220945572</v>
       </c>
       <c r="M4">
-        <v>0.9838482514409413</v>
+        <v>0.95844460525107</v>
       </c>
       <c r="N4">
-        <v>0.9811970133756105</v>
+        <v>0.9999260427328642</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>1.05</v>
-      </c>
       <c r="C5">
-        <v>0.9642272033081631</v>
+        <v>0.9697526145388434</v>
       </c>
       <c r="D5">
-        <v>0.9764160042225014</v>
+        <v>0.979029636449102</v>
       </c>
       <c r="E5">
-        <v>0.9744894643291693</v>
+        <v>0.9796081156723124</v>
       </c>
       <c r="F5">
-        <v>0.9784615543853797</v>
+        <v>0.9498932037126733</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>1.039816828260282</v>
-      </c>
       <c r="J5">
-        <v>0.9841107168135618</v>
+        <v>0.9894855537792269</v>
       </c>
       <c r="K5">
-        <v>0.9865756692222621</v>
+        <v>0.9891567792080799</v>
       </c>
       <c r="L5">
-        <v>0.9846732411267181</v>
+        <v>0.9897280894406421</v>
       </c>
       <c r="M5">
-        <v>0.9885957475598433</v>
+        <v>0.9603956076270116</v>
       </c>
       <c r="N5">
-        <v>0.985508266910514</v>
+        <v>1.000256225683113</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1.05</v>
-      </c>
       <c r="C6">
-        <v>0.9650417553828757</v>
+        <v>0.9699964003075549</v>
       </c>
       <c r="D6">
-        <v>0.9772117971884106</v>
+        <v>0.9792317097540023</v>
       </c>
       <c r="E6">
-        <v>0.9751818857037551</v>
+        <v>0.9798056784197602</v>
       </c>
       <c r="F6">
-        <v>0.9792955613839128</v>
+        <v>0.9502643004811928</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>1.039972047549546</v>
-      </c>
       <c r="J6">
-        <v>0.984822256584178</v>
+        <v>0.9896427219967695</v>
       </c>
       <c r="K6">
-        <v>0.9873226370862822</v>
+        <v>0.9893175561300371</v>
       </c>
       <c r="L6">
-        <v>0.9853179728161644</v>
+        <v>0.9898844461547485</v>
       </c>
       <c r="M6">
-        <v>0.989380619779674</v>
+        <v>0.9607213281430711</v>
       </c>
       <c r="N6">
-        <v>0.9862208171492194</v>
+        <v>1.000311362217004</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>1.05</v>
-      </c>
       <c r="C7">
-        <v>0.9593668909964042</v>
+        <v>0.9683131400203771</v>
       </c>
       <c r="D7">
-        <v>0.9716683010101153</v>
+        <v>0.9778369366991769</v>
       </c>
       <c r="E7">
-        <v>0.97035900166926</v>
+        <v>0.9784421044557002</v>
       </c>
       <c r="F7">
-        <v>0.9734863254902351</v>
+        <v>0.9477005363558693</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>1.038887267350733</v>
-      </c>
       <c r="J7">
-        <v>0.9798638796713028</v>
+        <v>0.9885572591850457</v>
       </c>
       <c r="K7">
-        <v>0.9821180140289356</v>
+        <v>0.9882073266783615</v>
       </c>
       <c r="L7">
-        <v>0.980825713522112</v>
+        <v>0.9888047798299059</v>
       </c>
       <c r="M7">
-        <v>0.9839125296774679</v>
+        <v>0.9584708005811404</v>
       </c>
       <c r="N7">
-        <v>0.9812553987723941</v>
+        <v>0.9999304750718273</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1.05</v>
-      </c>
       <c r="C8">
-        <v>0.9335356544159309</v>
+        <v>0.9610970313541314</v>
       </c>
       <c r="D8">
-        <v>0.9464555931538827</v>
+        <v>0.9718700282898163</v>
       </c>
       <c r="E8">
-        <v>0.9484399190089807</v>
+        <v>0.9726104123805597</v>
       </c>
       <c r="F8">
-        <v>0.9470764583369163</v>
+        <v>0.936668589737336</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>1.033866586774416</v>
-      </c>
       <c r="J8">
-        <v>0.9572647150884348</v>
+        <v>0.9838972303049239</v>
       </c>
       <c r="K8">
-        <v>0.9584132634600954</v>
+        <v>0.9834450192612341</v>
       </c>
       <c r="L8">
-        <v>0.9603667674515048</v>
+        <v>0.9841746352028701</v>
       </c>
       <c r="M8">
-        <v>0.9590244672115291</v>
+        <v>0.9487807273933094</v>
       </c>
       <c r="N8">
-        <v>0.9586241407836579</v>
+        <v>0.9982930439111816</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>1.05</v>
-      </c>
       <c r="C9">
-        <v>0.8759019575720738</v>
+        <v>0.9476227641397508</v>
       </c>
       <c r="D9">
-        <v>0.8903358291467646</v>
+        <v>0.960780840492979</v>
       </c>
       <c r="E9">
-        <v>0.8997592909730804</v>
+        <v>0.9617801502694326</v>
       </c>
       <c r="F9">
-        <v>0.8883294105027624</v>
+        <v>0.9158635704342427</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="I9">
-        <v>1.022411725920287</v>
-      </c>
       <c r="J9">
-        <v>0.9067513207955412</v>
+        <v>0.9751710508620478</v>
       </c>
       <c r="K9">
-        <v>0.9054997987392325</v>
+        <v>0.9745439724687801</v>
       </c>
       <c r="L9">
-        <v>0.9147190207857918</v>
+        <v>0.9755253277583191</v>
       </c>
       <c r="M9">
-        <v>0.9035376108050367</v>
+        <v>0.930487084486003</v>
       </c>
       <c r="N9">
-        <v>0.9080390116769012</v>
+        <v>0.9952195889190874</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>1.05</v>
-      </c>
       <c r="C10">
-        <v>0.8202915022628564</v>
+        <v>0.9380450412811547</v>
       </c>
       <c r="D10">
-        <v>0.8363945259119469</v>
+        <v>0.9529387191904892</v>
       </c>
       <c r="E10">
-        <v>0.8531393504548405</v>
+        <v>0.9541273115090391</v>
       </c>
       <c r="F10">
-        <v>0.8318599767233447</v>
+        <v>0.9008814271599732</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>1.011388173520282</v>
-      </c>
       <c r="J10">
-        <v>0.8580313699255416</v>
+        <v>0.9689522883560944</v>
       </c>
       <c r="K10">
-        <v>0.8545146534869756</v>
+        <v>0.9682130496880886</v>
       </c>
       <c r="L10">
-        <v>0.8707852881250024</v>
+        <v>0.9693773338366436</v>
       </c>
       <c r="M10">
-        <v>0.850113031836402</v>
+        <v>0.9173049056248969</v>
       </c>
       <c r="N10">
-        <v>0.8592498728884097</v>
+        <v>0.9930257342148964</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>1.05</v>
-      </c>
       <c r="C11">
-        <v>0.7855023475879289</v>
+        <v>0.933734705670293</v>
       </c>
       <c r="D11">
-        <v>0.8027774000388567</v>
+        <v>0.949420124732093</v>
       </c>
       <c r="E11">
-        <v>0.824189468126802</v>
+        <v>0.9506953647809657</v>
       </c>
       <c r="F11">
-        <v>0.7966406435183772</v>
+        <v>0.8940782112695236</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>1.00465051228849</v>
-      </c>
       <c r="J11">
-        <v>0.8276297466838589</v>
+        <v>0.966149909362965</v>
       </c>
       <c r="K11">
-        <v>0.8227060008421605</v>
+        <v>0.9653633860635993</v>
       </c>
       <c r="L11">
-        <v>0.8434134379518987</v>
+        <v>0.9666111033978487</v>
       </c>
       <c r="M11">
-        <v>0.816780969011633</v>
+        <v>0.9113182577690511</v>
       </c>
       <c r="N11">
-        <v>0.8288050758546089</v>
+        <v>0.9920366118164532</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>1.05</v>
-      </c>
       <c r="C12">
-        <v>0.7687350312144874</v>
+        <v>0.9321069989904121</v>
       </c>
       <c r="D12">
-        <v>0.7866163506243337</v>
+        <v>0.9480931029124352</v>
       </c>
       <c r="E12">
-        <v>0.810305442209069</v>
+        <v>0.9494013049040511</v>
       </c>
       <c r="F12">
-        <v>0.7796968632415656</v>
+        <v>0.8914985062753628</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="I12">
-        <v>1.001470100439717</v>
-      </c>
       <c r="J12">
-        <v>0.8130116785919353</v>
+        <v>0.9650910976643116</v>
       </c>
       <c r="K12">
-        <v>0.8074099321503436</v>
+        <v>0.9642872281257422</v>
       </c>
       <c r="L12">
-        <v>0.830263863009612</v>
+        <v>0.9655666345253097</v>
       </c>
       <c r="M12">
-        <v>0.8007479079773887</v>
+        <v>0.9090481965909695</v>
       </c>
       <c r="N12">
-        <v>0.814166248429279</v>
+        <v>0.9916628521051915</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>1.05</v>
-      </c>
       <c r="C13">
-        <v>0.7726074692112797</v>
+        <v>0.9324573913083092</v>
       </c>
       <c r="D13">
-        <v>0.7903461883679676</v>
+        <v>0.9483786891140894</v>
       </c>
       <c r="E13">
-        <v>0.813507703312693</v>
+        <v>0.9496797842081631</v>
       </c>
       <c r="F13">
-        <v>0.7836082123486199</v>
+        <v>0.8920543387149331</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="I13">
-        <v>1.002200209229866</v>
-      </c>
       <c r="J13">
-        <v>0.8163853824124679</v>
+        <v>0.9653190503606134</v>
       </c>
       <c r="K13">
-        <v>0.8109402767157707</v>
+        <v>0.9645188913606156</v>
       </c>
       <c r="L13">
-        <v>0.8332979757586505</v>
+        <v>0.9657914676300565</v>
       </c>
       <c r="M13">
-        <v>0.8044487100625773</v>
+        <v>0.9095373093759719</v>
       </c>
       <c r="N13">
-        <v>0.8175447432962057</v>
+        <v>0.9917433206647623</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>1.05</v>
-      </c>
       <c r="C14">
-        <v>0.7842266675880556</v>
+        <v>0.9336007160927909</v>
       </c>
       <c r="D14">
-        <v>0.8015468434539003</v>
+        <v>0.9493108518282802</v>
       </c>
       <c r="E14">
-        <v>0.8231314902225019</v>
+        <v>0.9505888002105973</v>
       </c>
       <c r="F14">
-        <v>0.7953508150068901</v>
+        <v>0.8938660799588444</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="I14">
-        <v>1.004406847235555</v>
-      </c>
       <c r="J14">
-        <v>0.8265166855942678</v>
+        <v>0.9660627613091107</v>
       </c>
       <c r="K14">
-        <v>0.8215413724165394</v>
+        <v>0.9652747995688168</v>
       </c>
       <c r="L14">
-        <v>0.8424119242461666</v>
+        <v>0.9665251216867117</v>
       </c>
       <c r="M14">
-        <v>0.8155603587544453</v>
+        <v>0.9111315877288394</v>
       </c>
       <c r="N14">
-        <v>0.8276904340906005</v>
+        <v>0.9920058493143165</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>1.05</v>
-      </c>
       <c r="C15">
-        <v>0.7907314120023961</v>
+        <v>0.9343015551791853</v>
       </c>
       <c r="D15">
-        <v>0.807823164652313</v>
+        <v>0.9498824789238458</v>
       </c>
       <c r="E15">
-        <v>0.8285289292936588</v>
+        <v>0.9511462711829579</v>
       </c>
       <c r="F15">
-        <v>0.8019289271235408</v>
+        <v>0.894975201899275</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>1.005652053679433</v>
-      </c>
       <c r="J15">
-        <v>0.8321936608803927</v>
+        <v>0.9665185710150044</v>
       </c>
       <c r="K15">
-        <v>0.8274812842676486</v>
+        <v>0.9657381540387844</v>
       </c>
       <c r="L15">
-        <v>0.8475204313843426</v>
+        <v>0.966974859222076</v>
       </c>
       <c r="M15">
-        <v>0.8217855980922045</v>
+        <v>0.912107587424091</v>
       </c>
       <c r="N15">
-        <v>0.8333754713327899</v>
+        <v>0.992166744583647</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>1.05</v>
-      </c>
       <c r="C16">
-        <v>0.8222619602502522</v>
+        <v>0.9383274898466534</v>
       </c>
       <c r="D16">
-        <v>0.8383017822333361</v>
+        <v>0.9531695156368953</v>
       </c>
       <c r="E16">
-        <v>0.8547844035213794</v>
+        <v>0.9543524621827553</v>
       </c>
       <c r="F16">
-        <v>0.833857307775395</v>
+        <v>0.9013258502664991</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="I16">
-        <v>1.011774477701699</v>
-      </c>
       <c r="J16">
-        <v>0.859755642166819</v>
+        <v>0.969135846856537</v>
       </c>
       <c r="K16">
-        <v>0.8563187379856141</v>
+        <v>0.9683997753280932</v>
       </c>
       <c r="L16">
-        <v>0.8723387043829175</v>
+        <v>0.9695586165207173</v>
       </c>
       <c r="M16">
-        <v>0.8520033158562906</v>
+        <v>0.9176959802391594</v>
       </c>
       <c r="N16">
-        <v>0.8609765937940462</v>
+        <v>0.9930905149176595</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>1.05</v>
-      </c>
       <c r="C17">
-        <v>0.8384649600080071</v>
+        <v>0.9408077443701653</v>
       </c>
       <c r="D17">
-        <v>0.8539969975896108</v>
+        <v>0.9551974167662666</v>
       </c>
       <c r="E17">
-        <v>0.8683316730022437</v>
+        <v>0.9563309542425555</v>
       </c>
       <c r="F17">
-        <v>0.850291267190006</v>
+        <v>0.9052214230511016</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>1.014966111279529</v>
-      </c>
       <c r="J17">
-        <v>0.8739414798363181</v>
+        <v>0.9707473041151859</v>
       </c>
       <c r="K17">
-        <v>0.8711617907259745</v>
+        <v>0.970039408516471</v>
       </c>
       <c r="L17">
-        <v>0.8851229130984188</v>
+        <v>0.9711505808118369</v>
       </c>
       <c r="M17">
-        <v>0.8675554176281339</v>
+        <v>0.9211238548506748</v>
       </c>
       <c r="N17">
-        <v>0.8751825769801745</v>
+        <v>0.9936591708068372</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>1.05</v>
-      </c>
       <c r="C18">
-        <v>0.8470644447251076</v>
+        <v>0.9422388547116548</v>
       </c>
       <c r="D18">
-        <v>0.862335284287298</v>
+        <v>0.9563685162248604</v>
       </c>
       <c r="E18">
-        <v>0.8755356630661495</v>
+        <v>0.9574736810444088</v>
       </c>
       <c r="F18">
-        <v>0.8590205169246604</v>
+        <v>0.9074635618004887</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="I18">
-        <v>1.016669385679071</v>
-      </c>
       <c r="J18">
-        <v>0.8814748091945582</v>
+        <v>0.9716767682885017</v>
       </c>
       <c r="K18">
-        <v>0.879044762997698</v>
+        <v>0.970985428969561</v>
       </c>
       <c r="L18">
-        <v>0.8919148541537012</v>
+        <v>0.9720691996020921</v>
       </c>
       <c r="M18">
-        <v>0.8758150938767233</v>
+        <v>0.9230967231808517</v>
       </c>
       <c r="N18">
-        <v>0.882726604530188</v>
+        <v>0.9939871137268479</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>1.05</v>
-      </c>
       <c r="C19">
-        <v>0.8498769427718766</v>
+        <v>0.9427242447311196</v>
       </c>
       <c r="D19">
-        <v>0.8650635562474913</v>
+        <v>0.956765884667691</v>
       </c>
       <c r="E19">
-        <v>0.8778937839799137</v>
+        <v>0.9578614488775483</v>
       </c>
       <c r="F19">
-        <v>0.8618765321975116</v>
+        <v>0.9082231172025755</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="I19">
-        <v>1.017227609233847</v>
-      </c>
       <c r="J19">
-        <v>0.8839391575968526</v>
+        <v>0.9719919554866097</v>
       </c>
       <c r="K19">
-        <v>0.8816236162960943</v>
+        <v>0.97130628140029</v>
       </c>
       <c r="L19">
-        <v>0.8941371220549977</v>
+        <v>0.9723807753005884</v>
       </c>
       <c r="M19">
-        <v>0.8785172424570866</v>
+        <v>0.9237650422224865</v>
       </c>
       <c r="N19">
-        <v>0.8851944525898786</v>
+        <v>0.9940983120132465</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>1.05</v>
-      </c>
       <c r="C20">
-        <v>0.8368211368076466</v>
+        <v>0.9405432627534582</v>
       </c>
       <c r="D20">
-        <v>0.8524037447138177</v>
+        <v>0.954981067484064</v>
       </c>
       <c r="E20">
-        <v>0.866955685750313</v>
+        <v>0.9561198593742788</v>
       </c>
       <c r="F20">
-        <v>0.8486232047647742</v>
+        <v>0.9048066119452014</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>1.014641195690963</v>
-      </c>
       <c r="J20">
-        <v>0.8725017707899227</v>
+        <v>0.9705755027810988</v>
       </c>
       <c r="K20">
-        <v>0.8696553195176949</v>
+        <v>0.9698645714154425</v>
       </c>
       <c r="L20">
-        <v>0.8838251254173345</v>
+        <v>0.9709808160364932</v>
       </c>
       <c r="M20">
-        <v>0.865976978088845</v>
+        <v>0.9207588531707273</v>
       </c>
       <c r="N20">
-        <v>0.8737408233817965</v>
+        <v>0.9935985499302109</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>1.05</v>
-      </c>
       <c r="C21">
-        <v>0.7809553003890323</v>
+        <v>0.9332647898930986</v>
       </c>
       <c r="D21">
-        <v>0.7983919302346005</v>
+        <v>0.9490369206837098</v>
       </c>
       <c r="E21">
-        <v>0.8204196285393147</v>
+        <v>0.9503216631066127</v>
       </c>
       <c r="F21">
-        <v>0.7920437042066797</v>
+        <v>0.8933340677721459</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>1.003783225092442</v>
-      </c>
       <c r="J21">
-        <v>0.8236629882630598</v>
+        <v>0.9658442629250809</v>
       </c>
       <c r="K21">
-        <v>0.8185554281516668</v>
+        <v>0.9650527031713527</v>
       </c>
       <c r="L21">
-        <v>0.8398444164746514</v>
+        <v>0.9663095587505618</v>
       </c>
       <c r="M21">
-        <v>0.8124307934985245</v>
+        <v>0.910663431458917</v>
       </c>
       <c r="N21">
-        <v>0.8248326841818587</v>
+        <v>0.9919287207034911</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>1.05</v>
-      </c>
       <c r="C22">
-        <v>0.707714970998458</v>
+        <v>0.9285330299963147</v>
       </c>
       <c r="D22">
-        <v>0.7280785405729954</v>
+        <v>0.9451825999483648</v>
       </c>
       <c r="E22">
-        <v>0.7602302585404886</v>
+        <v>0.9465636474023937</v>
       </c>
       <c r="F22">
-        <v>0.7182216672982796</v>
+        <v>0.8858127836509371</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>0.9903808465021759</v>
-      </c>
       <c r="J22">
-        <v>0.7600894954592905</v>
+        <v>0.9627652351970341</v>
       </c>
       <c r="K22">
-        <v>0.752007038853086</v>
+        <v>0.9619242549243904</v>
       </c>
       <c r="L22">
-        <v>0.7827234803731714</v>
+        <v>0.9632735965362845</v>
       </c>
       <c r="M22">
-        <v>0.7426275342713964</v>
+        <v>0.9040451121348611</v>
       </c>
       <c r="N22">
-        <v>0.7611689097263263</v>
+        <v>0.9908417812516001</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>1.05</v>
-      </c>
       <c r="C23">
-        <v>0.7559410904925788</v>
+        <v>0.9310569554725653</v>
       </c>
       <c r="D23">
-        <v>0.7743051326187854</v>
+        <v>0.9472375253806951</v>
       </c>
       <c r="E23">
-        <v>0.799744783018162</v>
+        <v>0.9485670622316221</v>
       </c>
       <c r="F23">
-        <v>0.7667824420682549</v>
+        <v>0.8898311218561955</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="I23">
-        <v>0.9990781534909534</v>
-      </c>
       <c r="J23">
-        <v>0.8018765755377116</v>
+        <v>0.9644078958185294</v>
       </c>
       <c r="K23">
-        <v>0.7957569095632987</v>
+        <v>0.9635929839387744</v>
       </c>
       <c r="L23">
-        <v>0.8202525078669046</v>
+        <v>0.9648928866843636</v>
       </c>
       <c r="M23">
-        <v>0.7885304231601462</v>
+        <v>0.9075809699295982</v>
       </c>
       <c r="N23">
-        <v>0.8030153322515039</v>
+        <v>0.9914216742640557</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>1.05</v>
-      </c>
       <c r="C24">
-        <v>0.8375664494597667</v>
+        <v>0.9406628186002364</v>
       </c>
       <c r="D24">
-        <v>0.8531261028226729</v>
+        <v>0.9550788625777388</v>
       </c>
       <c r="E24">
-        <v>0.8675795174541555</v>
+        <v>0.956215278849085</v>
       </c>
       <c r="F24">
-        <v>0.8493794849942596</v>
+        <v>0.9049941398075784</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="I24">
-        <v>1.014788484554044</v>
-      </c>
       <c r="J24">
-        <v>0.8731545242810639</v>
+        <v>0.970653164664827</v>
       </c>
       <c r="K24">
-        <v>0.8703383403782814</v>
+        <v>0.9699436046572552</v>
       </c>
       <c r="L24">
-        <v>0.8844135235615393</v>
+        <v>0.9710575560726155</v>
       </c>
       <c r="M24">
-        <v>0.8666926281861812</v>
+        <v>0.9209238634439679</v>
       </c>
       <c r="N24">
-        <v>0.8743945038577667</v>
+        <v>0.9936259534317049</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>1.05</v>
-      </c>
       <c r="C25">
-        <v>0.8928284595941871</v>
+        <v>0.95120426850192</v>
       </c>
       <c r="D25">
-        <v>0.9067970126468303</v>
+        <v>0.9637218418866973</v>
       </c>
       <c r="E25">
-        <v>0.9140214806992822</v>
+        <v>0.9646514993277204</v>
       </c>
       <c r="F25">
-        <v>0.9055587640022429</v>
+        <v>0.9214224570574217</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>1.025790716856984</v>
-      </c>
       <c r="J25">
-        <v>0.9215918762963058</v>
+        <v>0.9774932890932903</v>
       </c>
       <c r="K25">
-        <v>0.921037841333136</v>
+        <v>0.976910707738636</v>
       </c>
       <c r="L25">
-        <v>0.9281192744864293</v>
+        <v>0.977824515811301</v>
       </c>
       <c r="M25">
-        <v>0.9198244098823959</v>
+        <v>0.935376765827993</v>
       </c>
       <c r="N25">
-        <v>0.9229006424687122</v>
+        <v>0.9960382151706965</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_4/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9591906522027331</v>
+        <v>1.007741359813101</v>
       </c>
       <c r="D2">
-        <v>0.970296990117002</v>
+        <v>1.010450795242707</v>
       </c>
       <c r="E2">
-        <v>0.9710734950917377</v>
+        <v>1.010378232713478</v>
       </c>
       <c r="F2">
-        <v>0.9337421869831367</v>
+        <v>1.005934661921953</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9826644575717466</v>
+        <v>1.013011236820697</v>
       </c>
       <c r="K2">
-        <v>0.9821862544187521</v>
+        <v>1.013320948185163</v>
       </c>
       <c r="L2">
-        <v>0.982951094016406</v>
+        <v>1.013248605009605</v>
       </c>
       <c r="M2">
-        <v>0.946208870304414</v>
+        <v>1.008818532729725</v>
       </c>
       <c r="N2">
-        <v>0.9978593479126053</v>
+        <v>1.008424484006033</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9647732099829411</v>
+        <v>1.008885489017892</v>
       </c>
       <c r="D3">
-        <v>0.9749073082266163</v>
+        <v>1.011447612279555</v>
       </c>
       <c r="E3">
-        <v>0.9755785099217943</v>
+        <v>1.011354631784088</v>
       </c>
       <c r="F3">
-        <v>0.9422973345798205</v>
+        <v>1.007732031210571</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9862725376757457</v>
+        <v>1.013785937500267</v>
       </c>
       <c r="K3">
-        <v>0.9858716522302142</v>
+        <v>1.014121302574718</v>
       </c>
       <c r="L3">
-        <v>0.9865337083722433</v>
+        <v>1.014028582638701</v>
       </c>
       <c r="M3">
-        <v>0.9537259512000393</v>
+        <v>1.010416174298673</v>
       </c>
       <c r="N3">
-        <v>0.9991280977313313</v>
+        <v>1.008689512514675</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9682935633621184</v>
+        <v>1.00962571700567</v>
       </c>
       <c r="D4">
-        <v>0.9778207217452147</v>
+        <v>1.012092817872978</v>
       </c>
       <c r="E4">
-        <v>0.9784262531129015</v>
+        <v>1.01198666391706</v>
       </c>
       <c r="F4">
-        <v>0.9476706989218582</v>
+        <v>1.008894589360257</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.988544631384015</v>
+        <v>1.014286659102448</v>
       </c>
       <c r="K4">
-        <v>0.9881944128956178</v>
+        <v>1.014638783828894</v>
       </c>
       <c r="L4">
-        <v>0.9887922220945572</v>
+        <v>1.014532912232917</v>
       </c>
       <c r="M4">
-        <v>0.95844460525107</v>
+        <v>1.011449090507858</v>
       </c>
       <c r="N4">
-        <v>0.9999260427328642</v>
+        <v>1.008860573501175</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9697526145388434</v>
+        <v>1.009936887534993</v>
       </c>
       <c r="D5">
-        <v>0.979029636449102</v>
+        <v>1.012364111420605</v>
       </c>
       <c r="E5">
-        <v>0.9796081156723124</v>
+        <v>1.012252428344765</v>
       </c>
       <c r="F5">
-        <v>0.9498932037126733</v>
+        <v>1.009383228894149</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9894855537792269</v>
+        <v>1.014497029797006</v>
       </c>
       <c r="K5">
-        <v>0.9891567792080799</v>
+        <v>1.014856238440871</v>
       </c>
       <c r="L5">
-        <v>0.9897280894406421</v>
+        <v>1.014744845756573</v>
       </c>
       <c r="M5">
-        <v>0.9603956076270116</v>
+        <v>1.011883130412383</v>
       </c>
       <c r="N5">
-        <v>1.000256225683113</v>
+        <v>1.008932384960895</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9699964003075549</v>
+        <v>1.009989133262976</v>
       </c>
       <c r="D6">
-        <v>0.9792317097540023</v>
+        <v>1.012409665728677</v>
       </c>
       <c r="E6">
-        <v>0.9798056784197602</v>
+        <v>1.012297054812175</v>
       </c>
       <c r="F6">
-        <v>0.9502643004811928</v>
+        <v>1.009465268058941</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.9896427219967695</v>
+        <v>1.014532344233848</v>
       </c>
       <c r="K6">
-        <v>0.9893175561300371</v>
+        <v>1.014892744532218</v>
       </c>
       <c r="L6">
-        <v>0.9898844461547485</v>
+        <v>1.014780425290232</v>
       </c>
       <c r="M6">
-        <v>0.9607213281430711</v>
+        <v>1.01195599626664</v>
       </c>
       <c r="N6">
-        <v>1.000311362217004</v>
+        <v>1.008944436417451</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9683131400203771</v>
+        <v>1.009629874961979</v>
       </c>
       <c r="D7">
-        <v>0.9778369366991769</v>
+        <v>1.012096442715623</v>
       </c>
       <c r="E7">
-        <v>0.9784421044557002</v>
+        <v>1.011990214844175</v>
       </c>
       <c r="F7">
-        <v>0.9477005363558693</v>
+        <v>1.008901118965581</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.9885572591850457</v>
+        <v>1.014289470605075</v>
       </c>
       <c r="K7">
-        <v>0.9882073266783615</v>
+        <v>1.014641689837406</v>
       </c>
       <c r="L7">
-        <v>0.9888047798299059</v>
+        <v>1.014535744437633</v>
       </c>
       <c r="M7">
-        <v>0.9584708005811404</v>
+        <v>1.011454890937521</v>
       </c>
       <c r="N7">
-        <v>0.9999304750718273</v>
+        <v>1.008861533451982</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9610970313541314</v>
+        <v>1.008128045961337</v>
       </c>
       <c r="D8">
-        <v>0.9718700282898163</v>
+        <v>1.010787634154177</v>
       </c>
       <c r="E8">
-        <v>0.9726104123805597</v>
+        <v>1.010708163237112</v>
       </c>
       <c r="F8">
-        <v>0.936668589737336</v>
+        <v>1.006542192680028</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.9838972303049239</v>
+        <v>1.013273167878997</v>
       </c>
       <c r="K8">
-        <v>0.9834450192612341</v>
+        <v>1.013591515823635</v>
       </c>
       <c r="L8">
-        <v>0.9841746352028701</v>
+        <v>1.013512279211207</v>
       </c>
       <c r="M8">
-        <v>0.9487807273933094</v>
+        <v>1.009358647616566</v>
       </c>
       <c r="N8">
-        <v>0.9982930439111816</v>
+        <v>1.008514140949303</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9476227641397508</v>
+        <v>1.005480745576251</v>
       </c>
       <c r="D9">
-        <v>0.960780840492979</v>
+        <v>1.008482791098277</v>
       </c>
       <c r="E9">
-        <v>0.9617801502694326</v>
+        <v>1.00845077064082</v>
       </c>
       <c r="F9">
-        <v>0.9158635704342427</v>
+        <v>1.00238148300482</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.9751710508620478</v>
+        <v>1.01147793231855</v>
       </c>
       <c r="K9">
-        <v>0.9745439724687801</v>
+        <v>1.011737826317246</v>
       </c>
       <c r="L9">
-        <v>0.9755253277583191</v>
+        <v>1.011705916681196</v>
       </c>
       <c r="M9">
-        <v>0.930487084486003</v>
+        <v>1.005657775411462</v>
       </c>
       <c r="N9">
-        <v>0.9952195889190874</v>
+        <v>1.007898677791794</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9380450412811547</v>
+        <v>1.003715114672957</v>
       </c>
       <c r="D10">
-        <v>0.9529387191904892</v>
+        <v>1.006947094622776</v>
       </c>
       <c r="E10">
-        <v>0.9541273115090391</v>
+        <v>1.006946921126704</v>
       </c>
       <c r="F10">
-        <v>0.9008814271599732</v>
+        <v>0.9996043609359123</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.9689522883560944</v>
+        <v>1.010278050462231</v>
       </c>
       <c r="K10">
-        <v>0.9682130496880886</v>
+        <v>1.010499811863726</v>
       </c>
       <c r="L10">
-        <v>0.9693773338366436</v>
+        <v>1.010499639027785</v>
       </c>
       <c r="M10">
-        <v>0.9173049056248969</v>
+        <v>1.003185244096015</v>
       </c>
       <c r="N10">
-        <v>0.9930257342148964</v>
+        <v>1.00748611456252</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.933734705670293</v>
+        <v>1.002950357702456</v>
       </c>
       <c r="D11">
-        <v>0.949420124732093</v>
+        <v>1.006282302090868</v>
       </c>
       <c r="E11">
-        <v>0.9506953647809657</v>
+        <v>1.006295971652534</v>
       </c>
       <c r="F11">
-        <v>0.8940782112695236</v>
+        <v>0.998400907678803</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.966149909362965</v>
+        <v>1.009757737288748</v>
       </c>
       <c r="K11">
-        <v>0.9653633860635993</v>
+        <v>1.009963187190324</v>
       </c>
       <c r="L11">
-        <v>0.9666111033978487</v>
+        <v>1.009976802697978</v>
       </c>
       <c r="M11">
-        <v>0.9113182577690511</v>
+        <v>1.002113232761298</v>
       </c>
       <c r="N11">
-        <v>0.9920366118164532</v>
+        <v>1.007306929117971</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9321069989904121</v>
+        <v>1.002666255427317</v>
       </c>
       <c r="D12">
-        <v>0.9480931029124352</v>
+        <v>1.006035392536111</v>
       </c>
       <c r="E12">
-        <v>0.9494013049040511</v>
+        <v>1.006054212209226</v>
       </c>
       <c r="F12">
-        <v>0.8914985062753628</v>
+        <v>0.9979537378880738</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.9650910976643116</v>
+        <v>1.009564353877718</v>
       </c>
       <c r="K12">
-        <v>0.9642872281257422</v>
+        <v>1.0097637751944</v>
       </c>
       <c r="L12">
-        <v>0.9655666345253097</v>
+        <v>1.009782519401926</v>
       </c>
       <c r="M12">
-        <v>0.9090481965909695</v>
+        <v>1.001714820554971</v>
       </c>
       <c r="N12">
-        <v>0.9916628521051915</v>
+        <v>1.007240289530172</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9324573913083092</v>
+        <v>1.002727198080188</v>
       </c>
       <c r="D13">
-        <v>0.9483786891140894</v>
+        <v>1.006088354423225</v>
       </c>
       <c r="E13">
-        <v>0.9496797842081631</v>
+        <v>1.006106069006355</v>
       </c>
       <c r="F13">
-        <v>0.8920543387149331</v>
+        <v>0.9980496644779331</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.9653190503606134</v>
+        <v>1.009605840558904</v>
       </c>
       <c r="K13">
-        <v>0.9645188913606156</v>
+        <v>1.009806553656861</v>
       </c>
       <c r="L13">
-        <v>0.9657914676300565</v>
+        <v>1.009824197417062</v>
       </c>
       <c r="M13">
-        <v>0.9095373093759719</v>
+        <v>1.0018002914309</v>
       </c>
       <c r="N13">
-        <v>0.9917433206647623</v>
+        <v>1.007254587674138</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9336007160927909</v>
+        <v>1.002926874503961</v>
       </c>
       <c r="D14">
-        <v>0.9493108518282802</v>
+        <v>1.006261891993281</v>
       </c>
       <c r="E14">
-        <v>0.9505888002105973</v>
+        <v>1.006275987096645</v>
       </c>
       <c r="F14">
-        <v>0.8938660799588444</v>
+        <v>0.9983639476905005</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.9660627613091107</v>
+        <v>1.009741754533931</v>
       </c>
       <c r="K14">
-        <v>0.9652747995688168</v>
+        <v>1.009946705493142</v>
       </c>
       <c r="L14">
-        <v>0.9665251216867117</v>
+        <v>1.009960744795007</v>
       </c>
       <c r="M14">
-        <v>0.9111315877288394</v>
+        <v>1.002080304423726</v>
       </c>
       <c r="N14">
-        <v>0.9920058493143165</v>
+        <v>1.007301422347768</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9343015551791853</v>
+        <v>1.003049896670782</v>
       </c>
       <c r="D15">
-        <v>0.9498824789238458</v>
+        <v>1.006368817331358</v>
       </c>
       <c r="E15">
-        <v>0.9511462711829579</v>
+        <v>1.006380683444272</v>
       </c>
       <c r="F15">
-        <v>0.894975201899275</v>
+        <v>0.9985575672192483</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.9665185710150044</v>
+        <v>1.009825480188881</v>
       </c>
       <c r="K15">
-        <v>0.9657381540387844</v>
+        <v>1.010033046245151</v>
       </c>
       <c r="L15">
-        <v>0.966974859222076</v>
+        <v>1.01004486566652</v>
       </c>
       <c r="M15">
-        <v>0.912107587424091</v>
+        <v>1.002252800264958</v>
       </c>
       <c r="N15">
-        <v>0.992166744583647</v>
+        <v>1.007330267834748</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9383274898466534</v>
+        <v>1.003765864002442</v>
       </c>
       <c r="D16">
-        <v>0.9531695156368953</v>
+        <v>1.00699121819798</v>
       </c>
       <c r="E16">
-        <v>0.9543524621827553</v>
+        <v>1.00699012712017</v>
       </c>
       <c r="F16">
-        <v>0.9013258502664991</v>
+        <v>0.9996842092912568</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.969135846856537</v>
+        <v>1.010312565802186</v>
       </c>
       <c r="K16">
-        <v>0.9683997753280932</v>
+        <v>1.010535413975111</v>
       </c>
       <c r="L16">
-        <v>0.9695586165207173</v>
+        <v>1.01053432703791</v>
       </c>
       <c r="M16">
-        <v>0.9176959802391594</v>
+        <v>1.003256359774522</v>
       </c>
       <c r="N16">
-        <v>0.9930905149176595</v>
+        <v>1.007497995023939</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9408077443701653</v>
+        <v>1.004214908215161</v>
       </c>
       <c r="D17">
-        <v>0.9551974167662666</v>
+        <v>1.007381678918184</v>
       </c>
       <c r="E17">
-        <v>0.9563309542425555</v>
+        <v>1.007372474500552</v>
       </c>
       <c r="F17">
-        <v>0.9052214230511016</v>
+        <v>1.00039066149902</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.9707473041151859</v>
+        <v>1.01061789761435</v>
       </c>
       <c r="K17">
-        <v>0.970039408516471</v>
+        <v>1.01085038555817</v>
       </c>
       <c r="L17">
-        <v>0.9711505808118369</v>
+        <v>1.010841215264662</v>
       </c>
       <c r="M17">
-        <v>0.9211238548506748</v>
+        <v>1.003885486680965</v>
       </c>
       <c r="N17">
-        <v>0.9936591708068372</v>
+        <v>1.007603060116528</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9422388547116548</v>
+        <v>1.004476806420504</v>
       </c>
       <c r="D18">
-        <v>0.9563685162248604</v>
+        <v>1.007609445004532</v>
       </c>
       <c r="E18">
-        <v>0.9574736810444088</v>
+        <v>1.007595513323928</v>
       </c>
       <c r="F18">
-        <v>0.9074635618004887</v>
+        <v>1.000802633153154</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.9716767682885017</v>
+        <v>1.010795919667981</v>
       </c>
       <c r="K18">
-        <v>0.970985428969561</v>
+        <v>1.011034049629468</v>
       </c>
       <c r="L18">
-        <v>0.9720691996020921</v>
+        <v>1.011020168887485</v>
       </c>
       <c r="M18">
-        <v>0.9230967231808517</v>
+        <v>1.004252312479569</v>
       </c>
       <c r="N18">
-        <v>0.9939871137268479</v>
+        <v>1.007664290470718</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9427242447311196</v>
+        <v>1.004566103363045</v>
       </c>
       <c r="D19">
-        <v>0.956765884667691</v>
+        <v>1.007687110294921</v>
       </c>
       <c r="E19">
-        <v>0.9578614488775483</v>
+        <v>1.007671567600543</v>
       </c>
       <c r="F19">
-        <v>0.9082231172025755</v>
+        <v>1.000943089951269</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.9719919554866097</v>
+        <v>1.01085660830383</v>
       </c>
       <c r="K19">
-        <v>0.97130628140029</v>
+        <v>1.011096665316714</v>
       </c>
       <c r="L19">
-        <v>0.9723807753005884</v>
+        <v>1.011081179180929</v>
       </c>
       <c r="M19">
-        <v>0.9237650422224865</v>
+        <v>1.00437736831558</v>
       </c>
       <c r="N19">
-        <v>0.9940983120132465</v>
+        <v>1.007685159579239</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9405432627534582</v>
+        <v>1.004166732289501</v>
       </c>
       <c r="D20">
-        <v>0.954981067484064</v>
+        <v>1.007339784441221</v>
       </c>
       <c r="E20">
-        <v>0.9561198593742788</v>
+        <v>1.007331449978018</v>
       </c>
       <c r="F20">
-        <v>0.9048066119452014</v>
+        <v>1.000314875259818</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.9705755027810988</v>
+        <v>1.010585145950746</v>
       </c>
       <c r="K20">
-        <v>0.9698645714154425</v>
+        <v>1.01081659764068</v>
       </c>
       <c r="L20">
-        <v>0.9709808160364932</v>
+        <v>1.010808294154659</v>
       </c>
       <c r="M20">
-        <v>0.9207588531707273</v>
+        <v>1.003818001184112</v>
       </c>
       <c r="N20">
-        <v>0.9935985499302109</v>
+        <v>1.007591793044343</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9332647898930986</v>
+        <v>1.002868075835822</v>
       </c>
       <c r="D21">
-        <v>0.9490369206837098</v>
+        <v>1.00621078885949</v>
       </c>
       <c r="E21">
-        <v>0.9503216631066127</v>
+        <v>1.00622594958189</v>
       </c>
       <c r="F21">
-        <v>0.8933340677721459</v>
+        <v>0.9982714034586953</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.9658442629250809</v>
+        <v>1.009701734474589</v>
       </c>
       <c r="K21">
-        <v>0.9650527031713527</v>
+        <v>1.009905436653439</v>
       </c>
       <c r="L21">
-        <v>0.9663095587505618</v>
+        <v>1.009920537181223</v>
       </c>
       <c r="M21">
-        <v>0.910663431458917</v>
+        <v>1.001997853721787</v>
       </c>
       <c r="N21">
-        <v>0.9919287207034911</v>
+        <v>1.007287632975731</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9285330299963147</v>
+        <v>1.002051340423527</v>
       </c>
       <c r="D22">
-        <v>0.9451825999483648</v>
+        <v>1.005501082244604</v>
       </c>
       <c r="E22">
-        <v>0.9465636474023937</v>
+        <v>1.00553106277097</v>
       </c>
       <c r="F22">
-        <v>0.8858127836509371</v>
+        <v>0.9969856964212362</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.9627652351970341</v>
+        <v>1.009145626728355</v>
       </c>
       <c r="K22">
-        <v>0.9619242549243904</v>
+        <v>1.0093320566831</v>
       </c>
       <c r="L22">
-        <v>0.9632735965362845</v>
+        <v>1.009361913377761</v>
       </c>
       <c r="M22">
-        <v>0.9040451121348611</v>
+        <v>1.000852179619299</v>
       </c>
       <c r="N22">
-        <v>0.9908417812516001</v>
+        <v>1.007095919966662</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9310569554725653</v>
+        <v>1.002484329161242</v>
       </c>
       <c r="D23">
-        <v>0.9472375253806951</v>
+        <v>1.005877298825826</v>
       </c>
       <c r="E23">
-        <v>0.9485670622316221</v>
+        <v>1.00589941852797</v>
       </c>
       <c r="F23">
-        <v>0.8898311218561955</v>
+        <v>0.9976673630241024</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.9644078958185294</v>
+        <v>1.009440494421733</v>
       </c>
       <c r="K23">
-        <v>0.9635929839387744</v>
+        <v>1.009636064068379</v>
       </c>
       <c r="L23">
-        <v>0.9648928866843636</v>
+        <v>1.009658094284072</v>
       </c>
       <c r="M23">
-        <v>0.9075809699295982</v>
+        <v>1.001459647627041</v>
       </c>
       <c r="N23">
-        <v>0.9914216742640557</v>
+        <v>1.007197595927036</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9406628186002364</v>
+        <v>1.004188500983482</v>
       </c>
       <c r="D24">
-        <v>0.9550788625777388</v>
+        <v>1.007358714699621</v>
       </c>
       <c r="E24">
-        <v>0.956215278849085</v>
+        <v>1.007349987125685</v>
       </c>
       <c r="F24">
-        <v>0.9049941398075784</v>
+        <v>1.000349120075985</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.970653164664827</v>
+        <v>1.010599945242686</v>
       </c>
       <c r="K24">
-        <v>0.9699436046572552</v>
+        <v>1.010831865111529</v>
       </c>
       <c r="L24">
-        <v>0.9710575560726155</v>
+        <v>1.010823169938823</v>
       </c>
       <c r="M24">
-        <v>0.9209238634439679</v>
+        <v>1.003848495386097</v>
       </c>
       <c r="N24">
-        <v>0.9936259534317049</v>
+        <v>1.00759688431099</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.95120426850192</v>
+        <v>1.006165258446153</v>
       </c>
       <c r="D25">
-        <v>0.9637218418866973</v>
+        <v>1.009078487903275</v>
       </c>
       <c r="E25">
-        <v>0.9646514993277204</v>
+        <v>1.009034163554825</v>
       </c>
       <c r="F25">
-        <v>0.9214224570574217</v>
+        <v>1.003457663494369</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.9774932890932903</v>
+        <v>1.011942574428573</v>
       </c>
       <c r="K25">
-        <v>0.976910707738636</v>
+        <v>1.01221743333349</v>
       </c>
       <c r="L25">
-        <v>0.977824515811301</v>
+        <v>1.012173256498776</v>
       </c>
       <c r="M25">
-        <v>0.935376765827993</v>
+        <v>1.006615429486483</v>
       </c>
       <c r="N25">
-        <v>0.9960382151706965</v>
+        <v>1.008058185146165</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_4/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.007741359813101</v>
+        <v>0.9591906522027334</v>
       </c>
       <c r="D2">
-        <v>1.010450795242707</v>
+        <v>0.9702969901170022</v>
       </c>
       <c r="E2">
-        <v>1.010378232713478</v>
+        <v>0.9710734950917382</v>
       </c>
       <c r="F2">
-        <v>1.005934661921953</v>
+        <v>0.9337421869831373</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.013011236820697</v>
+        <v>0.9826644575717468</v>
       </c>
       <c r="K2">
-        <v>1.013320948185163</v>
+        <v>0.9821862544187522</v>
       </c>
       <c r="L2">
-        <v>1.013248605009605</v>
+        <v>0.9829510940164065</v>
       </c>
       <c r="M2">
-        <v>1.008818532729725</v>
+        <v>0.9462088703044146</v>
       </c>
       <c r="N2">
-        <v>1.008424484006033</v>
+        <v>0.9978593479126056</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.008885489017892</v>
+        <v>0.9647732099829419</v>
       </c>
       <c r="D3">
-        <v>1.011447612279555</v>
+        <v>0.9749073082266174</v>
       </c>
       <c r="E3">
-        <v>1.011354631784088</v>
+        <v>0.9755785099217948</v>
       </c>
       <c r="F3">
-        <v>1.007732031210571</v>
+        <v>0.9422973345798216</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.013785937500267</v>
+        <v>0.9862725376757464</v>
       </c>
       <c r="K3">
-        <v>1.014121302574718</v>
+        <v>0.9858716522302151</v>
       </c>
       <c r="L3">
-        <v>1.014028582638701</v>
+        <v>0.9865337083722439</v>
       </c>
       <c r="M3">
-        <v>1.010416174298673</v>
+        <v>0.9537259512000406</v>
       </c>
       <c r="N3">
-        <v>1.008689512514675</v>
+        <v>0.9991280977313315</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.00962571700567</v>
+        <v>0.9682935633621185</v>
       </c>
       <c r="D4">
-        <v>1.012092817872978</v>
+        <v>0.9778207217452146</v>
       </c>
       <c r="E4">
-        <v>1.01198666391706</v>
+        <v>0.9784262531129017</v>
       </c>
       <c r="F4">
-        <v>1.008894589360257</v>
+        <v>0.9476706989218585</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.014286659102448</v>
+        <v>0.988544631384015</v>
       </c>
       <c r="K4">
-        <v>1.014638783828894</v>
+        <v>0.9881944128956179</v>
       </c>
       <c r="L4">
-        <v>1.014532912232917</v>
+        <v>0.9887922220945574</v>
       </c>
       <c r="M4">
-        <v>1.011449090507858</v>
+        <v>0.9584446052510704</v>
       </c>
       <c r="N4">
-        <v>1.008860573501175</v>
+        <v>0.9999260427328645</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.009936887534993</v>
+        <v>0.9697526145388445</v>
       </c>
       <c r="D5">
-        <v>1.012364111420605</v>
+        <v>0.9790296364491028</v>
       </c>
       <c r="E5">
-        <v>1.012252428344765</v>
+        <v>0.979608115672313</v>
       </c>
       <c r="F5">
-        <v>1.009383228894149</v>
+        <v>0.949893203712675</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.014497029797006</v>
+        <v>0.9894855537792276</v>
       </c>
       <c r="K5">
-        <v>1.014856238440871</v>
+        <v>0.9891567792080808</v>
       </c>
       <c r="L5">
-        <v>1.014744845756573</v>
+        <v>0.9897280894406428</v>
       </c>
       <c r="M5">
-        <v>1.011883130412383</v>
+        <v>0.9603956076270131</v>
       </c>
       <c r="N5">
-        <v>1.008932384960895</v>
+        <v>1.000256225683114</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.009989133262976</v>
+        <v>0.9699964003075544</v>
       </c>
       <c r="D6">
-        <v>1.012409665728677</v>
+        <v>0.9792317097540019</v>
       </c>
       <c r="E6">
-        <v>1.012297054812175</v>
+        <v>0.9798056784197601</v>
       </c>
       <c r="F6">
-        <v>1.009465268058941</v>
+        <v>0.9502643004811924</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.014532344233848</v>
+        <v>0.9896427219967692</v>
       </c>
       <c r="K6">
-        <v>1.014892744532218</v>
+        <v>0.9893175561300366</v>
       </c>
       <c r="L6">
-        <v>1.014780425290232</v>
+        <v>0.9898844461547482</v>
       </c>
       <c r="M6">
-        <v>1.01195599626664</v>
+        <v>0.9607213281430709</v>
       </c>
       <c r="N6">
-        <v>1.008944436417451</v>
+        <v>1.000311362217004</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.009629874961979</v>
+        <v>0.9683131400203763</v>
       </c>
       <c r="D7">
-        <v>1.012096442715623</v>
+        <v>0.977836936699176</v>
       </c>
       <c r="E7">
-        <v>1.011990214844175</v>
+        <v>0.9784421044556992</v>
       </c>
       <c r="F7">
-        <v>1.008901118965581</v>
+        <v>0.9477005363558686</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.014289470605075</v>
+        <v>0.9885572591850449</v>
       </c>
       <c r="K7">
-        <v>1.014641689837406</v>
+        <v>0.9882073266783608</v>
       </c>
       <c r="L7">
-        <v>1.014535744437633</v>
+        <v>0.988804779829905</v>
       </c>
       <c r="M7">
-        <v>1.011454890937521</v>
+        <v>0.9584708005811399</v>
       </c>
       <c r="N7">
-        <v>1.008861533451982</v>
+        <v>0.9999304750718271</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.008128045961337</v>
+        <v>0.9610970313541316</v>
       </c>
       <c r="D8">
-        <v>1.010787634154177</v>
+        <v>0.9718700282898165</v>
       </c>
       <c r="E8">
-        <v>1.010708163237112</v>
+        <v>0.97261041238056</v>
       </c>
       <c r="F8">
-        <v>1.006542192680028</v>
+        <v>0.9366685897373362</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.013273167878997</v>
+        <v>0.9838972303049242</v>
       </c>
       <c r="K8">
-        <v>1.013591515823635</v>
+        <v>0.9834450192612343</v>
       </c>
       <c r="L8">
-        <v>1.013512279211207</v>
+        <v>0.9841746352028703</v>
       </c>
       <c r="M8">
-        <v>1.009358647616566</v>
+        <v>0.9487807273933095</v>
       </c>
       <c r="N8">
-        <v>1.008514140949303</v>
+        <v>0.9982930439111817</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.005480745576251</v>
+        <v>0.9476227641397501</v>
       </c>
       <c r="D9">
-        <v>1.008482791098277</v>
+        <v>0.9607808404929782</v>
       </c>
       <c r="E9">
-        <v>1.00845077064082</v>
+        <v>0.961780150269432</v>
       </c>
       <c r="F9">
-        <v>1.00238148300482</v>
+        <v>0.9158635704342417</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.01147793231855</v>
+        <v>0.9751710508620471</v>
       </c>
       <c r="K9">
-        <v>1.011737826317246</v>
+        <v>0.9745439724687793</v>
       </c>
       <c r="L9">
-        <v>1.011705916681196</v>
+        <v>0.9755253277583184</v>
       </c>
       <c r="M9">
-        <v>1.005657775411462</v>
+        <v>0.9304870844860023</v>
       </c>
       <c r="N9">
-        <v>1.007898677791794</v>
+        <v>0.9952195889190871</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.003715114672957</v>
+        <v>0.9380450412811547</v>
       </c>
       <c r="D10">
-        <v>1.006947094622776</v>
+        <v>0.9529387191904891</v>
       </c>
       <c r="E10">
-        <v>1.006946921126704</v>
+        <v>0.9541273115090391</v>
       </c>
       <c r="F10">
-        <v>0.9996043609359123</v>
+        <v>0.9008814271599723</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1.010278050462231</v>
+        <v>0.968952288356094</v>
       </c>
       <c r="K10">
-        <v>1.010499811863726</v>
+        <v>0.9682130496880884</v>
       </c>
       <c r="L10">
-        <v>1.010499639027785</v>
+        <v>0.9693773338366435</v>
       </c>
       <c r="M10">
-        <v>1.003185244096015</v>
+        <v>0.9173049056248962</v>
       </c>
       <c r="N10">
-        <v>1.00748611456252</v>
+        <v>0.9930257342148964</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.002950357702456</v>
+        <v>0.9337347056702925</v>
       </c>
       <c r="D11">
-        <v>1.006282302090868</v>
+        <v>0.9494201247320924</v>
       </c>
       <c r="E11">
-        <v>1.006295971652534</v>
+        <v>0.9506953647809649</v>
       </c>
       <c r="F11">
-        <v>0.998400907678803</v>
+        <v>0.8940782112695228</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1.009757737288748</v>
+        <v>0.9661499093629644</v>
       </c>
       <c r="K11">
-        <v>1.009963187190324</v>
+        <v>0.9653633860635986</v>
       </c>
       <c r="L11">
-        <v>1.009976802697978</v>
+        <v>0.9666111033978479</v>
       </c>
       <c r="M11">
-        <v>1.002113232761298</v>
+        <v>0.9113182577690502</v>
       </c>
       <c r="N11">
-        <v>1.007306929117971</v>
+        <v>0.992036611816453</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.002666255427317</v>
+        <v>0.9321069989904113</v>
       </c>
       <c r="D12">
-        <v>1.006035392536111</v>
+        <v>0.9480931029124349</v>
       </c>
       <c r="E12">
-        <v>1.006054212209226</v>
+        <v>0.9494013049040505</v>
       </c>
       <c r="F12">
-        <v>0.9979537378880738</v>
+        <v>0.8914985062753621</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1.009564353877718</v>
+        <v>0.9650910976643109</v>
       </c>
       <c r="K12">
-        <v>1.0097637751944</v>
+        <v>0.9642872281257414</v>
       </c>
       <c r="L12">
-        <v>1.009782519401926</v>
+        <v>0.965566634525309</v>
       </c>
       <c r="M12">
-        <v>1.001714820554971</v>
+        <v>0.9090481965909687</v>
       </c>
       <c r="N12">
-        <v>1.007240289530172</v>
+        <v>0.9916628521051912</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.002727198080188</v>
+        <v>0.9324573913083098</v>
       </c>
       <c r="D13">
-        <v>1.006088354423225</v>
+        <v>0.9483786891140901</v>
       </c>
       <c r="E13">
-        <v>1.006106069006355</v>
+        <v>0.9496797842081636</v>
       </c>
       <c r="F13">
-        <v>0.9980496644779331</v>
+        <v>0.8920543387149341</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1.009605840558904</v>
+        <v>0.9653190503606139</v>
       </c>
       <c r="K13">
-        <v>1.009806553656861</v>
+        <v>0.9645188913606161</v>
       </c>
       <c r="L13">
-        <v>1.009824197417062</v>
+        <v>0.9657914676300571</v>
       </c>
       <c r="M13">
-        <v>1.0018002914309</v>
+        <v>0.9095373093759727</v>
       </c>
       <c r="N13">
-        <v>1.007254587674138</v>
+        <v>0.9917433206647625</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.002926874503961</v>
+        <v>0.9336007160927918</v>
       </c>
       <c r="D14">
-        <v>1.006261891993281</v>
+        <v>0.9493108518282812</v>
       </c>
       <c r="E14">
-        <v>1.006275987096645</v>
+        <v>0.9505888002105979</v>
       </c>
       <c r="F14">
-        <v>0.9983639476905005</v>
+        <v>0.8938660799588451</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.009741754533931</v>
+        <v>0.9660627613091114</v>
       </c>
       <c r="K14">
-        <v>1.009946705493142</v>
+        <v>0.9652747995688177</v>
       </c>
       <c r="L14">
-        <v>1.009960744795007</v>
+        <v>0.9665251216867123</v>
       </c>
       <c r="M14">
-        <v>1.002080304423726</v>
+        <v>0.9111315877288403</v>
       </c>
       <c r="N14">
-        <v>1.007301422347768</v>
+        <v>0.9920058493143169</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.003049896670782</v>
+        <v>0.9343015551791864</v>
       </c>
       <c r="D15">
-        <v>1.006368817331358</v>
+        <v>0.949882478923847</v>
       </c>
       <c r="E15">
-        <v>1.006380683444272</v>
+        <v>0.9511462711829586</v>
       </c>
       <c r="F15">
-        <v>0.9985575672192483</v>
+        <v>0.8949752018992764</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.009825480188881</v>
+        <v>0.9665185710150054</v>
       </c>
       <c r="K15">
-        <v>1.010033046245151</v>
+        <v>0.9657381540387856</v>
       </c>
       <c r="L15">
-        <v>1.01004486566652</v>
+        <v>0.9669748592220766</v>
       </c>
       <c r="M15">
-        <v>1.002252800264958</v>
+        <v>0.9121075874240923</v>
       </c>
       <c r="N15">
-        <v>1.007330267834748</v>
+        <v>0.9921667445836474</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.003765864002442</v>
+        <v>0.9383274898466527</v>
       </c>
       <c r="D16">
-        <v>1.00699121819798</v>
+        <v>0.9531695156368944</v>
       </c>
       <c r="E16">
-        <v>1.00699012712017</v>
+        <v>0.9543524621827546</v>
       </c>
       <c r="F16">
-        <v>0.9996842092912568</v>
+        <v>0.9013258502664978</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1.010312565802186</v>
+        <v>0.9691358468565362</v>
       </c>
       <c r="K16">
-        <v>1.010535413975111</v>
+        <v>0.9683997753280923</v>
       </c>
       <c r="L16">
-        <v>1.01053432703791</v>
+        <v>0.9695586165207165</v>
       </c>
       <c r="M16">
-        <v>1.003256359774522</v>
+        <v>0.9176959802391582</v>
       </c>
       <c r="N16">
-        <v>1.007497995023939</v>
+        <v>0.9930905149176595</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.004214908215161</v>
+        <v>0.9408077443701661</v>
       </c>
       <c r="D17">
-        <v>1.007381678918184</v>
+        <v>0.9551974167662675</v>
       </c>
       <c r="E17">
-        <v>1.007372474500552</v>
+        <v>0.9563309542425561</v>
       </c>
       <c r="F17">
-        <v>1.00039066149902</v>
+        <v>0.9052214230511016</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1.01061789761435</v>
+        <v>0.9707473041151864</v>
       </c>
       <c r="K17">
-        <v>1.01085038555817</v>
+        <v>0.9700394085164717</v>
       </c>
       <c r="L17">
-        <v>1.010841215264662</v>
+        <v>0.9711505808118376</v>
       </c>
       <c r="M17">
-        <v>1.003885486680965</v>
+        <v>0.9211238548506751</v>
       </c>
       <c r="N17">
-        <v>1.007603060116528</v>
+        <v>0.9936591708068372</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.004476806420504</v>
+        <v>0.9422388547116549</v>
       </c>
       <c r="D18">
-        <v>1.007609445004532</v>
+        <v>0.9563685162248606</v>
       </c>
       <c r="E18">
-        <v>1.007595513323928</v>
+        <v>0.9574736810444088</v>
       </c>
       <c r="F18">
-        <v>1.000802633153154</v>
+        <v>0.907463561800489</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1.010795919667981</v>
+        <v>0.9716767682885018</v>
       </c>
       <c r="K18">
-        <v>1.011034049629468</v>
+        <v>0.9709854289695613</v>
       </c>
       <c r="L18">
-        <v>1.011020168887485</v>
+        <v>0.9720691996020924</v>
       </c>
       <c r="M18">
-        <v>1.004252312479569</v>
+        <v>0.9230967231808519</v>
       </c>
       <c r="N18">
-        <v>1.007664290470718</v>
+        <v>0.9939871137268478</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.004566103363045</v>
+        <v>0.9427242447311185</v>
       </c>
       <c r="D19">
-        <v>1.007687110294921</v>
+        <v>0.95676588466769</v>
       </c>
       <c r="E19">
-        <v>1.007671567600543</v>
+        <v>0.9578614488775472</v>
       </c>
       <c r="F19">
-        <v>1.000943089951269</v>
+        <v>0.9082231172025748</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1.01085660830383</v>
+        <v>0.9719919554866084</v>
       </c>
       <c r="K19">
-        <v>1.011096665316714</v>
+        <v>0.971306281400289</v>
       </c>
       <c r="L19">
-        <v>1.011081179180929</v>
+        <v>0.9723807753005874</v>
       </c>
       <c r="M19">
-        <v>1.00437736831558</v>
+        <v>0.9237650422224857</v>
       </c>
       <c r="N19">
-        <v>1.007685159579239</v>
+        <v>0.9940983120132462</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.004166732289501</v>
+        <v>0.9405432627534585</v>
       </c>
       <c r="D20">
-        <v>1.007339784441221</v>
+        <v>0.9549810674840642</v>
       </c>
       <c r="E20">
-        <v>1.007331449978018</v>
+        <v>0.9561198593742789</v>
       </c>
       <c r="F20">
-        <v>1.000314875259818</v>
+        <v>0.9048066119452014</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1.010585145950746</v>
+        <v>0.9705755027810989</v>
       </c>
       <c r="K20">
-        <v>1.01081659764068</v>
+        <v>0.9698645714154427</v>
       </c>
       <c r="L20">
-        <v>1.010808294154659</v>
+        <v>0.9709808160364933</v>
       </c>
       <c r="M20">
-        <v>1.003818001184112</v>
+        <v>0.9207588531707274</v>
       </c>
       <c r="N20">
-        <v>1.007591793044343</v>
+        <v>0.9935985499302109</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.002868075835822</v>
+        <v>0.9332647898930976</v>
       </c>
       <c r="D21">
-        <v>1.00621078885949</v>
+        <v>0.9490369206837087</v>
       </c>
       <c r="E21">
-        <v>1.00622594958189</v>
+        <v>0.9503216631066114</v>
       </c>
       <c r="F21">
-        <v>0.9982714034586953</v>
+        <v>0.8933340677721447</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.009701734474589</v>
+        <v>0.9658442629250799</v>
       </c>
       <c r="K21">
-        <v>1.009905436653439</v>
+        <v>0.9650527031713517</v>
       </c>
       <c r="L21">
-        <v>1.009920537181223</v>
+        <v>0.9663095587505605</v>
       </c>
       <c r="M21">
-        <v>1.001997853721787</v>
+        <v>0.9106634314589159</v>
       </c>
       <c r="N21">
-        <v>1.007287632975731</v>
+        <v>0.9919287207034907</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.002051340423527</v>
+        <v>0.9285330299963142</v>
       </c>
       <c r="D22">
-        <v>1.005501082244604</v>
+        <v>0.9451825999483644</v>
       </c>
       <c r="E22">
-        <v>1.00553106277097</v>
+        <v>0.9465636474023935</v>
       </c>
       <c r="F22">
-        <v>0.9969856964212362</v>
+        <v>0.8858127836509362</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.009145626728355</v>
+        <v>0.9627652351970335</v>
       </c>
       <c r="K22">
-        <v>1.0093320566831</v>
+        <v>0.9619242549243899</v>
       </c>
       <c r="L22">
-        <v>1.009361913377761</v>
+        <v>0.963273596536284</v>
       </c>
       <c r="M22">
-        <v>1.000852179619299</v>
+        <v>0.9040451121348604</v>
       </c>
       <c r="N22">
-        <v>1.007095919966662</v>
+        <v>0.9908417812515998</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.002484329161242</v>
+        <v>0.9310569554725647</v>
       </c>
       <c r="D23">
-        <v>1.005877298825826</v>
+        <v>0.9472375253806946</v>
       </c>
       <c r="E23">
-        <v>1.00589941852797</v>
+        <v>0.9485670622316218</v>
       </c>
       <c r="F23">
-        <v>0.9976673630241024</v>
+        <v>0.8898311218561948</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1.009440494421733</v>
+        <v>0.964407895818529</v>
       </c>
       <c r="K23">
-        <v>1.009636064068379</v>
+        <v>0.9635929839387739</v>
       </c>
       <c r="L23">
-        <v>1.009658094284072</v>
+        <v>0.9648928866843632</v>
       </c>
       <c r="M23">
-        <v>1.001459647627041</v>
+        <v>0.9075809699295976</v>
       </c>
       <c r="N23">
-        <v>1.007197595927036</v>
+        <v>0.9914216742640557</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.004188500983482</v>
+        <v>0.9406628186002369</v>
       </c>
       <c r="D24">
-        <v>1.007358714699621</v>
+        <v>0.9550788625777392</v>
       </c>
       <c r="E24">
-        <v>1.007349987125685</v>
+        <v>0.9562152788490854</v>
       </c>
       <c r="F24">
-        <v>1.000349120075985</v>
+        <v>0.9049941398075797</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1.010599945242686</v>
+        <v>0.9706531646648274</v>
       </c>
       <c r="K24">
-        <v>1.010831865111529</v>
+        <v>0.9699436046572556</v>
       </c>
       <c r="L24">
-        <v>1.010823169938823</v>
+        <v>0.9710575560726159</v>
       </c>
       <c r="M24">
-        <v>1.003848495386097</v>
+        <v>0.9209238634439691</v>
       </c>
       <c r="N24">
-        <v>1.00759688431099</v>
+        <v>0.993625953431705</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.006165258446153</v>
+        <v>0.9512042685019202</v>
       </c>
       <c r="D25">
-        <v>1.009078487903275</v>
+        <v>0.9637218418866976</v>
       </c>
       <c r="E25">
-        <v>1.009034163554825</v>
+        <v>0.9646514993277204</v>
       </c>
       <c r="F25">
-        <v>1.003457663494369</v>
+        <v>0.9214224570574222</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1.011942574428573</v>
+        <v>0.9774932890932906</v>
       </c>
       <c r="K25">
-        <v>1.01221743333349</v>
+        <v>0.9769107077386361</v>
       </c>
       <c r="L25">
-        <v>1.012173256498776</v>
+        <v>0.9778245158113009</v>
       </c>
       <c r="M25">
-        <v>1.006615429486483</v>
+        <v>0.9353767658279936</v>
       </c>
       <c r="N25">
-        <v>1.008058185146165</v>
+        <v>0.9960382151706965</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_4/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,845 +412,1289 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
       <c r="C2">
-        <v>0.9591906522027334</v>
+        <v>1.004342756255597</v>
       </c>
       <c r="D2">
-        <v>0.9702969901170022</v>
+        <v>1.021570545184285</v>
       </c>
       <c r="E2">
-        <v>0.9710734950917382</v>
+        <v>1.010238890653929</v>
       </c>
       <c r="F2">
-        <v>0.9337421869831373</v>
+        <v>1.027787173836033</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="I2">
+        <v>1.049136131118624</v>
+      </c>
       <c r="J2">
-        <v>0.9826644575717468</v>
+        <v>1.026394347573015</v>
       </c>
       <c r="K2">
-        <v>0.9821862544187522</v>
+        <v>1.032737329937943</v>
       </c>
       <c r="L2">
-        <v>0.9829510940164065</v>
+        <v>1.021557400885736</v>
       </c>
       <c r="M2">
-        <v>0.9462088703044146</v>
+        <v>1.038872500733692</v>
       </c>
       <c r="N2">
-        <v>0.9978593479126056</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.012764195799683</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.039337366388326</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.034218345997518</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
       <c r="C3">
-        <v>0.9647732099829419</v>
+        <v>1.007934129790745</v>
       </c>
       <c r="D3">
-        <v>0.9749073082266174</v>
+        <v>1.024202559845276</v>
       </c>
       <c r="E3">
-        <v>0.9755785099217948</v>
+        <v>1.013041135942137</v>
       </c>
       <c r="F3">
-        <v>0.9422973345798216</v>
+        <v>1.030487841482231</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.049867957213856</v>
+      </c>
       <c r="J3">
-        <v>0.9862725376757464</v>
+        <v>1.028210814689893</v>
       </c>
       <c r="K3">
-        <v>0.9858716522302151</v>
+        <v>1.034534853741736</v>
       </c>
       <c r="L3">
-        <v>0.9865337083722439</v>
+        <v>1.023509828567785</v>
       </c>
       <c r="M3">
-        <v>0.9537259512000406</v>
+        <v>1.040744937785398</v>
       </c>
       <c r="N3">
-        <v>0.9991280977313315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.013369337641199</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.040819275639772</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.035486687111301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
       <c r="C4">
-        <v>0.9682935633621185</v>
+        <v>1.010215583979612</v>
       </c>
       <c r="D4">
-        <v>0.9778207217452146</v>
+        <v>1.02588138137669</v>
       </c>
       <c r="E4">
-        <v>0.9784262531129017</v>
+        <v>1.014826901868332</v>
       </c>
       <c r="F4">
-        <v>0.9476706989218585</v>
+        <v>1.032212493128827</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.050315744180163</v>
+      </c>
       <c r="J4">
-        <v>0.988544631384015</v>
+        <v>1.029361535353319</v>
       </c>
       <c r="K4">
-        <v>0.9881944128956179</v>
+        <v>1.035677162093002</v>
       </c>
       <c r="L4">
-        <v>0.9887922220945574</v>
+        <v>1.024749613091803</v>
       </c>
       <c r="M4">
-        <v>0.9584446052510704</v>
+        <v>1.041937085593913</v>
       </c>
       <c r="N4">
-        <v>0.9999260427328645</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.013752759993759</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.041762779665255</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.036295306834919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
       <c r="C5">
-        <v>0.9697526145388445</v>
+        <v>1.011168162585475</v>
       </c>
       <c r="D5">
-        <v>0.9790296364491028</v>
+        <v>1.026586440434762</v>
       </c>
       <c r="E5">
-        <v>0.979608115672313</v>
+        <v>1.01557419318651</v>
       </c>
       <c r="F5">
-        <v>0.949893203712675</v>
+        <v>1.032935737885412</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1.050499238469521</v>
+      </c>
       <c r="J5">
-        <v>0.9894855537792276</v>
+        <v>1.029842768687542</v>
       </c>
       <c r="K5">
-        <v>0.9891567792080808</v>
+        <v>1.036157409940365</v>
       </c>
       <c r="L5">
-        <v>0.9897280894406428</v>
+        <v>1.025268235568958</v>
       </c>
       <c r="M5">
-        <v>0.9603956076270131</v>
+        <v>1.042437211475953</v>
       </c>
       <c r="N5">
-        <v>1.000256225683114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.013913375172929</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.042158594968452</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.036642089222086</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
       <c r="C6">
-        <v>0.9699964003075544</v>
+        <v>1.011331592273375</v>
       </c>
       <c r="D6">
-        <v>0.9792317097540019</v>
+        <v>1.026710517558683</v>
       </c>
       <c r="E6">
-        <v>0.9798056784197601</v>
+        <v>1.01570291404619</v>
       </c>
       <c r="F6">
-        <v>0.9502643004811924</v>
+        <v>1.033061166293378</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>1.050531334210735</v>
+      </c>
       <c r="J6">
-        <v>0.9896427219967692</v>
+        <v>1.02992719620293</v>
       </c>
       <c r="K6">
-        <v>0.9893175561300366</v>
+        <v>1.036243719994374</v>
       </c>
       <c r="L6">
-        <v>0.9898844461547482</v>
+        <v>1.025358572671374</v>
       </c>
       <c r="M6">
-        <v>0.9607213281430709</v>
+        <v>1.042525175953299</v>
       </c>
       <c r="N6">
-        <v>1.000311362217004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.013941859703462</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.042228212791371</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.036711901927528</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
       <c r="C7">
-        <v>0.9683131400203763</v>
+        <v>1.010239299215387</v>
       </c>
       <c r="D7">
-        <v>0.977836936699176</v>
+        <v>1.025907014889119</v>
       </c>
       <c r="E7">
-        <v>0.9784421044556992</v>
+        <v>1.014846675316571</v>
       </c>
       <c r="F7">
-        <v>0.9477005363558686</v>
+        <v>1.032233751187007</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.050322646010685</v>
+      </c>
       <c r="J7">
-        <v>0.9885572591850449</v>
+        <v>1.029378664158689</v>
       </c>
       <c r="K7">
-        <v>0.9882073266783608</v>
+        <v>1.035699605210593</v>
       </c>
       <c r="L7">
-        <v>0.988804779829905</v>
+        <v>1.024766214007605</v>
       </c>
       <c r="M7">
-        <v>0.9584708005811399</v>
+        <v>1.041955230174375</v>
       </c>
       <c r="N7">
-        <v>0.9999304750718271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.013759305814321</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.041777139858889</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.036331381470311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
       <c r="C8">
-        <v>0.9610970313541316</v>
+        <v>1.005579248995016</v>
       </c>
       <c r="D8">
-        <v>0.9718700282898165</v>
+        <v>1.02248536467504</v>
       </c>
       <c r="E8">
-        <v>0.97261041238056</v>
+        <v>1.011204040302994</v>
       </c>
       <c r="F8">
-        <v>0.9366685897373362</v>
+        <v>1.028719187002109</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>1.049394394886902</v>
+      </c>
       <c r="J8">
-        <v>0.9838972303049242</v>
+        <v>1.027026837767244</v>
       </c>
       <c r="K8">
-        <v>0.9834450192612343</v>
+        <v>1.033369133402108</v>
       </c>
       <c r="L8">
-        <v>0.9841746352028703</v>
+        <v>1.022234354709366</v>
       </c>
       <c r="M8">
-        <v>0.9487807273933095</v>
+        <v>1.039523698497043</v>
       </c>
       <c r="N8">
-        <v>0.9982930439111817</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.012975969498508</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.039852746404608</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.034688122669205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
       <c r="C9">
-        <v>0.9476227641397501</v>
+        <v>0.9970121711359289</v>
       </c>
       <c r="D9">
-        <v>0.9607808404929782</v>
+        <v>1.016237336289404</v>
       </c>
       <c r="E9">
-        <v>0.961780150269432</v>
+        <v>1.004551386720107</v>
       </c>
       <c r="F9">
-        <v>0.9158635704342417</v>
+        <v>1.022325728742921</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.047551349720661</v>
+      </c>
       <c r="J9">
-        <v>0.9751710508620471</v>
+        <v>1.022670880317209</v>
       </c>
       <c r="K9">
-        <v>0.9745439724687793</v>
+        <v>1.029072354756818</v>
       </c>
       <c r="L9">
-        <v>0.9755253277583184</v>
+        <v>1.017571049941703</v>
       </c>
       <c r="M9">
-        <v>0.9304870844860023</v>
+        <v>1.035066681355288</v>
       </c>
       <c r="N9">
-        <v>0.9952195889190871</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.011524287149731</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.036325304311069</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.031646779761205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
       <c r="C10">
-        <v>0.9380450412811547</v>
+        <v>0.9911122740232666</v>
       </c>
       <c r="D10">
-        <v>0.9529387191904891</v>
+        <v>1.012006415227852</v>
       </c>
       <c r="E10">
-        <v>0.9541273115090391</v>
+        <v>1.000009629297052</v>
       </c>
       <c r="F10">
-        <v>0.9008814271599723</v>
+        <v>1.018060305032009</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.046206581511819</v>
+      </c>
       <c r="J10">
-        <v>0.968952288356094</v>
+        <v>1.019683009216553</v>
       </c>
       <c r="K10">
-        <v>0.9682130496880884</v>
+        <v>1.026162221910631</v>
       </c>
       <c r="L10">
-        <v>0.9693773338366435</v>
+        <v>1.014378709886136</v>
       </c>
       <c r="M10">
-        <v>0.9173049056248962</v>
+        <v>1.032110955849698</v>
       </c>
       <c r="N10">
-        <v>0.9930257342148964</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010533096088986</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.034037745278707</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.029606037612025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
       <c r="C11">
-        <v>0.9337347056702925</v>
+        <v>0.9889414947743147</v>
       </c>
       <c r="D11">
-        <v>0.9494201247320924</v>
+        <v>1.010708834136215</v>
       </c>
       <c r="E11">
-        <v>0.9506953647809649</v>
+        <v>0.998398980818369</v>
       </c>
       <c r="F11">
-        <v>0.8940782112695228</v>
+        <v>1.017186649122936</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1.045767983244177</v>
+      </c>
       <c r="J11">
-        <v>0.9661499093629644</v>
+        <v>1.018781668288296</v>
       </c>
       <c r="K11">
-        <v>0.9653633860635986</v>
+        <v>1.025431584308454</v>
       </c>
       <c r="L11">
-        <v>0.9666111033978479</v>
+        <v>1.013351153306855</v>
       </c>
       <c r="M11">
-        <v>0.9113182577690502</v>
+        <v>1.031791569019073</v>
       </c>
       <c r="N11">
-        <v>0.992036611816453</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.010267138921514</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.034223346409446</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.029122540797584</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
       <c r="C12">
-        <v>0.9321069989904113</v>
+        <v>0.9882800597845469</v>
       </c>
       <c r="D12">
-        <v>0.9480931029124349</v>
+        <v>1.010413607773061</v>
       </c>
       <c r="E12">
-        <v>0.9494013049040505</v>
+        <v>0.9979316507326182</v>
       </c>
       <c r="F12">
-        <v>0.8914985062753621</v>
+        <v>1.017211371561977</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.04566121242944</v>
+      </c>
       <c r="J12">
-        <v>0.9650910976643109</v>
+        <v>1.0185888462131</v>
       </c>
       <c r="K12">
-        <v>0.9642872281257414</v>
+        <v>1.025343982448709</v>
       </c>
       <c r="L12">
-        <v>0.965566634525309</v>
+        <v>1.013098584621559</v>
       </c>
       <c r="M12">
-        <v>0.9090481965909687</v>
+        <v>1.032016094146098</v>
       </c>
       <c r="N12">
-        <v>0.9916628521051912</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.010228467869109</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.034728709671666</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.029060602530794</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
       <c r="C13">
-        <v>0.9324573913083098</v>
+        <v>0.988752582456101</v>
       </c>
       <c r="D13">
-        <v>0.9483786891140901</v>
+        <v>1.010892548820689</v>
       </c>
       <c r="E13">
-        <v>0.9496797842081636</v>
+        <v>0.9983252575139249</v>
       </c>
       <c r="F13">
-        <v>0.8920543387149341</v>
+        <v>1.017956947574389</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1.04581570144921</v>
+      </c>
       <c r="J13">
-        <v>0.9653190503606139</v>
+        <v>1.018946307296589</v>
       </c>
       <c r="K13">
-        <v>0.9645188913606161</v>
+        <v>1.025770654939399</v>
       </c>
       <c r="L13">
-        <v>0.9657914676300571</v>
+        <v>1.013440471413934</v>
       </c>
       <c r="M13">
-        <v>0.9095373093759727</v>
+        <v>1.032705114548934</v>
       </c>
       <c r="N13">
-        <v>0.9917433206647625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.010369258970071</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.035551142401045</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.029359766417155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
       <c r="C14">
-        <v>0.9336007160927918</v>
+        <v>0.9895972313094473</v>
       </c>
       <c r="D14">
-        <v>0.9493108518282812</v>
+        <v>1.01157898869287</v>
       </c>
       <c r="E14">
-        <v>0.9505888002105979</v>
+        <v>0.9989909296032073</v>
       </c>
       <c r="F14">
-        <v>0.8938660799588451</v>
+        <v>1.018804468018014</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>1.046041897928769</v>
+      </c>
       <c r="J14">
-        <v>0.9660627613091114</v>
+        <v>1.019445556692972</v>
       </c>
       <c r="K14">
-        <v>0.9652747995688177</v>
+        <v>1.026302483613297</v>
       </c>
       <c r="L14">
-        <v>0.9665251216867123</v>
+        <v>1.01394889451572</v>
       </c>
       <c r="M14">
-        <v>0.9111315877288403</v>
+        <v>1.033396779643589</v>
       </c>
       <c r="N14">
-        <v>0.9920058493143169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.010549046194282</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.036271697822439</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.029737227613177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
       <c r="C15">
-        <v>0.9343015551791864</v>
+        <v>0.9900553188606985</v>
       </c>
       <c r="D15">
-        <v>0.949882478923847</v>
+        <v>1.011925540359884</v>
       </c>
       <c r="E15">
-        <v>0.9511462711829586</v>
+        <v>0.9993460108819007</v>
       </c>
       <c r="F15">
-        <v>0.8949752018992764</v>
+        <v>1.019185913200794</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1.046156313228901</v>
+      </c>
       <c r="J15">
-        <v>0.9665185710150054</v>
+        <v>1.019694108700208</v>
       </c>
       <c r="K15">
-        <v>0.9657381540387856</v>
+        <v>1.026555310845466</v>
       </c>
       <c r="L15">
-        <v>0.9669748592220766</v>
+        <v>1.014208274766051</v>
       </c>
       <c r="M15">
-        <v>0.9121075874240923</v>
+        <v>1.033684889700296</v>
       </c>
       <c r="N15">
-        <v>0.9921667445836474</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.010634696458011</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.036537046922299</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.029921901507964</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
       <c r="C16">
-        <v>0.9383274898466527</v>
+        <v>0.9924651212150369</v>
       </c>
       <c r="D16">
-        <v>0.9531695156368944</v>
+        <v>1.01363264830942</v>
       </c>
       <c r="E16">
-        <v>0.9543524621827546</v>
+        <v>1.001189759646704</v>
       </c>
       <c r="F16">
-        <v>0.9013258502664978</v>
+        <v>1.020884116584176</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>1.046717506553273</v>
+      </c>
       <c r="J16">
-        <v>0.9691358468565362</v>
+        <v>1.020903158162554</v>
       </c>
       <c r="K16">
-        <v>0.9683997753280923</v>
+        <v>1.027724079605948</v>
       </c>
       <c r="L16">
-        <v>0.9695586165207165</v>
+        <v>1.015500951103384</v>
       </c>
       <c r="M16">
-        <v>0.9176959802391582</v>
+        <v>1.034850667445186</v>
       </c>
       <c r="N16">
-        <v>0.9930905149176595</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.011031987029487</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.037419662387684</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.030751461734407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
       <c r="C17">
-        <v>0.9408077443701661</v>
+        <v>0.9938732435174547</v>
       </c>
       <c r="D17">
-        <v>0.9551974167662675</v>
+        <v>1.014584820576158</v>
       </c>
       <c r="E17">
-        <v>0.9563309542425561</v>
+        <v>1.002258558590451</v>
       </c>
       <c r="F17">
-        <v>0.9052214230511016</v>
+        <v>1.021739217463527</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1.047025816554004</v>
+      </c>
       <c r="J17">
-        <v>0.9707473041151864</v>
+        <v>1.02156891711798</v>
       </c>
       <c r="K17">
-        <v>0.9700394085164717</v>
+        <v>1.028341867968568</v>
       </c>
       <c r="L17">
-        <v>0.9711505808118376</v>
+        <v>1.016227102644531</v>
       </c>
       <c r="M17">
-        <v>0.9211238548506751</v>
+        <v>1.035376521667794</v>
       </c>
       <c r="N17">
-        <v>0.9936591708068372</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.011242468275203</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.037705947241379</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.031190871851217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
       <c r="C18">
-        <v>0.9422388547116549</v>
+        <v>0.9945388253907387</v>
       </c>
       <c r="D18">
-        <v>0.9563685162248606</v>
+        <v>1.014944831105042</v>
       </c>
       <c r="E18">
-        <v>0.9574736810444088</v>
+        <v>1.002745135488707</v>
       </c>
       <c r="F18">
-        <v>0.907463561800489</v>
+        <v>1.021892246620574</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1.04714251114206</v>
+      </c>
       <c r="J18">
-        <v>0.9716767682885018</v>
+        <v>1.021809748865559</v>
       </c>
       <c r="K18">
-        <v>0.9709854289695613</v>
+        <v>1.028510488977059</v>
       </c>
       <c r="L18">
-        <v>0.9720691996020924</v>
+        <v>1.016516651962617</v>
       </c>
       <c r="M18">
-        <v>0.9230967231808519</v>
+        <v>1.035343496292104</v>
       </c>
       <c r="N18">
-        <v>0.9939871137268478</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.011303815659771</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.037441454490303</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.03129837851741</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
       <c r="C19">
-        <v>0.9427242447311185</v>
+        <v>0.9945419684286909</v>
       </c>
       <c r="D19">
-        <v>0.95676588466769</v>
+        <v>1.014783432963473</v>
       </c>
       <c r="E19">
-        <v>0.9578614488775472</v>
+        <v>1.002712592580329</v>
       </c>
       <c r="F19">
-        <v>0.9082231172025748</v>
+        <v>1.021412297252104</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.047092704595394</v>
+      </c>
       <c r="J19">
-        <v>0.9719919554866084</v>
+        <v>1.02167692791004</v>
       </c>
       <c r="K19">
-        <v>0.971306281400289</v>
+        <v>1.028288570804598</v>
       </c>
       <c r="L19">
-        <v>0.9723807753005874</v>
+        <v>1.016420373844792</v>
       </c>
       <c r="M19">
-        <v>0.9237650422224857</v>
+        <v>1.034808767920904</v>
       </c>
       <c r="N19">
-        <v>0.9940983120132462</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.01123603618012</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.036691999346506</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.031147912575521</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
       <c r="C20">
-        <v>0.9405432627534585</v>
+        <v>0.9926718163130357</v>
       </c>
       <c r="D20">
-        <v>0.9549810674840642</v>
+        <v>1.013143857278842</v>
       </c>
       <c r="E20">
-        <v>0.9561198593742789</v>
+        <v>1.001211475197429</v>
       </c>
       <c r="F20">
-        <v>0.9048066119452014</v>
+        <v>1.019197130578682</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>1.046573572301259</v>
+      </c>
       <c r="J20">
-        <v>0.9705755027810989</v>
+        <v>1.020488179471303</v>
       </c>
       <c r="K20">
-        <v>0.9698645714154427</v>
+        <v>1.026959459196593</v>
       </c>
       <c r="L20">
-        <v>0.9709808160364933</v>
+        <v>1.015233055671764</v>
       </c>
       <c r="M20">
-        <v>0.9207588531707274</v>
+        <v>1.032910616675464</v>
       </c>
       <c r="N20">
-        <v>0.9935985499302109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.0108027619184</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.034659990163934</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.030212120453703</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
       <c r="C21">
-        <v>0.9332647898930976</v>
+        <v>0.9881534861978741</v>
       </c>
       <c r="D21">
-        <v>0.9490369206837087</v>
+        <v>1.00986599077633</v>
       </c>
       <c r="E21">
-        <v>0.9503216631066114</v>
+        <v>0.99773493980162</v>
       </c>
       <c r="F21">
-        <v>0.8933340677721447</v>
+        <v>1.015813875606028</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="I21">
+        <v>1.045499848590786</v>
+      </c>
       <c r="J21">
-        <v>0.9658442629250799</v>
+        <v>1.018154993214361</v>
       </c>
       <c r="K21">
-        <v>0.9650527031713517</v>
+        <v>1.024662829012005</v>
       </c>
       <c r="L21">
-        <v>0.9663095587505605</v>
+        <v>1.012759351883219</v>
       </c>
       <c r="M21">
-        <v>0.9106634314589159</v>
+        <v>1.030501717597517</v>
       </c>
       <c r="N21">
-        <v>0.9919287207034907</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.010022544732692</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.032712411249153</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.028591551550501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
       <c r="C22">
-        <v>0.9285330299963142</v>
+        <v>0.9852698771712188</v>
       </c>
       <c r="D22">
-        <v>0.9451825999483644</v>
+        <v>1.00779009671439</v>
       </c>
       <c r="E22">
-        <v>0.9465636474023935</v>
+        <v>0.9955256087229335</v>
       </c>
       <c r="F22">
-        <v>0.8858127836509362</v>
+        <v>1.013705994604465</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.044800357247518</v>
+      </c>
       <c r="J22">
-        <v>0.9627652351970335</v>
+        <v>1.016670486542641</v>
       </c>
       <c r="K22">
-        <v>0.9619242549243899</v>
+        <v>1.023208793932471</v>
       </c>
       <c r="L22">
-        <v>0.963273596536284</v>
+        <v>1.011186228362686</v>
       </c>
       <c r="M22">
-        <v>0.9040451121348604</v>
+        <v>1.029010736592432</v>
       </c>
       <c r="N22">
-        <v>0.9908417812515998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.009527114287659</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.031532385823436</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.027549850791219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
       <c r="C23">
-        <v>0.9310569554725647</v>
+        <v>0.9867933690870364</v>
       </c>
       <c r="D23">
-        <v>0.9472375253806946</v>
+        <v>1.008878656139139</v>
       </c>
       <c r="E23">
-        <v>0.9485670622316218</v>
+        <v>0.9966907773461273</v>
       </c>
       <c r="F23">
-        <v>0.8898311218561948</v>
+        <v>1.014815470923229</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.045169800317041</v>
+      </c>
       <c r="J23">
-        <v>0.964407895818529</v>
+        <v>1.017450240609998</v>
       </c>
       <c r="K23">
-        <v>0.9635929839387739</v>
+        <v>1.023967467849828</v>
       </c>
       <c r="L23">
-        <v>0.9648928866843632</v>
+        <v>1.01201373798311</v>
       </c>
       <c r="M23">
-        <v>0.9075809699295976</v>
+        <v>1.029792884320194</v>
       </c>
       <c r="N23">
-        <v>0.9914216742640557</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.009786444057952</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.032151410863076</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.028076554757087</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
       <c r="C24">
-        <v>0.9406628186002369</v>
+        <v>0.9926868372579599</v>
       </c>
       <c r="D24">
-        <v>0.9550788625777392</v>
+        <v>1.01311927846079</v>
       </c>
       <c r="E24">
-        <v>0.9562152788490854</v>
+        <v>1.001216063272363</v>
       </c>
       <c r="F24">
-        <v>0.9049941398075797</v>
+        <v>1.019135741117854</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.0465672039474</v>
+      </c>
       <c r="J24">
-        <v>0.9706531646648274</v>
+        <v>1.020469337017368</v>
       </c>
       <c r="K24">
-        <v>0.9699436046572556</v>
+        <v>1.0269198563799</v>
       </c>
       <c r="L24">
-        <v>0.9710575560726159</v>
+        <v>1.015221857079062</v>
       </c>
       <c r="M24">
-        <v>0.9209238634439691</v>
+        <v>1.032834943403804</v>
       </c>
       <c r="N24">
-        <v>0.993625953431705</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.010792179137181</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.034559020845859</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.030156504184477</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
       <c r="C25">
-        <v>0.9512042685019202</v>
+        <v>0.9992868303389407</v>
       </c>
       <c r="D25">
-        <v>0.9637218418866976</v>
+        <v>1.01790226998741</v>
       </c>
       <c r="E25">
-        <v>0.9646514993277204</v>
+        <v>1.00631421466229</v>
       </c>
       <c r="F25">
-        <v>0.9214224570574222</v>
+        <v>1.024019705767385</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.048059179792891</v>
+      </c>
       <c r="J25">
-        <v>0.9774932890932906</v>
+        <v>1.023838219347615</v>
       </c>
       <c r="K25">
-        <v>0.9769107077386361</v>
+        <v>1.030228890380227</v>
       </c>
       <c r="L25">
-        <v>0.9778245158113009</v>
+        <v>1.018815295024712</v>
       </c>
       <c r="M25">
-        <v>0.9353767658279936</v>
+        <v>1.036256248109397</v>
       </c>
       <c r="N25">
-        <v>0.9960382151706965</v>
+        <v>1.01191467604861</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.037266771509729</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.032493308807175</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_4/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.004342756255597</v>
+        <v>1.004399123239514</v>
       </c>
       <c r="D2">
-        <v>1.021570545184285</v>
+        <v>1.021270939982748</v>
       </c>
       <c r="E2">
-        <v>1.010238890653929</v>
+        <v>1.010294785486095</v>
       </c>
       <c r="F2">
-        <v>1.027787173836033</v>
+        <v>1.027620878930242</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049136131118624</v>
+        <v>1.049158821102432</v>
       </c>
       <c r="J2">
-        <v>1.026394347573015</v>
+        <v>1.026449048723703</v>
       </c>
       <c r="K2">
-        <v>1.032737329937943</v>
+        <v>1.032441681946496</v>
       </c>
       <c r="L2">
-        <v>1.021557400885736</v>
+        <v>1.021612536804003</v>
       </c>
       <c r="M2">
-        <v>1.038872500733692</v>
+        <v>1.038708368761929</v>
       </c>
       <c r="N2">
-        <v>1.012764195799683</v>
+        <v>1.014268275264544</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.039337366388326</v>
+        <v>1.039207466715681</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.034218345997518</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.034018119645806</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020676117467048</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007934129790745</v>
+        <v>1.007839008245345</v>
       </c>
       <c r="D3">
-        <v>1.024202559845276</v>
+        <v>1.023681835088799</v>
       </c>
       <c r="E3">
-        <v>1.013041135942137</v>
+        <v>1.012965028158891</v>
       </c>
       <c r="F3">
-        <v>1.030487841482231</v>
+        <v>1.03016359691257</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049867957213856</v>
+        <v>1.049829567114153</v>
       </c>
       <c r="J3">
-        <v>1.028210814689893</v>
+        <v>1.028118231427997</v>
       </c>
       <c r="K3">
-        <v>1.034534853741736</v>
+        <v>1.034020410395692</v>
       </c>
       <c r="L3">
-        <v>1.023509828567785</v>
+        <v>1.023434663709659</v>
       </c>
       <c r="M3">
-        <v>1.040744937785398</v>
+        <v>1.040424544681002</v>
       </c>
       <c r="N3">
-        <v>1.013369337641199</v>
+        <v>1.01470930021134</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.040819275639772</v>
+        <v>1.040565706047066</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.035486687111301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.035131472391233</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021002762728391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010215583979612</v>
+        <v>1.010025260422515</v>
       </c>
       <c r="D4">
-        <v>1.02588138137669</v>
+        <v>1.025220821244912</v>
       </c>
       <c r="E4">
-        <v>1.014826901868332</v>
+        <v>1.014667708061818</v>
       </c>
       <c r="F4">
-        <v>1.032212493128827</v>
+        <v>1.031788558205597</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.050315744180163</v>
+        <v>1.050238803666055</v>
       </c>
       <c r="J4">
-        <v>1.029361535353319</v>
+        <v>1.029175949690305</v>
       </c>
       <c r="K4">
-        <v>1.035677162093002</v>
+        <v>1.035024091871555</v>
       </c>
       <c r="L4">
-        <v>1.024749613091803</v>
+        <v>1.024592272165451</v>
       </c>
       <c r="M4">
-        <v>1.041937085593913</v>
+        <v>1.041517883886752</v>
       </c>
       <c r="N4">
-        <v>1.013752759993759</v>
+        <v>1.014988852038974</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.041762779665255</v>
+        <v>1.041431010124559</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.036295306834919</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.035842150493071</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021208128422001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011168162585475</v>
+        <v>1.010938248758656</v>
       </c>
       <c r="D5">
-        <v>1.026586440434762</v>
+        <v>1.025867611702</v>
       </c>
       <c r="E5">
-        <v>1.01557419318651</v>
+        <v>1.015380412223066</v>
       </c>
       <c r="F5">
-        <v>1.032935737885412</v>
+        <v>1.032470294736466</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050499238469521</v>
+        <v>1.050406228549637</v>
       </c>
       <c r="J5">
-        <v>1.029842768687542</v>
+        <v>1.029618408665135</v>
       </c>
       <c r="K5">
-        <v>1.036157409940365</v>
+        <v>1.03544651573833</v>
       </c>
       <c r="L5">
-        <v>1.025268235568958</v>
+        <v>1.025076649759915</v>
       </c>
       <c r="M5">
-        <v>1.042437211475953</v>
+        <v>1.041976827184057</v>
       </c>
       <c r="N5">
-        <v>1.013913375172929</v>
+        <v>1.01510600113122</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.042158594968452</v>
+        <v>1.041794232413598</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.036642089222086</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.036148756821957</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021294530683688</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011331592273375</v>
+        <v>1.0110948070068</v>
       </c>
       <c r="D6">
-        <v>1.026710517558683</v>
+        <v>1.025981664985378</v>
       </c>
       <c r="E6">
-        <v>1.01570291404619</v>
+        <v>1.015503118925008</v>
       </c>
       <c r="F6">
-        <v>1.033061166293378</v>
+        <v>1.032588569254433</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050531334210735</v>
+        <v>1.050435533330545</v>
       </c>
       <c r="J6">
-        <v>1.02992719620293</v>
+        <v>1.029696101540024</v>
       </c>
       <c r="K6">
-        <v>1.036243719994374</v>
+        <v>1.035522875865444</v>
       </c>
       <c r="L6">
-        <v>1.025358572671374</v>
+        <v>1.025161030426771</v>
       </c>
       <c r="M6">
-        <v>1.042525175953299</v>
+        <v>1.042057692090314</v>
       </c>
       <c r="N6">
-        <v>1.013941859703462</v>
+        <v>1.015126801094338</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.042228212791371</v>
+        <v>1.041858231447595</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.036711901927528</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.036212403294341</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021310757336249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010239299215387</v>
+        <v>1.010054031525198</v>
       </c>
       <c r="D7">
-        <v>1.025907014889119</v>
+        <v>1.025249666805363</v>
       </c>
       <c r="E7">
-        <v>1.014846675316571</v>
+        <v>1.014691972952636</v>
       </c>
       <c r="F7">
-        <v>1.032233751187007</v>
+        <v>1.031812600038671</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050322646010685</v>
+        <v>1.05024774862382</v>
       </c>
       <c r="J7">
-        <v>1.029378664158689</v>
+        <v>1.029198006495709</v>
       </c>
       <c r="K7">
-        <v>1.035699605210593</v>
+        <v>1.035049707640496</v>
       </c>
       <c r="L7">
-        <v>1.024766214007605</v>
+        <v>1.024613311547823</v>
       </c>
       <c r="M7">
-        <v>1.041955230174375</v>
+        <v>1.041538779340453</v>
       </c>
       <c r="N7">
-        <v>1.013759305814321</v>
+        <v>1.015021109349254</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.041777139858889</v>
+        <v>1.041447547453651</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.036331381470311</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.035882468385098</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021215677440971</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005579248995016</v>
+        <v>1.005602145230223</v>
       </c>
       <c r="D8">
-        <v>1.02248536467504</v>
+        <v>1.022123916710125</v>
       </c>
       <c r="E8">
-        <v>1.011204040302994</v>
+        <v>1.011231127068184</v>
       </c>
       <c r="F8">
-        <v>1.028719187002109</v>
+        <v>1.028510237849861</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.049394394886902</v>
+        <v>1.049403619721625</v>
       </c>
       <c r="J8">
-        <v>1.027026837767244</v>
+        <v>1.027049079898564</v>
       </c>
       <c r="K8">
-        <v>1.033369133402108</v>
+        <v>1.033012317974849</v>
       </c>
       <c r="L8">
-        <v>1.022234354709366</v>
+        <v>1.022261084704889</v>
       </c>
       <c r="M8">
-        <v>1.039523698497043</v>
+        <v>1.039317386518002</v>
       </c>
       <c r="N8">
-        <v>1.012975969498508</v>
+        <v>1.01450600877647</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.039852746404608</v>
+        <v>1.039689464140678</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.034688122669205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.034446911184646</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020798608485861</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9970121711359289</v>
+        <v>0.9974059316744923</v>
       </c>
       <c r="D9">
-        <v>1.016237336289404</v>
+        <v>1.016409473581431</v>
       </c>
       <c r="E9">
-        <v>1.004551386720107</v>
+        <v>1.004900798812411</v>
       </c>
       <c r="F9">
-        <v>1.022325728742921</v>
+        <v>1.022499430321504</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.047551349720661</v>
+        <v>1.047709018676058</v>
       </c>
       <c r="J9">
-        <v>1.022670880317209</v>
+        <v>1.0230506269124</v>
       </c>
       <c r="K9">
-        <v>1.029072354756818</v>
+        <v>1.029241812737858</v>
       </c>
       <c r="L9">
-        <v>1.017571049941703</v>
+        <v>1.017914861256158</v>
       </c>
       <c r="M9">
-        <v>1.035066681355288</v>
+        <v>1.035237720208968</v>
       </c>
       <c r="N9">
-        <v>1.011524287149731</v>
+        <v>1.013458789738145</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.036325304311069</v>
+        <v>1.036460670873043</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.031646779761205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.031777414375015</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020003976518589</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9911122740232666</v>
+        <v>0.9917906523409238</v>
       </c>
       <c r="D10">
-        <v>1.012006415227852</v>
+        <v>1.012564883823119</v>
       </c>
       <c r="E10">
-        <v>1.000009629297052</v>
+        <v>1.000605628704119</v>
       </c>
       <c r="F10">
-        <v>1.018060305032009</v>
+        <v>1.018514276549163</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.046206581511819</v>
+        <v>1.046477057312733</v>
       </c>
       <c r="J10">
-        <v>1.019683009216553</v>
+        <v>1.020333809354973</v>
       </c>
       <c r="K10">
-        <v>1.026162221910631</v>
+        <v>1.026710921733835</v>
       </c>
       <c r="L10">
-        <v>1.014378709886136</v>
+        <v>1.014963956940581</v>
       </c>
       <c r="M10">
-        <v>1.032110955849698</v>
+        <v>1.032557107044439</v>
       </c>
       <c r="N10">
-        <v>1.010533096088986</v>
+        <v>1.012860740465215</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.034037745278707</v>
+        <v>1.034390824908754</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.029606037612025</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.030006508884883</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019468273020506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9889414947743147</v>
+        <v>0.9897272937510488</v>
       </c>
       <c r="D11">
-        <v>1.010708834136215</v>
+        <v>1.011393400280953</v>
       </c>
       <c r="E11">
-        <v>0.998398980818369</v>
+        <v>0.9990861872692473</v>
       </c>
       <c r="F11">
-        <v>1.017186649122936</v>
+        <v>1.0177335359171</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045767983244177</v>
+        <v>1.04608071019783</v>
       </c>
       <c r="J11">
-        <v>1.018781668288296</v>
+        <v>1.019533763037958</v>
       </c>
       <c r="K11">
-        <v>1.025431584308454</v>
+        <v>1.026103605441678</v>
       </c>
       <c r="L11">
-        <v>1.013351153306855</v>
+        <v>1.01402535736</v>
       </c>
       <c r="M11">
-        <v>1.031791569019073</v>
+        <v>1.032328597284462</v>
       </c>
       <c r="N11">
-        <v>1.010267138921514</v>
+        <v>1.012899649214105</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.034223346409446</v>
+        <v>1.034648129454372</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.029122540797584</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.029613417405176</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019393140091957</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9882800597845469</v>
+        <v>0.9890858112371002</v>
       </c>
       <c r="D12">
-        <v>1.010413607773061</v>
+        <v>1.011118853917785</v>
       </c>
       <c r="E12">
-        <v>0.9979316507326182</v>
+        <v>0.9986342410109776</v>
       </c>
       <c r="F12">
-        <v>1.017211371561977</v>
+        <v>1.017773244611399</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.04566121242944</v>
+        <v>1.045981663482715</v>
       </c>
       <c r="J12">
-        <v>1.0185888462131</v>
+        <v>1.019359370972712</v>
       </c>
       <c r="K12">
-        <v>1.025343982448709</v>
+        <v>1.026036090116191</v>
       </c>
       <c r="L12">
-        <v>1.013098584621559</v>
+        <v>1.013787653666983</v>
       </c>
       <c r="M12">
-        <v>1.032016094146098</v>
+        <v>1.032567679135368</v>
       </c>
       <c r="N12">
-        <v>1.010228467869109</v>
+        <v>1.012971276588297</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.034728709671666</v>
+        <v>1.035164858025063</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.029060602530794</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.029565682251793</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.0194167933609</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.988752582456101</v>
+        <v>0.9895031542207708</v>
       </c>
       <c r="D13">
-        <v>1.010892548820689</v>
+        <v>1.011531454981241</v>
       </c>
       <c r="E13">
-        <v>0.9983252575139249</v>
+        <v>0.9989781218530728</v>
       </c>
       <c r="F13">
-        <v>1.017956947574389</v>
+        <v>1.018469033418868</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.04581570144921</v>
+        <v>1.046114261777566</v>
       </c>
       <c r="J13">
-        <v>1.018946307296589</v>
+        <v>1.019664227181196</v>
       </c>
       <c r="K13">
-        <v>1.025770654939399</v>
+        <v>1.026397712027383</v>
       </c>
       <c r="L13">
-        <v>1.013440471413934</v>
+        <v>1.014080825842183</v>
       </c>
       <c r="M13">
-        <v>1.032705114548934</v>
+        <v>1.033207872513205</v>
       </c>
       <c r="N13">
-        <v>1.010369258970071</v>
+        <v>1.013043016286844</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.035551142401045</v>
+        <v>1.035948581778509</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.029359766417155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.02981860485487</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019524673644642</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9895972313094473</v>
+        <v>0.9902760870873231</v>
       </c>
       <c r="D14">
-        <v>1.01157898869287</v>
+        <v>1.012132951644971</v>
       </c>
       <c r="E14">
-        <v>0.9989909296032073</v>
+        <v>0.9995804636923261</v>
       </c>
       <c r="F14">
-        <v>1.018804468018014</v>
+        <v>1.019253132250889</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.046041897928769</v>
+        <v>1.046312070747621</v>
       </c>
       <c r="J14">
-        <v>1.019445556692972</v>
+        <v>1.020095304068493</v>
       </c>
       <c r="K14">
-        <v>1.026302483613297</v>
+        <v>1.026846302685255</v>
       </c>
       <c r="L14">
-        <v>1.01394889451572</v>
+        <v>1.01452727544682</v>
       </c>
       <c r="M14">
-        <v>1.033396779643589</v>
+        <v>1.033837377774657</v>
       </c>
       <c r="N14">
-        <v>1.010549046194282</v>
+        <v>1.013094605521947</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.036271697822439</v>
+        <v>1.036619951485291</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.029737227613177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.030137344493007</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019638747025441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9900553188606985</v>
+        <v>0.9907004065403408</v>
       </c>
       <c r="D15">
-        <v>1.011925540359884</v>
+        <v>1.012439520652034</v>
       </c>
       <c r="E15">
-        <v>0.9993460108819007</v>
+        <v>0.9999060419815925</v>
       </c>
       <c r="F15">
-        <v>1.019185913200794</v>
+        <v>1.019604829122082</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046156313228901</v>
+        <v>1.046413126560566</v>
       </c>
       <c r="J15">
-        <v>1.019694108700208</v>
+        <v>1.020311777995808</v>
       </c>
       <c r="K15">
-        <v>1.026555310845466</v>
+        <v>1.027059951631854</v>
       </c>
       <c r="L15">
-        <v>1.014208274766051</v>
+        <v>1.014757792969601</v>
       </c>
       <c r="M15">
-        <v>1.033684889700296</v>
+        <v>1.034096332733152</v>
       </c>
       <c r="N15">
-        <v>1.010634696458011</v>
+        <v>1.013112112726386</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.036537046922299</v>
+        <v>1.036862247487276</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.029921901507964</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.030294884578804</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019688307146902</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9924651212150369</v>
+        <v>0.9929600644480031</v>
       </c>
       <c r="D16">
-        <v>1.01363264830942</v>
+        <v>1.013965354145826</v>
       </c>
       <c r="E16">
-        <v>1.001189759646704</v>
+        <v>1.001620048905292</v>
       </c>
       <c r="F16">
-        <v>1.020884116584176</v>
+        <v>1.021169108900512</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.046717506553273</v>
+        <v>1.046914894231918</v>
       </c>
       <c r="J16">
-        <v>1.020903158162554</v>
+        <v>1.021378117205422</v>
       </c>
       <c r="K16">
-        <v>1.027724079605948</v>
+        <v>1.028051005180999</v>
       </c>
       <c r="L16">
-        <v>1.015500951103384</v>
+        <v>1.015923522410062</v>
       </c>
       <c r="M16">
-        <v>1.034850667445186</v>
+        <v>1.035130798578301</v>
       </c>
       <c r="N16">
-        <v>1.011031987029487</v>
+        <v>1.013184649483705</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.037419662387684</v>
+        <v>1.037641081650886</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.030751461734407</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.030999086652922</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.0198930785308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9938732435174547</v>
+        <v>0.9942970219784227</v>
       </c>
       <c r="D17">
-        <v>1.014584820576158</v>
+        <v>1.014827662932139</v>
       </c>
       <c r="E17">
-        <v>1.002258558590451</v>
+        <v>1.002627917726373</v>
       </c>
       <c r="F17">
-        <v>1.021739217463527</v>
+        <v>1.021958560510869</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.047025816554004</v>
+        <v>1.047195006517677</v>
       </c>
       <c r="J17">
-        <v>1.02156891711798</v>
+        <v>1.021976135152047</v>
       </c>
       <c r="K17">
-        <v>1.028341867968568</v>
+        <v>1.028580610160561</v>
       </c>
       <c r="L17">
-        <v>1.016227102644531</v>
+        <v>1.016590026386359</v>
       </c>
       <c r="M17">
-        <v>1.035376521667794</v>
+        <v>1.035592227670577</v>
       </c>
       <c r="N17">
-        <v>1.011242468275203</v>
+        <v>1.013241537478329</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.037705947241379</v>
+        <v>1.037876461106239</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.031190871851217</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.031376392181575</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019991049164351</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9945388253907387</v>
+        <v>0.9949463393715856</v>
       </c>
       <c r="D18">
-        <v>1.014944831105042</v>
+        <v>1.015164690459147</v>
       </c>
       <c r="E18">
-        <v>1.002745135488707</v>
+        <v>1.003101601872934</v>
       </c>
       <c r="F18">
-        <v>1.021892246620574</v>
+        <v>1.022095443494778</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.04714251114206</v>
+        <v>1.047305307532572</v>
       </c>
       <c r="J18">
-        <v>1.021809748865559</v>
+        <v>1.022201636881948</v>
       </c>
       <c r="K18">
-        <v>1.028510488977059</v>
+        <v>1.028726696851066</v>
       </c>
       <c r="L18">
-        <v>1.016516651962617</v>
+        <v>1.016867011539591</v>
       </c>
       <c r="M18">
-        <v>1.035343496292104</v>
+        <v>1.035543377057416</v>
       </c>
       <c r="N18">
-        <v>1.011303815659771</v>
+        <v>1.013247809799309</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.037441454490303</v>
+        <v>1.037599491748179</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.03129837851741</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.031466831875497</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019995282305552</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9945419684286909</v>
+        <v>0.9949771203404137</v>
       </c>
       <c r="D19">
-        <v>1.014783432963473</v>
+        <v>1.015036561391498</v>
       </c>
       <c r="E19">
-        <v>1.002712592580329</v>
+        <v>1.00309456322564</v>
       </c>
       <c r="F19">
-        <v>1.021412297252104</v>
+        <v>1.021640624297097</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047092704595394</v>
+        <v>1.047266574437748</v>
       </c>
       <c r="J19">
-        <v>1.02167692791004</v>
+        <v>1.022095492615254</v>
       </c>
       <c r="K19">
-        <v>1.028288570804598</v>
+        <v>1.028537516149512</v>
       </c>
       <c r="L19">
-        <v>1.016420373844792</v>
+        <v>1.016795835530104</v>
       </c>
       <c r="M19">
-        <v>1.034808767920904</v>
+        <v>1.035033384262359</v>
       </c>
       <c r="N19">
-        <v>1.01123603618012</v>
+        <v>1.013192667922565</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.036691999346506</v>
+        <v>1.036869652416752</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.031147912575521</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.031340138042506</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019919798462651</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9926718163130357</v>
+        <v>0.9932560954428574</v>
       </c>
       <c r="D20">
-        <v>1.013143857278842</v>
+        <v>1.013586010254298</v>
       </c>
       <c r="E20">
-        <v>1.001211475197429</v>
+        <v>1.00172548137398</v>
       </c>
       <c r="F20">
-        <v>1.019197130578682</v>
+        <v>1.019565193685867</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.046573572301259</v>
+        <v>1.046806788759162</v>
       </c>
       <c r="J20">
-        <v>1.020488179471303</v>
+        <v>1.021049481593757</v>
       </c>
       <c r="K20">
-        <v>1.026959459196593</v>
+        <v>1.027394099958078</v>
       </c>
       <c r="L20">
-        <v>1.015233055671764</v>
+        <v>1.015738057975961</v>
       </c>
       <c r="M20">
-        <v>1.032910616675464</v>
+        <v>1.033272521130079</v>
       </c>
       <c r="N20">
-        <v>1.0108027619184</v>
+        <v>1.012952778016625</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.034659990163934</v>
+        <v>1.034946401227663</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.030212120453703</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.030536036540298</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019616751470402</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9881534861978741</v>
+        <v>0.9890489557269474</v>
       </c>
       <c r="D21">
-        <v>1.00986599077633</v>
+        <v>1.010677686335465</v>
       </c>
       <c r="E21">
-        <v>0.99773493980162</v>
+        <v>0.9985207228109156</v>
       </c>
       <c r="F21">
-        <v>1.015813875606028</v>
+        <v>1.016457118537939</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.045499848590786</v>
+        <v>1.045856128247859</v>
       </c>
       <c r="J21">
-        <v>1.018154993214361</v>
+        <v>1.019011779793881</v>
       </c>
       <c r="K21">
-        <v>1.024662829012005</v>
+        <v>1.025459551574166</v>
       </c>
       <c r="L21">
-        <v>1.012759351883219</v>
+        <v>1.013530174852198</v>
       </c>
       <c r="M21">
-        <v>1.030501717597517</v>
+        <v>1.031133272401254</v>
       </c>
       <c r="N21">
-        <v>1.010022544732692</v>
+        <v>1.012828749469343</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.032712411249153</v>
+        <v>1.033212249831474</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.028591551550501</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.029171813067382</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.01920128820736</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9852698771712188</v>
+        <v>0.9863613131666118</v>
       </c>
       <c r="D22">
-        <v>1.00779009671439</v>
+        <v>1.008834334947103</v>
       </c>
       <c r="E22">
-        <v>0.9955256087229335</v>
+        <v>0.9964822824264555</v>
       </c>
       <c r="F22">
-        <v>1.013705994604465</v>
+        <v>1.014522517541255</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.044800357247518</v>
+        <v>1.04523370731705</v>
       </c>
       <c r="J22">
-        <v>1.016670486542641</v>
+        <v>1.017712017073499</v>
       </c>
       <c r="K22">
-        <v>1.023208793932471</v>
+        <v>1.024232790188473</v>
       </c>
       <c r="L22">
-        <v>1.011186228362686</v>
+        <v>1.012123749576096</v>
       </c>
       <c r="M22">
-        <v>1.029010736592432</v>
+        <v>1.029811667769202</v>
       </c>
       <c r="N22">
-        <v>1.009527114287659</v>
+        <v>1.012741793431878</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.031532385823436</v>
+        <v>1.032166276878253</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.027549850791219</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.028289516081805</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018937133289943</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9867933690870364</v>
+        <v>0.9877717340028077</v>
       </c>
       <c r="D23">
-        <v>1.008878656139139</v>
+        <v>1.009792763280986</v>
       </c>
       <c r="E23">
-        <v>0.9966907773461273</v>
+        <v>0.9975486923374406</v>
       </c>
       <c r="F23">
-        <v>1.014815470923229</v>
+        <v>1.015534457411843</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045169800317041</v>
+        <v>1.045558683937214</v>
       </c>
       <c r="J23">
-        <v>1.017450240609998</v>
+        <v>1.018385187262574</v>
       </c>
       <c r="K23">
-        <v>1.023967467849828</v>
+        <v>1.024864311221914</v>
       </c>
       <c r="L23">
-        <v>1.01201373798311</v>
+        <v>1.012854925535174</v>
       </c>
       <c r="M23">
-        <v>1.029792884320194</v>
+        <v>1.030498495089622</v>
       </c>
       <c r="N23">
-        <v>1.009786444057952</v>
+        <v>1.012743682681169</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.032151410863076</v>
+        <v>1.032709860822261</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.028076554757087</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.028725372743794</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019070688520213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9926868372579599</v>
+        <v>0.9932742605327008</v>
       </c>
       <c r="D24">
-        <v>1.01311927846079</v>
+        <v>1.013565029451003</v>
       </c>
       <c r="E24">
-        <v>1.001216063272363</v>
+        <v>1.001733062463875</v>
       </c>
       <c r="F24">
-        <v>1.019135741117854</v>
+        <v>1.019506610840259</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.0465672039474</v>
+        <v>1.046801686445532</v>
       </c>
       <c r="J24">
-        <v>1.020469337017368</v>
+        <v>1.021033693239799</v>
       </c>
       <c r="K24">
-        <v>1.0269198563799</v>
+        <v>1.027358043313786</v>
       </c>
       <c r="L24">
-        <v>1.015221857079062</v>
+        <v>1.015729811784511</v>
       </c>
       <c r="M24">
-        <v>1.032834943403804</v>
+        <v>1.033199614528166</v>
       </c>
       <c r="N24">
-        <v>1.010792179137181</v>
+        <v>1.012941715988578</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.034559020845859</v>
+        <v>1.03484763593609</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.030156504184477</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.030480259788955</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019601798209198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9992868303389407</v>
+        <v>0.9995728165089038</v>
       </c>
       <c r="D25">
-        <v>1.01790226998741</v>
+        <v>1.017925962246597</v>
       </c>
       <c r="E25">
-        <v>1.00631421466229</v>
+        <v>1.006569897642917</v>
       </c>
       <c r="F25">
-        <v>1.024019705767385</v>
+        <v>1.024086036567877</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.048059179792891</v>
+        <v>1.048173880024427</v>
       </c>
       <c r="J25">
-        <v>1.023838219347615</v>
+        <v>1.024114565639794</v>
       </c>
       <c r="K25">
-        <v>1.030228890380227</v>
+        <v>1.030252231121031</v>
       </c>
       <c r="L25">
-        <v>1.018815295024712</v>
+        <v>1.019067073395653</v>
       </c>
       <c r="M25">
-        <v>1.036256248109397</v>
+        <v>1.036321609685367</v>
       </c>
       <c r="N25">
-        <v>1.01191467604861</v>
+        <v>1.013708095526958</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.037266771509729</v>
+        <v>1.037318501046276</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.032493308807175</v>
+        <v>1.032523426150875</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020221004926597</v>
       </c>
     </row>
   </sheetData>
